--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjith\Desktop\ZlaataProduction\src\test\resources\testdata\zltUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gowthamraj\Downloads\ZlaataProductionPGR\ZlaataProductionPGR\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A49C7C7-BF4D-4F37-9E06-EEB2B215510F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB1BE72-3604-4DF3-85A3-E2120522D0C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5257" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5197" uniqueCount="643">
   <si>
     <t>S.No</t>
   </si>
@@ -973,9 +973,6 @@
     <t>TC_UI_Zlaata_PDP_10</t>
   </si>
   <si>
-    <t>Verify "Ask Us Anything" Section</t>
-  </si>
-  <si>
     <t>TD_UI_Zlaata_PDP_10</t>
   </si>
   <si>
@@ -1552,15 +1549,9 @@
     <t>TD_UI_Zlaata_FS_04</t>
   </si>
   <si>
-    <t>Verify that Contact Us details are displayed in the footer.</t>
-  </si>
-  <si>
     <t>TD_UI_Zlaata_FS_05</t>
   </si>
   <si>
-    <t>Verify that the Zlaata logo is displayed in the footer.</t>
-  </si>
-  <si>
     <t>TD_UI_Zlaata_FS_06</t>
   </si>
   <si>
@@ -1708,9 +1699,6 @@
     <t>TC_UI_Zlaata_SB_04</t>
   </si>
   <si>
-    <t>Verify that entering less than three characters in the search bar does not navigate to any page.</t>
-  </si>
-  <si>
     <t>TD_UI_Zlaata_SB_04</t>
   </si>
   <si>
@@ -1768,15 +1756,9 @@
     <t>TD_UI_Zlaata_SB_10</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_SB_11</t>
-  </si>
-  <si>
     <t>Verify that the search keyword redirects to the correct page</t>
   </si>
   <si>
-    <t>TD_UI_Zlaata_SB_11</t>
-  </si>
-  <si>
     <t>8585858585</t>
   </si>
   <si>
@@ -1816,9 +1798,6 @@
     <t>uttar pradesh</t>
   </si>
   <si>
-    <t>jj</t>
-  </si>
-  <si>
     <t>Yellow</t>
   </si>
   <si>
@@ -1927,9 +1906,6 @@
     <t>TC_UI_Zlaata_FS_07</t>
   </si>
   <si>
-    <t>TC_UI_Zlaata_FS_08</t>
-  </si>
-  <si>
     <t>Verify Product price is displaying on product details page</t>
   </si>
   <si>
@@ -1967,6 +1943,18 @@
   </si>
   <si>
     <t>Verify Display of "Recently Viewed" Section</t>
+  </si>
+  <si>
+    <t>kurta</t>
+  </si>
+  <si>
+    <t>9852474152</t>
+  </si>
+  <si>
+    <t>Verify that the payment logo is displayed in the footer.</t>
+  </si>
+  <si>
+    <t>Verify that the category name is displayed on the Product Details Page</t>
   </si>
 </sst>
 </file>
@@ -2289,7 +2277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2432,10 +2420,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2448,7 +2432,14 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3283,10 +3274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z185"/>
+  <dimension ref="A1:X183"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="D65" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4039,18 +4030,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="73"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
@@ -4127,7 +4118,7 @@
         <v>160</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>14</v>
@@ -4159,7 +4150,7 @@
         <v>161</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>14</v>
@@ -4191,7 +4182,7 @@
         <v>162</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>14</v>
@@ -4223,7 +4214,7 @@
         <v>163</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>14</v>
@@ -4255,7 +4246,7 @@
         <v>164</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>14</v>
@@ -4287,7 +4278,7 @@
         <v>165</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>14</v>
@@ -4319,7 +4310,7 @@
         <v>166</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>14</v>
@@ -4351,7 +4342,7 @@
         <v>167</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>14</v>
@@ -4437,18 +4428,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="73" t="s">
+      <c r="A37" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="B37" s="74"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="75"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="76"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
@@ -4963,18 +4954,18 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="73" t="s">
+      <c r="A54" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="B54" s="74"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="74"/>
-      <c r="J54" s="75"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="76"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
@@ -5297,18 +5288,18 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="73" t="s">
+      <c r="A65" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B65" s="74"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="74"/>
-      <c r="J65" s="75"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="76"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
@@ -5663,18 +5654,18 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="73" t="s">
-        <v>356</v>
-      </c>
-      <c r="B77" s="74"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="74"/>
-      <c r="H77" s="74"/>
-      <c r="I77" s="74"/>
-      <c r="J77" s="75"/>
+      <c r="A77" s="74" t="s">
+        <v>355</v>
+      </c>
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="75"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="76"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="25">
@@ -5687,7 +5678,7 @@
         <v>290</v>
       </c>
       <c r="D78" s="48" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="E78" s="48" t="s">
         <v>14</v>
@@ -5719,7 +5710,7 @@
         <v>293</v>
       </c>
       <c r="D79" s="48" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="E79" s="48" t="s">
         <v>14</v>
@@ -5751,7 +5742,7 @@
         <v>295</v>
       </c>
       <c r="D80" s="48" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="E80" s="48" t="s">
         <v>14</v>
@@ -5783,7 +5774,7 @@
         <v>297</v>
       </c>
       <c r="D81" s="48" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="E81" s="48" t="s">
         <v>14</v>
@@ -5975,13 +5966,13 @@
         <v>314</v>
       </c>
       <c r="D87" s="48" t="s">
-        <v>315</v>
+        <v>642</v>
       </c>
       <c r="E87" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G87" s="48" t="s">
         <v>11</v>
@@ -6004,16 +5995,16 @@
         <v>10</v>
       </c>
       <c r="C88" s="48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D88" s="48" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="E88" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F88" s="48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G88" s="48" t="s">
         <v>11</v>
@@ -6036,16 +6027,16 @@
         <v>10</v>
       </c>
       <c r="C89" s="48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D89" s="48" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="E89" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G89" s="48" t="s">
         <v>11</v>
@@ -6068,16 +6059,16 @@
         <v>10</v>
       </c>
       <c r="C90" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="D90" s="48" t="s">
         <v>322</v>
-      </c>
-      <c r="D90" s="48" t="s">
-        <v>323</v>
       </c>
       <c r="E90" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G90" s="48" t="s">
         <v>11</v>
@@ -6100,16 +6091,16 @@
         <v>10</v>
       </c>
       <c r="C91" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="D91" s="48" t="s">
         <v>325</v>
-      </c>
-      <c r="D91" s="48" t="s">
-        <v>326</v>
       </c>
       <c r="E91" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F91" s="48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G91" s="48" t="s">
         <v>11</v>
@@ -6132,16 +6123,16 @@
         <v>10</v>
       </c>
       <c r="C92" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="D92" s="48" t="s">
         <v>328</v>
-      </c>
-      <c r="D92" s="48" t="s">
-        <v>329</v>
       </c>
       <c r="E92" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F92" s="48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G92" s="48" t="s">
         <v>11</v>
@@ -6164,16 +6155,16 @@
         <v>10</v>
       </c>
       <c r="C93" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="D93" s="48" t="s">
         <v>331</v>
-      </c>
-      <c r="D93" s="48" t="s">
-        <v>332</v>
       </c>
       <c r="E93" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F93" s="48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G93" s="48" t="s">
         <v>11</v>
@@ -6196,16 +6187,16 @@
         <v>10</v>
       </c>
       <c r="C94" s="48" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D94" s="48" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="E94" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F94" s="48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G94" s="48" t="s">
         <v>11</v>
@@ -6228,16 +6219,16 @@
         <v>10</v>
       </c>
       <c r="C95" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="D95" s="48" t="s">
         <v>336</v>
-      </c>
-      <c r="D95" s="48" t="s">
-        <v>337</v>
       </c>
       <c r="E95" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="48" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G95" s="48" t="s">
         <v>11</v>
@@ -6260,16 +6251,16 @@
         <v>10</v>
       </c>
       <c r="C96" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="D96" s="48" t="s">
         <v>339</v>
-      </c>
-      <c r="D96" s="48" t="s">
-        <v>340</v>
       </c>
       <c r="E96" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F96" s="48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G96" s="48" t="s">
         <v>11</v>
@@ -6292,16 +6283,16 @@
         <v>10</v>
       </c>
       <c r="C97" s="48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D97" s="48" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="E97" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F97" s="48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G97" s="48" t="s">
         <v>11</v>
@@ -6324,16 +6315,16 @@
         <v>10</v>
       </c>
       <c r="C98" s="48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D98" s="48" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="E98" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F98" s="48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G98" s="48" t="s">
         <v>11</v>
@@ -6356,16 +6347,16 @@
         <v>10</v>
       </c>
       <c r="C99" s="48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D99" s="48" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="E99" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F99" s="48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G99" s="48" t="s">
         <v>11</v>
@@ -6388,16 +6379,16 @@
         <v>10</v>
       </c>
       <c r="C100" s="48" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D100" s="48" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="E100" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F100" s="48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G100" s="48" t="s">
         <v>11</v>
@@ -6420,16 +6411,16 @@
         <v>10</v>
       </c>
       <c r="C101" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D101" s="48" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="E101" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F101" s="48" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G101" s="48" t="s">
         <v>11</v>
@@ -6452,16 +6443,16 @@
         <v>10</v>
       </c>
       <c r="C102" s="48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D102" s="48" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="E102" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F102" s="48" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G102" s="48" t="s">
         <v>11</v>
@@ -6484,16 +6475,16 @@
         <v>10</v>
       </c>
       <c r="C103" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D103" s="48" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E103" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F103" s="48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G103" s="48" t="s">
         <v>11</v>
@@ -6509,18 +6500,18 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="73" t="s">
-        <v>479</v>
-      </c>
-      <c r="B104" s="74"/>
-      <c r="C104" s="74"/>
-      <c r="D104" s="74"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="74"/>
-      <c r="H104" s="74"/>
-      <c r="I104" s="74"/>
-      <c r="J104" s="75"/>
+      <c r="A104" s="74" t="s">
+        <v>478</v>
+      </c>
+      <c r="B104" s="75"/>
+      <c r="C104" s="75"/>
+      <c r="D104" s="75"/>
+      <c r="E104" s="75"/>
+      <c r="F104" s="75"/>
+      <c r="G104" s="75"/>
+      <c r="H104" s="75"/>
+      <c r="I104" s="75"/>
+      <c r="J104" s="76"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="25">
@@ -6530,22 +6521,22 @@
         <v>10</v>
       </c>
       <c r="C105" s="48" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D105" s="48" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E105" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F105" s="48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G105" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H105" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I105" s="48" t="s">
         <v>12</v>
@@ -6562,22 +6553,22 @@
         <v>10</v>
       </c>
       <c r="C106" s="48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D106" s="48" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E106" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F106" s="48" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G106" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H106" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I106" s="48" t="s">
         <v>12</v>
@@ -6594,22 +6585,22 @@
         <v>10</v>
       </c>
       <c r="C107" s="48" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D107" s="48" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E107" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="48" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G107" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H107" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I107" s="48" t="s">
         <v>12</v>
@@ -6626,22 +6617,22 @@
         <v>10</v>
       </c>
       <c r="C108" s="48" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D108" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E108" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F108" s="48" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G108" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H108" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I108" s="48" t="s">
         <v>12</v>
@@ -6658,22 +6649,22 @@
         <v>10</v>
       </c>
       <c r="C109" s="48" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D109" s="48" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E109" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F109" s="48" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G109" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H109" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I109" s="48" t="s">
         <v>12</v>
@@ -6690,22 +6681,22 @@
         <v>10</v>
       </c>
       <c r="C110" s="48" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D110" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E110" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F110" s="48" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G110" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H110" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I110" s="48" t="s">
         <v>12</v>
@@ -6722,22 +6713,22 @@
         <v>10</v>
       </c>
       <c r="C111" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="D111" s="48" t="s">
         <v>450</v>
-      </c>
-      <c r="D111" s="48" t="s">
-        <v>451</v>
       </c>
       <c r="E111" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F111" s="48" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G111" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H111" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I111" s="48" t="s">
         <v>12</v>
@@ -6754,22 +6745,22 @@
         <v>10</v>
       </c>
       <c r="C112" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="D112" s="48" t="s">
         <v>453</v>
-      </c>
-      <c r="D112" s="48" t="s">
-        <v>454</v>
       </c>
       <c r="E112" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F112" s="48" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G112" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H112" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I112" s="48" t="s">
         <v>12</v>
@@ -6786,22 +6777,22 @@
         <v>10</v>
       </c>
       <c r="C113" s="48" t="s">
+        <v>455</v>
+      </c>
+      <c r="D113" s="48" t="s">
         <v>456</v>
-      </c>
-      <c r="D113" s="48" t="s">
-        <v>457</v>
       </c>
       <c r="E113" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F113" s="48" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G113" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H113" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I113" s="48" t="s">
         <v>12</v>
@@ -6818,22 +6809,22 @@
         <v>10</v>
       </c>
       <c r="C114" s="48" t="s">
+        <v>458</v>
+      </c>
+      <c r="D114" s="48" t="s">
         <v>459</v>
-      </c>
-      <c r="D114" s="48" t="s">
-        <v>460</v>
       </c>
       <c r="E114" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F114" s="48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G114" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H114" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I114" s="48" t="s">
         <v>12</v>
@@ -6850,22 +6841,22 @@
         <v>10</v>
       </c>
       <c r="C115" s="48" t="s">
+        <v>461</v>
+      </c>
+      <c r="D115" s="48" t="s">
         <v>462</v>
-      </c>
-      <c r="D115" s="48" t="s">
-        <v>463</v>
       </c>
       <c r="E115" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F115" s="48" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G115" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H115" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I115" s="48" t="s">
         <v>12</v>
@@ -6882,22 +6873,22 @@
         <v>10</v>
       </c>
       <c r="C116" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="D116" s="48" t="s">
         <v>465</v>
-      </c>
-      <c r="D116" s="48" t="s">
-        <v>466</v>
       </c>
       <c r="E116" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="48" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G116" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H116" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I116" s="48" t="s">
         <v>12</v>
@@ -6914,22 +6905,22 @@
         <v>10</v>
       </c>
       <c r="C117" s="48" t="s">
+        <v>467</v>
+      </c>
+      <c r="D117" s="48" t="s">
         <v>468</v>
-      </c>
-      <c r="D117" s="48" t="s">
-        <v>469</v>
       </c>
       <c r="E117" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="48" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G117" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H117" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I117" s="48" t="s">
         <v>12</v>
@@ -6946,22 +6937,22 @@
         <v>10</v>
       </c>
       <c r="C118" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="D118" s="48" t="s">
         <v>471</v>
-      </c>
-      <c r="D118" s="48" t="s">
-        <v>472</v>
       </c>
       <c r="E118" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F118" s="48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G118" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H118" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I118" s="48" t="s">
         <v>12</v>
@@ -6978,22 +6969,22 @@
         <v>10</v>
       </c>
       <c r="C119" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="D119" s="48" t="s">
         <v>474</v>
-      </c>
-      <c r="D119" s="48" t="s">
-        <v>475</v>
       </c>
       <c r="E119" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F119" s="48" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G119" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H119" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I119" s="48" t="s">
         <v>12</v>
@@ -7010,22 +7001,22 @@
         <v>10</v>
       </c>
       <c r="C120" s="48" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D120" s="48" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E120" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F120" s="48" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G120" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H120" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I120" s="48" t="s">
         <v>12</v>
@@ -7035,18 +7026,18 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="76" t="s">
-        <v>480</v>
-      </c>
-      <c r="B121" s="76"/>
-      <c r="C121" s="76"/>
-      <c r="D121" s="76"/>
-      <c r="E121" s="76"/>
-      <c r="F121" s="76"/>
-      <c r="G121" s="76"/>
-      <c r="H121" s="76"/>
-      <c r="I121" s="76"/>
-      <c r="J121" s="76"/>
+      <c r="A121" s="77" t="s">
+        <v>479</v>
+      </c>
+      <c r="B121" s="77"/>
+      <c r="C121" s="77"/>
+      <c r="D121" s="77"/>
+      <c r="E121" s="77"/>
+      <c r="F121" s="77"/>
+      <c r="G121" s="77"/>
+      <c r="H121" s="77"/>
+      <c r="I121" s="77"/>
+      <c r="J121" s="77"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="25">
@@ -7056,22 +7047,22 @@
         <v>10</v>
       </c>
       <c r="C122" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="D122" s="48" t="s">
         <v>358</v>
-      </c>
-      <c r="D122" s="48" t="s">
-        <v>359</v>
       </c>
       <c r="E122" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F122" s="48" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G122" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H122" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I122" s="48" t="s">
         <v>12</v>
@@ -7088,22 +7079,22 @@
         <v>10</v>
       </c>
       <c r="C123" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="D123" s="48" t="s">
         <v>362</v>
-      </c>
-      <c r="D123" s="48" t="s">
-        <v>363</v>
       </c>
       <c r="E123" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F123" s="48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G123" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H123" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I123" s="48" t="s">
         <v>12</v>
@@ -7120,22 +7111,22 @@
         <v>10</v>
       </c>
       <c r="C124" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="D124" s="48" t="s">
         <v>365</v>
-      </c>
-      <c r="D124" s="48" t="s">
-        <v>366</v>
       </c>
       <c r="E124" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F124" s="48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G124" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H124" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I124" s="48" t="s">
         <v>12</v>
@@ -7152,22 +7143,22 @@
         <v>10</v>
       </c>
       <c r="C125" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="D125" s="48" t="s">
         <v>368</v>
-      </c>
-      <c r="D125" s="48" t="s">
-        <v>369</v>
       </c>
       <c r="E125" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F125" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G125" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H125" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I125" s="48" t="s">
         <v>12</v>
@@ -7184,22 +7175,22 @@
         <v>10</v>
       </c>
       <c r="C126" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="D126" s="48" t="s">
         <v>371</v>
-      </c>
-      <c r="D126" s="48" t="s">
-        <v>372</v>
       </c>
       <c r="E126" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F126" s="48" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G126" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H126" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I126" s="48" t="s">
         <v>12</v>
@@ -7216,22 +7207,22 @@
         <v>10</v>
       </c>
       <c r="C127" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="D127" s="48" t="s">
         <v>374</v>
-      </c>
-      <c r="D127" s="48" t="s">
-        <v>375</v>
       </c>
       <c r="E127" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F127" s="48" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G127" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H127" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I127" s="48" t="s">
         <v>12</v>
@@ -7248,22 +7239,22 @@
         <v>10</v>
       </c>
       <c r="C128" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="D128" s="48" t="s">
         <v>377</v>
-      </c>
-      <c r="D128" s="48" t="s">
-        <v>378</v>
       </c>
       <c r="E128" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G128" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H128" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I128" s="48" t="s">
         <v>12</v>
@@ -7280,22 +7271,22 @@
         <v>10</v>
       </c>
       <c r="C129" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="D129" s="48" t="s">
         <v>380</v>
-      </c>
-      <c r="D129" s="48" t="s">
-        <v>381</v>
       </c>
       <c r="E129" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F129" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G129" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H129" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I129" s="48" t="s">
         <v>12</v>
@@ -7312,22 +7303,22 @@
         <v>10</v>
       </c>
       <c r="C130" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="D130" s="48" t="s">
         <v>383</v>
-      </c>
-      <c r="D130" s="48" t="s">
-        <v>384</v>
       </c>
       <c r="E130" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F130" s="48" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G130" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H130" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I130" s="48" t="s">
         <v>12</v>
@@ -7344,22 +7335,22 @@
         <v>10</v>
       </c>
       <c r="C131" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="D131" s="48" t="s">
         <v>386</v>
-      </c>
-      <c r="D131" s="48" t="s">
-        <v>387</v>
       </c>
       <c r="E131" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F131" s="48" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G131" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H131" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I131" s="48" t="s">
         <v>12</v>
@@ -7376,22 +7367,22 @@
         <v>10</v>
       </c>
       <c r="C132" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="D132" s="48" t="s">
         <v>389</v>
-      </c>
-      <c r="D132" s="48" t="s">
-        <v>390</v>
       </c>
       <c r="E132" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F132" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G132" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H132" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I132" s="48" t="s">
         <v>12</v>
@@ -7408,22 +7399,22 @@
         <v>10</v>
       </c>
       <c r="C133" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="D133" s="48" t="s">
         <v>392</v>
-      </c>
-      <c r="D133" s="48" t="s">
-        <v>393</v>
       </c>
       <c r="E133" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F133" s="48" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G133" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H133" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I133" s="48" t="s">
         <v>12</v>
@@ -7440,22 +7431,22 @@
         <v>10</v>
       </c>
       <c r="C134" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="D134" s="48" t="s">
         <v>395</v>
-      </c>
-      <c r="D134" s="48" t="s">
-        <v>396</v>
       </c>
       <c r="E134" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F134" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G134" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H134" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I134" s="48" t="s">
         <v>12</v>
@@ -7472,22 +7463,22 @@
         <v>10</v>
       </c>
       <c r="C135" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="D135" s="48" t="s">
         <v>398</v>
-      </c>
-      <c r="D135" s="48" t="s">
-        <v>399</v>
       </c>
       <c r="E135" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F135" s="48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G135" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H135" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I135" s="48" t="s">
         <v>12</v>
@@ -7504,22 +7495,22 @@
         <v>10</v>
       </c>
       <c r="C136" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="D136" s="48" t="s">
         <v>401</v>
-      </c>
-      <c r="D136" s="48" t="s">
-        <v>402</v>
       </c>
       <c r="E136" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F136" s="48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G136" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H136" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I136" s="48" t="s">
         <v>12</v>
@@ -7536,22 +7527,22 @@
         <v>10</v>
       </c>
       <c r="C137" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="D137" s="48" t="s">
         <v>404</v>
-      </c>
-      <c r="D137" s="48" t="s">
-        <v>405</v>
       </c>
       <c r="E137" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F137" s="48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G137" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H137" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I137" s="48" t="s">
         <v>12</v>
@@ -7568,22 +7559,22 @@
         <v>10</v>
       </c>
       <c r="C138" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="D138" s="48" t="s">
         <v>407</v>
-      </c>
-      <c r="D138" s="48" t="s">
-        <v>408</v>
       </c>
       <c r="E138" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F138" s="48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G138" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H138" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I138" s="48" t="s">
         <v>12</v>
@@ -7600,22 +7591,22 @@
         <v>10</v>
       </c>
       <c r="C139" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="D139" s="48" t="s">
         <v>410</v>
-      </c>
-      <c r="D139" s="48" t="s">
-        <v>411</v>
       </c>
       <c r="E139" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F139" s="48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G139" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H139" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I139" s="48" t="s">
         <v>12</v>
@@ -7632,22 +7623,22 @@
         <v>10</v>
       </c>
       <c r="C140" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="D140" s="48" t="s">
         <v>413</v>
-      </c>
-      <c r="D140" s="48" t="s">
-        <v>414</v>
       </c>
       <c r="E140" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F140" s="48" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G140" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H140" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I140" s="48" t="s">
         <v>12</v>
@@ -7664,22 +7655,22 @@
         <v>10</v>
       </c>
       <c r="C141" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="D141" s="48" t="s">
         <v>416</v>
-      </c>
-      <c r="D141" s="48" t="s">
-        <v>417</v>
       </c>
       <c r="E141" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F141" s="48" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G141" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H141" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I141" s="48" t="s">
         <v>12</v>
@@ -7696,22 +7687,22 @@
         <v>10</v>
       </c>
       <c r="C142" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="D142" s="48" t="s">
         <v>419</v>
-      </c>
-      <c r="D142" s="48" t="s">
-        <v>420</v>
       </c>
       <c r="E142" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F142" s="48" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G142" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H142" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I142" s="48" t="s">
         <v>12</v>
@@ -7728,22 +7719,22 @@
         <v>10</v>
       </c>
       <c r="C143" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="D143" s="48" t="s">
         <v>422</v>
-      </c>
-      <c r="D143" s="48" t="s">
-        <v>423</v>
       </c>
       <c r="E143" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F143" s="48" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G143" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H143" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I143" s="48" t="s">
         <v>12</v>
@@ -7760,22 +7751,22 @@
         <v>10</v>
       </c>
       <c r="C144" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="D144" s="48" t="s">
         <v>425</v>
-      </c>
-      <c r="D144" s="48" t="s">
-        <v>426</v>
       </c>
       <c r="E144" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F144" s="48" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G144" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H144" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I144" s="48" t="s">
         <v>12</v>
@@ -7784,7 +7775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="25">
         <v>24</v>
       </c>
@@ -7792,22 +7783,22 @@
         <v>10</v>
       </c>
       <c r="C145" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="D145" s="48" t="s">
         <v>428</v>
-      </c>
-      <c r="D145" s="48" t="s">
-        <v>429</v>
       </c>
       <c r="E145" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F145" s="48" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G145" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H145" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I145" s="48" t="s">
         <v>12</v>
@@ -7816,7 +7807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="25">
         <v>25</v>
       </c>
@@ -7824,22 +7815,22 @@
         <v>10</v>
       </c>
       <c r="C146" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="D146" s="48" t="s">
         <v>431</v>
-      </c>
-      <c r="D146" s="48" t="s">
-        <v>432</v>
       </c>
       <c r="E146" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F146" s="48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G146" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H146" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I146" s="48" t="s">
         <v>12</v>
@@ -7848,7 +7839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="25">
         <v>26</v>
       </c>
@@ -7856,22 +7847,22 @@
         <v>10</v>
       </c>
       <c r="C147" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="D147" s="48" t="s">
         <v>434</v>
-      </c>
-      <c r="D147" s="48" t="s">
-        <v>435</v>
       </c>
       <c r="E147" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F147" s="48" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G147" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H147" s="48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I147" s="48" t="s">
         <v>12</v>
@@ -7880,9 +7871,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="66" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B148" s="66"/>
       <c r="C148" s="66"/>
@@ -7894,7 +7885,7 @@
       <c r="I148" s="66"/>
       <c r="J148" s="66"/>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="25">
         <v>1</v>
       </c>
@@ -7902,22 +7893,22 @@
         <v>10</v>
       </c>
       <c r="C149" s="48" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E149" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F149" s="48" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G149" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H149" s="48" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I149" s="48" t="s">
         <v>12</v>
@@ -7926,9 +7917,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="66" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B150" s="66"/>
       <c r="C150" s="66"/>
@@ -7940,7 +7931,7 @@
       <c r="I150" s="66"/>
       <c r="J150" s="66"/>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="25">
         <v>1</v>
       </c>
@@ -7948,22 +7939,22 @@
         <v>10</v>
       </c>
       <c r="C151" s="48" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D151" s="24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E151" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F151" s="48" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G151" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H151" s="48" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I151" s="48" t="s">
         <v>12</v>
@@ -7972,9 +7963,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="66" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B152" s="66"/>
       <c r="C152" s="66"/>
@@ -7986,7 +7977,7 @@
       <c r="I152" s="66"/>
       <c r="J152" s="66"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="25">
         <v>1</v>
       </c>
@@ -7994,30 +7985,30 @@
         <v>10</v>
       </c>
       <c r="C153" s="48" t="s">
+        <v>500</v>
+      </c>
+      <c r="D153" s="51" t="s">
         <v>501</v>
       </c>
-      <c r="D153" s="48" t="s">
+      <c r="E153" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="51" t="s">
         <v>502</v>
       </c>
-      <c r="E153" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F153" s="48" t="s">
+      <c r="G153" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H153" s="51" t="s">
         <v>503</v>
       </c>
-      <c r="G153" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H153" s="48" t="s">
-        <v>504</v>
-      </c>
-      <c r="I153" s="48" t="s">
+      <c r="I153" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J153" s="48" t="s">
+      <c r="J153" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="K153" s="58"/>
+      <c r="K153" s="59"/>
       <c r="L153" s="59"/>
       <c r="M153" s="59"/>
       <c r="N153" s="59"/>
@@ -8031,10 +8022,8 @@
       <c r="V153" s="59"/>
       <c r="W153" s="59"/>
       <c r="X153" s="59"/>
-      <c r="Y153" s="59"/>
-      <c r="Z153" s="59"/>
-    </row>
-    <row r="154" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="25">
         <v>2</v>
       </c>
@@ -8042,22 +8031,22 @@
         <v>10</v>
       </c>
       <c r="C154" s="48" t="s">
-        <v>627</v>
-      </c>
-      <c r="D154" s="60" t="s">
-        <v>508</v>
+        <v>620</v>
+      </c>
+      <c r="D154" s="64" t="s">
+        <v>641</v>
       </c>
       <c r="E154" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F154" s="48" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G154" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H154" s="48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I154" s="48" t="s">
         <v>12</v>
@@ -8079,10 +8068,8 @@
       <c r="V154" s="59"/>
       <c r="W154" s="59"/>
       <c r="X154" s="59"/>
-      <c r="Y154" s="59"/>
-      <c r="Z154" s="59"/>
-    </row>
-    <row r="155" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="25">
         <v>3</v>
       </c>
@@ -8090,22 +8077,22 @@
         <v>10</v>
       </c>
       <c r="C155" s="48" t="s">
-        <v>628</v>
-      </c>
-      <c r="D155" s="48" t="s">
-        <v>510</v>
+        <v>621</v>
+      </c>
+      <c r="D155" s="65" t="s">
+        <v>509</v>
       </c>
       <c r="E155" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F155" s="48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G155" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H155" s="48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I155" s="48" t="s">
         <v>12</v>
@@ -8127,10 +8114,8 @@
       <c r="V155" s="59"/>
       <c r="W155" s="59"/>
       <c r="X155" s="59"/>
-      <c r="Y155" s="59"/>
-      <c r="Z155" s="59"/>
-    </row>
-    <row r="156" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="25">
         <v>4</v>
       </c>
@@ -8138,22 +8123,22 @@
         <v>10</v>
       </c>
       <c r="C156" s="48" t="s">
-        <v>629</v>
-      </c>
-      <c r="D156" s="61" t="s">
-        <v>512</v>
+        <v>622</v>
+      </c>
+      <c r="D156" s="65" t="s">
+        <v>511</v>
       </c>
       <c r="E156" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F156" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G156" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H156" s="48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I156" s="48" t="s">
         <v>12</v>
@@ -8175,10 +8160,8 @@
       <c r="V156" s="59"/>
       <c r="W156" s="59"/>
       <c r="X156" s="59"/>
-      <c r="Y156" s="59"/>
-      <c r="Z156" s="59"/>
-    </row>
-    <row r="157" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="25">
         <v>5</v>
       </c>
@@ -8186,22 +8169,22 @@
         <v>10</v>
       </c>
       <c r="C157" s="48" t="s">
-        <v>630</v>
-      </c>
-      <c r="D157" s="61" t="s">
-        <v>514</v>
+        <v>623</v>
+      </c>
+      <c r="D157" s="65" t="s">
+        <v>513</v>
       </c>
       <c r="E157" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F157" s="48" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G157" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H157" s="48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I157" s="48" t="s">
         <v>12</v>
@@ -8223,10 +8206,8 @@
       <c r="V157" s="59"/>
       <c r="W157" s="59"/>
       <c r="X157" s="59"/>
-      <c r="Y157" s="59"/>
-      <c r="Z157" s="59"/>
-    </row>
-    <row r="158" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="25">
         <v>6</v>
       </c>
@@ -8234,22 +8215,22 @@
         <v>10</v>
       </c>
       <c r="C158" s="48" t="s">
-        <v>631</v>
-      </c>
-      <c r="D158" s="61" t="s">
-        <v>516</v>
+        <v>624</v>
+      </c>
+      <c r="D158" s="65" t="s">
+        <v>514</v>
       </c>
       <c r="E158" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F158" s="48" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G158" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H158" s="48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I158" s="48" t="s">
         <v>12</v>
@@ -8271,10 +8252,8 @@
       <c r="V158" s="59"/>
       <c r="W158" s="59"/>
       <c r="X158" s="59"/>
-      <c r="Y158" s="59"/>
-      <c r="Z158" s="59"/>
-    </row>
-    <row r="159" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="25">
         <v>7</v>
       </c>
@@ -8282,22 +8261,22 @@
         <v>10</v>
       </c>
       <c r="C159" s="48" t="s">
-        <v>632</v>
-      </c>
-      <c r="D159" s="61" t="s">
-        <v>517</v>
+        <v>625</v>
+      </c>
+      <c r="D159" s="65" t="s">
+        <v>515</v>
       </c>
       <c r="E159" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F159" s="48" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G159" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H159" s="48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I159" s="48" t="s">
         <v>12</v>
@@ -8319,122 +8298,116 @@
       <c r="V159" s="59"/>
       <c r="W159" s="59"/>
       <c r="X159" s="59"/>
-      <c r="Y159" s="59"/>
-      <c r="Z159" s="59"/>
-    </row>
-    <row r="160" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="25">
-        <v>8</v>
-      </c>
-      <c r="B160" s="48" t="s">
+    </row>
+    <row r="160" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="66" t="s">
+        <v>516</v>
+      </c>
+      <c r="B160" s="66"/>
+      <c r="C160" s="66"/>
+      <c r="D160" s="67"/>
+      <c r="E160" s="67"/>
+      <c r="F160" s="67"/>
+      <c r="G160" s="67"/>
+      <c r="H160" s="67"/>
+      <c r="I160" s="67"/>
+      <c r="J160" s="67"/>
+    </row>
+    <row r="161" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="60">
+        <v>11</v>
+      </c>
+      <c r="B161" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C160" s="48" t="s">
-        <v>633</v>
-      </c>
-      <c r="D160" s="61" t="s">
+      <c r="C161" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="D161" s="61" t="s">
+        <v>613</v>
+      </c>
+      <c r="E161" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" s="48" t="s">
         <v>518</v>
       </c>
-      <c r="E160" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F160" s="48" t="s">
-        <v>515</v>
-      </c>
-      <c r="G160" s="48" t="s">
+      <c r="G161" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H160" s="48" t="s">
-        <v>504</v>
-      </c>
-      <c r="I160" s="48" t="s">
+      <c r="H161" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="I161" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="J160" s="48" t="s">
+      <c r="J161" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K160" s="58"/>
-      <c r="L160" s="59"/>
-      <c r="M160" s="59"/>
-      <c r="N160" s="59"/>
-      <c r="O160" s="59"/>
-      <c r="P160" s="59"/>
-      <c r="Q160" s="59"/>
-      <c r="R160" s="59"/>
-      <c r="S160" s="59"/>
-      <c r="T160" s="59"/>
-      <c r="U160" s="59"/>
-      <c r="V160" s="59"/>
-      <c r="W160" s="59"/>
-      <c r="X160" s="59"/>
-      <c r="Y160" s="59"/>
-      <c r="Z160" s="59"/>
-    </row>
-    <row r="161" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="66" t="s">
-        <v>519</v>
-      </c>
-      <c r="B161" s="66"/>
-      <c r="C161" s="66"/>
-      <c r="D161" s="66"/>
-      <c r="E161" s="66"/>
-      <c r="F161" s="66"/>
-      <c r="G161" s="66"/>
-      <c r="H161" s="66"/>
-      <c r="I161" s="66"/>
-      <c r="J161" s="66"/>
-    </row>
-    <row r="162" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="62">
-        <v>11</v>
-      </c>
-      <c r="B162" s="63" t="s">
+      <c r="K161" s="62"/>
+      <c r="L161" s="62"/>
+      <c r="M161" s="62"/>
+      <c r="N161" s="62"/>
+      <c r="O161" s="62"/>
+      <c r="P161" s="62"/>
+      <c r="Q161" s="62"/>
+      <c r="R161" s="62"/>
+      <c r="S161" s="62"/>
+      <c r="T161" s="62"/>
+      <c r="U161" s="62"/>
+      <c r="V161" s="62"/>
+      <c r="W161" s="62"/>
+      <c r="X161" s="62"/>
+    </row>
+    <row r="162" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="26">
+        <v>2</v>
+      </c>
+      <c r="B162" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C162" s="48" t="s">
         <v>520</v>
       </c>
-      <c r="D162" s="63" t="s">
-        <v>620</v>
+      <c r="D162" s="27" t="s">
+        <v>521</v>
       </c>
       <c r="E162" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F162" s="48" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G162" s="27" t="s">
         <v>11</v>
       </c>
       <c r="H162" s="27" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I162" s="27" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J162" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K162" s="64"/>
-      <c r="L162" s="64"/>
-      <c r="M162" s="64"/>
-      <c r="N162" s="64"/>
-      <c r="O162" s="64"/>
-      <c r="P162" s="64"/>
-      <c r="Q162" s="64"/>
-      <c r="R162" s="64"/>
-      <c r="S162" s="64"/>
-      <c r="T162" s="64"/>
-      <c r="U162" s="64"/>
-      <c r="V162" s="64"/>
-      <c r="W162" s="64"/>
-      <c r="X162" s="64"/>
-      <c r="Y162" s="64"/>
-      <c r="Z162" s="64"/>
-    </row>
-    <row r="163" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K162" s="59"/>
+      <c r="L162" s="59"/>
+      <c r="M162" s="59"/>
+      <c r="N162" s="59"/>
+      <c r="O162" s="59"/>
+      <c r="P162" s="59"/>
+      <c r="Q162" s="59"/>
+      <c r="R162" s="59"/>
+      <c r="S162" s="59"/>
+      <c r="T162" s="59"/>
+      <c r="U162" s="59"/>
+      <c r="V162" s="59"/>
+      <c r="W162" s="59"/>
+      <c r="X162" s="59"/>
+    </row>
+    <row r="163" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B163" s="27" t="s">
         <v>10</v>
@@ -8455,15 +8428,15 @@
         <v>11</v>
       </c>
       <c r="H163" s="27" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I163" s="27" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J163" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K163" s="58"/>
+      <c r="K163" s="59"/>
       <c r="L163" s="59"/>
       <c r="M163" s="59"/>
       <c r="N163" s="59"/>
@@ -8477,12 +8450,10 @@
       <c r="V163" s="59"/>
       <c r="W163" s="59"/>
       <c r="X163" s="59"/>
-      <c r="Y163" s="59"/>
-      <c r="Z163" s="59"/>
-    </row>
-    <row r="164" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B164" s="27" t="s">
         <v>10</v>
@@ -8491,19 +8462,19 @@
         <v>526</v>
       </c>
       <c r="D164" s="27" t="s">
-        <v>527</v>
+        <v>614</v>
       </c>
       <c r="E164" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F164" s="48" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G164" s="27" t="s">
         <v>11</v>
       </c>
       <c r="H164" s="27" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I164" s="27" t="s">
         <v>12</v>
@@ -8511,7 +8482,7 @@
       <c r="J164" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K164" s="58"/>
+      <c r="K164" s="59"/>
       <c r="L164" s="59"/>
       <c r="M164" s="59"/>
       <c r="N164" s="59"/>
@@ -8525,33 +8496,31 @@
       <c r="V164" s="59"/>
       <c r="W164" s="59"/>
       <c r="X164" s="59"/>
-      <c r="Y164" s="59"/>
-      <c r="Z164" s="59"/>
-    </row>
-    <row r="165" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B165" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C165" s="48" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D165" s="27" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E165" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F165" s="48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G165" s="27" t="s">
         <v>11</v>
       </c>
       <c r="H165" s="27" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I165" s="27" t="s">
         <v>12</v>
@@ -8559,7 +8528,7 @@
       <c r="J165" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K165" s="58"/>
+      <c r="K165" s="59"/>
       <c r="L165" s="59"/>
       <c r="M165" s="59"/>
       <c r="N165" s="59"/>
@@ -8573,21 +8542,19 @@
       <c r="V165" s="59"/>
       <c r="W165" s="59"/>
       <c r="X165" s="59"/>
-      <c r="Y165" s="59"/>
-      <c r="Z165" s="59"/>
-    </row>
-    <row r="166" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B166" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C166" s="48" t="s">
+        <v>530</v>
+      </c>
+      <c r="D166" s="27" t="s">
         <v>531</v>
-      </c>
-      <c r="D166" s="27" t="s">
-        <v>622</v>
       </c>
       <c r="E166" s="27" t="s">
         <v>14</v>
@@ -8599,7 +8566,7 @@
         <v>11</v>
       </c>
       <c r="H166" s="27" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I166" s="27" t="s">
         <v>12</v>
@@ -8607,7 +8574,7 @@
       <c r="J166" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K166" s="58"/>
+      <c r="K166" s="59"/>
       <c r="L166" s="59"/>
       <c r="M166" s="59"/>
       <c r="N166" s="59"/>
@@ -8621,12 +8588,10 @@
       <c r="V166" s="59"/>
       <c r="W166" s="59"/>
       <c r="X166" s="59"/>
-      <c r="Y166" s="59"/>
-      <c r="Z166" s="59"/>
-    </row>
-    <row r="167" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B167" s="27" t="s">
         <v>10</v>
@@ -8647,7 +8612,7 @@
         <v>11</v>
       </c>
       <c r="H167" s="27" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I167" s="27" t="s">
         <v>12</v>
@@ -8655,7 +8620,7 @@
       <c r="J167" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K167" s="58"/>
+      <c r="K167" s="59"/>
       <c r="L167" s="59"/>
       <c r="M167" s="59"/>
       <c r="N167" s="59"/>
@@ -8669,12 +8634,10 @@
       <c r="V167" s="59"/>
       <c r="W167" s="59"/>
       <c r="X167" s="59"/>
-      <c r="Y167" s="59"/>
-      <c r="Z167" s="59"/>
-    </row>
-    <row r="168" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B168" s="27" t="s">
         <v>10</v>
@@ -8695,7 +8658,7 @@
         <v>11</v>
       </c>
       <c r="H168" s="27" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I168" s="27" t="s">
         <v>12</v>
@@ -8703,7 +8666,7 @@
       <c r="J168" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K168" s="58"/>
+      <c r="K168" s="59"/>
       <c r="L168" s="59"/>
       <c r="M168" s="59"/>
       <c r="N168" s="59"/>
@@ -8717,12 +8680,10 @@
       <c r="V168" s="59"/>
       <c r="W168" s="59"/>
       <c r="X168" s="59"/>
-      <c r="Y168" s="59"/>
-      <c r="Z168" s="59"/>
-    </row>
-    <row r="169" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B169" s="27" t="s">
         <v>10</v>
@@ -8743,7 +8704,7 @@
         <v>11</v>
       </c>
       <c r="H169" s="27" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I169" s="27" t="s">
         <v>12</v>
@@ -8751,7 +8712,7 @@
       <c r="J169" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K169" s="58"/>
+      <c r="K169" s="59"/>
       <c r="L169" s="59"/>
       <c r="M169" s="59"/>
       <c r="N169" s="59"/>
@@ -8765,12 +8726,10 @@
       <c r="V169" s="59"/>
       <c r="W169" s="59"/>
       <c r="X169" s="59"/>
-      <c r="Y169" s="59"/>
-      <c r="Z169" s="59"/>
-    </row>
-    <row r="170" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B170" s="27" t="s">
         <v>10</v>
@@ -8791,7 +8750,7 @@
         <v>11</v>
       </c>
       <c r="H170" s="27" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I170" s="27" t="s">
         <v>12</v>
@@ -8799,7 +8758,7 @@
       <c r="J170" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K170" s="58"/>
+      <c r="K170" s="59"/>
       <c r="L170" s="59"/>
       <c r="M170" s="59"/>
       <c r="N170" s="59"/>
@@ -8813,95 +8772,91 @@
       <c r="V170" s="59"/>
       <c r="W170" s="59"/>
       <c r="X170" s="59"/>
-      <c r="Y170" s="59"/>
-      <c r="Z170" s="59"/>
-    </row>
-    <row r="171" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="26">
+    </row>
+    <row r="171" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="68" t="s">
+        <v>545</v>
+      </c>
+      <c r="B171" s="69"/>
+      <c r="C171" s="69"/>
+      <c r="D171" s="69"/>
+      <c r="E171" s="69"/>
+      <c r="F171" s="69"/>
+      <c r="G171" s="69"/>
+      <c r="H171" s="69"/>
+      <c r="I171" s="69"/>
+      <c r="J171" s="70"/>
+    </row>
+    <row r="172" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="25">
+        <v>1</v>
+      </c>
+      <c r="B172" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B171" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C171" s="48" t="s">
-        <v>545</v>
-      </c>
-      <c r="D171" s="27" t="s">
+      <c r="C172" s="48" t="s">
         <v>546</v>
       </c>
-      <c r="E171" s="27" t="s">
+      <c r="D172" s="48" t="s">
+        <v>547</v>
+      </c>
+      <c r="E172" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F171" s="48" t="s">
-        <v>547</v>
-      </c>
-      <c r="G171" s="27" t="s">
+      <c r="F172" s="48" t="s">
+        <v>548</v>
+      </c>
+      <c r="G172" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H171" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="I171" s="27" t="s">
+      <c r="H172" s="48" t="s">
+        <v>549</v>
+      </c>
+      <c r="I172" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="J171" s="27" t="s">
+      <c r="J172" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K171" s="58"/>
-      <c r="L171" s="59"/>
-      <c r="M171" s="59"/>
-      <c r="N171" s="59"/>
-      <c r="O171" s="59"/>
-      <c r="P171" s="59"/>
-      <c r="Q171" s="59"/>
-      <c r="R171" s="59"/>
-      <c r="S171" s="59"/>
-      <c r="T171" s="59"/>
-      <c r="U171" s="59"/>
-      <c r="V171" s="59"/>
-      <c r="W171" s="59"/>
-      <c r="X171" s="59"/>
-      <c r="Y171" s="59"/>
-      <c r="Z171" s="59"/>
-    </row>
-    <row r="172" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="67" t="s">
-        <v>548</v>
-      </c>
-      <c r="B172" s="68"/>
-      <c r="C172" s="68"/>
-      <c r="D172" s="68"/>
-      <c r="E172" s="68"/>
-      <c r="F172" s="68"/>
-      <c r="G172" s="68"/>
-      <c r="H172" s="68"/>
-      <c r="I172" s="68"/>
-      <c r="J172" s="69"/>
-    </row>
-    <row r="173" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K172" s="59"/>
+      <c r="L172" s="59"/>
+      <c r="M172" s="59"/>
+      <c r="N172" s="59"/>
+      <c r="O172" s="59"/>
+      <c r="P172" s="59"/>
+      <c r="Q172" s="59"/>
+      <c r="R172" s="59"/>
+      <c r="S172" s="59"/>
+      <c r="T172" s="59"/>
+      <c r="U172" s="59"/>
+      <c r="V172" s="59"/>
+      <c r="W172" s="59"/>
+      <c r="X172" s="59"/>
+    </row>
+    <row r="173" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B173" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C173" s="48" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D173" s="48" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E173" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F173" s="48" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G173" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H173" s="48" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I173" s="48" t="s">
         <v>12</v>
@@ -8909,7 +8864,7 @@
       <c r="J173" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K173" s="58"/>
+      <c r="K173" s="59"/>
       <c r="L173" s="59"/>
       <c r="M173" s="59"/>
       <c r="N173" s="59"/>
@@ -8923,12 +8878,10 @@
       <c r="V173" s="59"/>
       <c r="W173" s="59"/>
       <c r="X173" s="59"/>
-      <c r="Y173" s="59"/>
-      <c r="Z173" s="59"/>
-    </row>
-    <row r="174" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B174" s="48" t="s">
         <v>10</v>
@@ -8949,7 +8902,7 @@
         <v>11</v>
       </c>
       <c r="H174" s="48" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I174" s="48" t="s">
         <v>12</v>
@@ -8957,7 +8910,7 @@
       <c r="J174" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K174" s="58"/>
+      <c r="K174" s="59"/>
       <c r="L174" s="59"/>
       <c r="M174" s="59"/>
       <c r="N174" s="59"/>
@@ -8971,12 +8924,10 @@
       <c r="V174" s="59"/>
       <c r="W174" s="59"/>
       <c r="X174" s="59"/>
-      <c r="Y174" s="59"/>
-      <c r="Z174" s="59"/>
-    </row>
-    <row r="175" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B175" s="48" t="s">
         <v>10</v>
@@ -8985,19 +8936,19 @@
         <v>556</v>
       </c>
       <c r="D175" s="48" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="E175" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F175" s="48" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G175" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H175" s="48" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I175" s="48" t="s">
         <v>12</v>
@@ -9005,47 +8956,31 @@
       <c r="J175" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K175" s="58"/>
-      <c r="L175" s="59"/>
-      <c r="M175" s="59"/>
-      <c r="N175" s="59"/>
-      <c r="O175" s="59"/>
-      <c r="P175" s="59"/>
-      <c r="Q175" s="59"/>
-      <c r="R175" s="59"/>
-      <c r="S175" s="59"/>
-      <c r="T175" s="59"/>
-      <c r="U175" s="59"/>
-      <c r="V175" s="59"/>
-      <c r="W175" s="59"/>
-      <c r="X175" s="59"/>
-      <c r="Y175" s="59"/>
-      <c r="Z175" s="59"/>
-    </row>
-    <row r="176" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B176" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C176" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="D176" s="48" t="s">
         <v>559</v>
-      </c>
-      <c r="D176" s="48" t="s">
-        <v>560</v>
       </c>
       <c r="E176" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F176" s="48" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G176" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H176" s="48" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I176" s="48" t="s">
         <v>12</v>
@@ -9053,7 +8988,7 @@
       <c r="J176" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K176" s="58"/>
+      <c r="K176" s="59"/>
       <c r="L176" s="59"/>
       <c r="M176" s="59"/>
       <c r="N176" s="59"/>
@@ -9067,33 +9002,31 @@
       <c r="V176" s="59"/>
       <c r="W176" s="59"/>
       <c r="X176" s="59"/>
-      <c r="Y176" s="59"/>
-      <c r="Z176" s="59"/>
-    </row>
-    <row r="177" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B177" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C177" s="48" t="s">
+        <v>561</v>
+      </c>
+      <c r="D177" s="48" t="s">
         <v>562</v>
-      </c>
-      <c r="D177" s="48" t="s">
-        <v>563</v>
       </c>
       <c r="E177" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F177" s="48" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G177" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H177" s="48" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I177" s="48" t="s">
         <v>12</v>
@@ -9101,7 +9034,7 @@
       <c r="J177" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K177" s="58"/>
+      <c r="K177" s="59"/>
       <c r="L177" s="59"/>
       <c r="M177" s="59"/>
       <c r="N177" s="59"/>
@@ -9115,33 +9048,31 @@
       <c r="V177" s="59"/>
       <c r="W177" s="59"/>
       <c r="X177" s="59"/>
-      <c r="Y177" s="59"/>
-      <c r="Z177" s="59"/>
-    </row>
-    <row r="178" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B178" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C178" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="D178" s="48" t="s">
         <v>565</v>
-      </c>
-      <c r="D178" s="48" t="s">
-        <v>566</v>
       </c>
       <c r="E178" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F178" s="48" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G178" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H178" s="48" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I178" s="48" t="s">
         <v>12</v>
@@ -9149,7 +9080,7 @@
       <c r="J178" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K178" s="58"/>
+      <c r="K178" s="59"/>
       <c r="L178" s="59"/>
       <c r="M178" s="59"/>
       <c r="N178" s="59"/>
@@ -9163,33 +9094,31 @@
       <c r="V178" s="59"/>
       <c r="W178" s="59"/>
       <c r="X178" s="59"/>
-      <c r="Y178" s="59"/>
-      <c r="Z178" s="59"/>
-    </row>
-    <row r="179" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B179" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C179" s="48" t="s">
+        <v>567</v>
+      </c>
+      <c r="D179" s="48" t="s">
         <v>568</v>
-      </c>
-      <c r="D179" s="48" t="s">
-        <v>569</v>
       </c>
       <c r="E179" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F179" s="48" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G179" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H179" s="48" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I179" s="48" t="s">
         <v>12</v>
@@ -9197,7 +9126,7 @@
       <c r="J179" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K179" s="58"/>
+      <c r="K179" s="59"/>
       <c r="L179" s="59"/>
       <c r="M179" s="59"/>
       <c r="N179" s="59"/>
@@ -9211,33 +9140,31 @@
       <c r="V179" s="59"/>
       <c r="W179" s="59"/>
       <c r="X179" s="59"/>
-      <c r="Y179" s="59"/>
-      <c r="Z179" s="59"/>
-    </row>
-    <row r="180" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B180" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C180" s="48" t="s">
+        <v>570</v>
+      </c>
+      <c r="D180" s="48" t="s">
         <v>571</v>
-      </c>
-      <c r="D180" s="48" t="s">
-        <v>572</v>
       </c>
       <c r="E180" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F180" s="48" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G180" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H180" s="48" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I180" s="48" t="s">
         <v>12</v>
@@ -9245,7 +9172,7 @@
       <c r="J180" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K180" s="58"/>
+      <c r="K180" s="59"/>
       <c r="L180" s="59"/>
       <c r="M180" s="59"/>
       <c r="N180" s="59"/>
@@ -9259,33 +9186,31 @@
       <c r="V180" s="59"/>
       <c r="W180" s="59"/>
       <c r="X180" s="59"/>
-      <c r="Y180" s="59"/>
-      <c r="Z180" s="59"/>
-    </row>
-    <row r="181" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B181" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C181" s="48" t="s">
+        <v>573</v>
+      </c>
+      <c r="D181" s="48" t="s">
         <v>574</v>
-      </c>
-      <c r="D181" s="48" t="s">
-        <v>575</v>
       </c>
       <c r="E181" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F181" s="48" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G181" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H181" s="48" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I181" s="48" t="s">
         <v>12</v>
@@ -9293,7 +9218,7 @@
       <c r="J181" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K181" s="58"/>
+      <c r="K181" s="59"/>
       <c r="L181" s="59"/>
       <c r="M181" s="59"/>
       <c r="N181" s="59"/>
@@ -9307,81 +9232,45 @@
       <c r="V181" s="59"/>
       <c r="W181" s="59"/>
       <c r="X181" s="59"/>
-      <c r="Y181" s="59"/>
-      <c r="Z181" s="59"/>
-    </row>
-    <row r="182" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="25">
-        <v>10</v>
-      </c>
-      <c r="B182" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C182" s="48" t="s">
-        <v>577</v>
-      </c>
-      <c r="D182" s="48" t="s">
-        <v>578</v>
-      </c>
-      <c r="E182" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F182" s="48" t="s">
-        <v>579</v>
-      </c>
-      <c r="G182" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H182" s="48" t="s">
-        <v>552</v>
-      </c>
-      <c r="I182" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J182" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="K182" s="58"/>
-      <c r="L182" s="59"/>
-      <c r="M182" s="59"/>
-      <c r="N182" s="59"/>
-      <c r="O182" s="59"/>
-      <c r="P182" s="59"/>
-      <c r="Q182" s="59"/>
-      <c r="R182" s="59"/>
-      <c r="S182" s="59"/>
-      <c r="T182" s="59"/>
-      <c r="U182" s="59"/>
-      <c r="V182" s="59"/>
-      <c r="W182" s="59"/>
-      <c r="X182" s="59"/>
-      <c r="Y182" s="59"/>
-      <c r="Z182" s="59"/>
-    </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A182" s="66" t="s">
+        <v>617</v>
+      </c>
+      <c r="B182" s="66"/>
+      <c r="C182" s="66"/>
+      <c r="D182" s="66"/>
+      <c r="E182" s="66"/>
+      <c r="F182" s="66"/>
+      <c r="G182" s="66"/>
+      <c r="H182" s="66"/>
+      <c r="I182" s="66"/>
+      <c r="J182" s="66"/>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183" s="25">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B183" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C183" s="48" t="s">
-        <v>580</v>
-      </c>
-      <c r="D183" s="48" t="s">
-        <v>581</v>
+        <v>618</v>
+      </c>
+      <c r="D183" s="24" t="s">
+        <v>619</v>
       </c>
       <c r="E183" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F183" s="48" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="G183" s="48" t="s">
         <v>11</v>
       </c>
       <c r="H183" s="48" t="s">
-        <v>552</v>
+        <v>484</v>
       </c>
       <c r="I183" s="48" t="s">
         <v>12</v>
@@ -9390,57 +9279,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A184" s="66" t="s">
-        <v>624</v>
-      </c>
-      <c r="B184" s="66"/>
-      <c r="C184" s="66"/>
-      <c r="D184" s="66"/>
-      <c r="E184" s="66"/>
-      <c r="F184" s="66"/>
-      <c r="G184" s="66"/>
-      <c r="H184" s="66"/>
-      <c r="I184" s="66"/>
-      <c r="J184" s="66"/>
-    </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A185" s="25">
-        <v>1</v>
-      </c>
-      <c r="B185" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C185" s="48" t="s">
-        <v>625</v>
-      </c>
-      <c r="D185" s="24" t="s">
-        <v>626</v>
-      </c>
-      <c r="E185" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F185" s="48" t="s">
-        <v>623</v>
-      </c>
-      <c r="G185" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H185" s="48" t="s">
-        <v>485</v>
-      </c>
-      <c r="I185" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J185" s="48" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A184:J184"/>
-    <mergeCell ref="A161:J161"/>
-    <mergeCell ref="A172:J172"/>
+    <mergeCell ref="A182:J182"/>
+    <mergeCell ref="A160:J160"/>
+    <mergeCell ref="A171:J171"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A37:J37"/>
     <mergeCell ref="A54:J54"/>
@@ -9548,10 +9391,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:U181"/>
+  <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9633,10 +9476,10 @@
         <v>135</v>
       </c>
       <c r="T1" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U1" s="31" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -10562,7 +10405,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>22</v>
@@ -10867,7 +10710,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>21</v>
+        <v>640</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>97</v>
@@ -13861,7 +13704,7 @@
         <v>22</v>
       </c>
       <c r="C70" s="36" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D70" s="48" t="s">
         <v>22</v>
@@ -14108,7 +13951,7 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="65" t="s">
+      <c r="A74" s="63" t="s">
         <v>291</v>
       </c>
       <c r="B74" s="48" t="s">
@@ -14694,7 +14537,7 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B83" s="48" t="s">
         <v>22</v>
@@ -14759,7 +14602,7 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B84" s="48" t="s">
         <v>22</v>
@@ -14824,7 +14667,7 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B85" s="48" t="s">
         <v>22</v>
@@ -14889,7 +14732,7 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B86" s="48" t="s">
         <v>22</v>
@@ -14954,7 +14797,7 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B87" s="48" t="s">
         <v>22</v>
@@ -15019,7 +14862,7 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B88" s="48" t="s">
         <v>22</v>
@@ -15084,7 +14927,7 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B89" s="48" t="s">
         <v>22</v>
@@ -15149,7 +14992,7 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B90" s="48" t="s">
         <v>22</v>
@@ -15214,7 +15057,7 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B91" s="48" t="s">
         <v>22</v>
@@ -15279,7 +15122,7 @@
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B92" s="48" t="s">
         <v>22</v>
@@ -15344,7 +15187,7 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B93" s="48" t="s">
         <v>22</v>
@@ -15409,7 +15252,7 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B94" s="48" t="s">
         <v>22</v>
@@ -15474,7 +15317,7 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B95" s="48" t="s">
         <v>22</v>
@@ -15539,7 +15382,7 @@
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B96" s="48" t="s">
         <v>22</v>
@@ -15604,7 +15447,7 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B97" s="48" t="s">
         <v>22</v>
@@ -15669,7 +15512,7 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B98" s="48" t="s">
         <v>22</v>
@@ -15734,7 +15577,7 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B99" s="51" t="s">
         <v>22</v>
@@ -15799,7 +15642,7 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="57" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B100" s="48" t="s">
         <v>22</v>
@@ -15864,7 +15707,7 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B101" s="48" t="s">
         <v>22</v>
@@ -15929,7 +15772,7 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B102" s="48" t="s">
         <v>22</v>
@@ -15994,7 +15837,7 @@
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="48" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B103" s="48" t="s">
         <v>22</v>
@@ -16059,7 +15902,7 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B104" s="48" t="s">
         <v>22</v>
@@ -16124,7 +15967,7 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B105" s="48" t="s">
         <v>22</v>
@@ -16189,7 +16032,7 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B106" s="48" t="s">
         <v>22</v>
@@ -16254,7 +16097,7 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B107" s="48" t="s">
         <v>22</v>
@@ -16319,7 +16162,7 @@
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B108" s="48" t="s">
         <v>22</v>
@@ -16384,7 +16227,7 @@
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B109" s="48" t="s">
         <v>22</v>
@@ -16449,7 +16292,7 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B110" s="48" t="s">
         <v>22</v>
@@ -16514,7 +16357,7 @@
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="48" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B111" s="48" t="s">
         <v>22</v>
@@ -16579,7 +16422,7 @@
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="48" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B112" s="48" t="s">
         <v>22</v>
@@ -16644,7 +16487,7 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B113" s="48" t="s">
         <v>22</v>
@@ -16709,7 +16552,7 @@
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B114" s="48" t="s">
         <v>22</v>
@@ -16774,7 +16617,7 @@
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B115" s="48" t="s">
         <v>22</v>
@@ -16839,7 +16682,7 @@
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B116" s="48" t="s">
         <v>22</v>
@@ -16904,7 +16747,7 @@
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B117" s="48" t="s">
         <v>22</v>
@@ -16969,7 +16812,7 @@
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B118" s="48" t="s">
         <v>22</v>
@@ -17034,7 +16877,7 @@
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="48" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B119" s="48" t="s">
         <v>22</v>
@@ -17099,7 +16942,7 @@
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="48" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B120" s="48" t="s">
         <v>22</v>
@@ -17164,7 +17007,7 @@
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="48" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B121" s="48" t="s">
         <v>22</v>
@@ -17229,7 +17072,7 @@
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B122" s="48" t="s">
         <v>22</v>
@@ -17294,7 +17137,7 @@
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B123" s="48" t="s">
         <v>22</v>
@@ -17359,7 +17202,7 @@
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="48" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B124" s="48" t="s">
         <v>22</v>
@@ -17424,7 +17267,7 @@
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="48" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B125" s="48" t="s">
         <v>22</v>
@@ -17489,7 +17332,7 @@
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B126" s="48" t="s">
         <v>22</v>
@@ -17554,7 +17397,7 @@
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="48" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B127" s="48" t="s">
         <v>22</v>
@@ -17619,7 +17462,7 @@
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B128" s="48" t="s">
         <v>22</v>
@@ -17684,7 +17527,7 @@
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B129" s="48" t="s">
         <v>22</v>
@@ -17749,7 +17592,7 @@
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B130" s="48" t="s">
         <v>22</v>
@@ -17814,7 +17657,7 @@
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B131" s="48" t="s">
         <v>22</v>
@@ -17879,7 +17722,7 @@
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B132" s="48" t="s">
         <v>22</v>
@@ -17944,7 +17787,7 @@
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B133" s="48" t="s">
         <v>22</v>
@@ -18009,7 +17852,7 @@
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="48" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B134" s="48" t="s">
         <v>22</v>
@@ -18074,7 +17917,7 @@
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B135" s="48" t="s">
         <v>22</v>
@@ -18139,7 +17982,7 @@
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="48" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B136" s="48" t="s">
         <v>22</v>
@@ -18204,7 +18047,7 @@
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="48" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B137" s="48" t="s">
         <v>22</v>
@@ -18269,7 +18112,7 @@
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="48" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B138" s="48" t="s">
         <v>22</v>
@@ -18334,7 +18177,7 @@
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="48" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B139" s="48" t="s">
         <v>22</v>
@@ -18399,7 +18242,7 @@
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B140" s="48" t="s">
         <v>22</v>
@@ -18464,7 +18307,7 @@
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="48" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B141" s="48" t="s">
         <v>22</v>
@@ -18529,7 +18372,7 @@
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="48" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B142" s="48" t="s">
         <v>22</v>
@@ -18594,7 +18437,7 @@
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="48" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B143" s="48" t="s">
         <v>22</v>
@@ -18659,7 +18502,7 @@
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="48" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B144" s="48" t="s">
         <v>22</v>
@@ -18724,7 +18567,7 @@
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="48" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B145" s="48" t="s">
         <v>22</v>
@@ -18789,7 +18632,7 @@
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B146" s="48" t="s">
         <v>22</v>
@@ -18854,7 +18697,7 @@
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B147" s="48" t="s">
         <v>22</v>
@@ -18919,7 +18762,7 @@
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="48" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B148" s="48" t="s">
         <v>22</v>
@@ -18984,7 +18827,7 @@
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="48" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B149" s="48" t="s">
         <v>22</v>
@@ -19049,7 +18892,7 @@
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="48" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B150" s="48" t="s">
         <v>22</v>
@@ -19114,7 +18957,7 @@
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="48" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B151" s="48" t="s">
         <v>22</v>
@@ -19179,13 +19022,13 @@
     </row>
     <row r="152" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A152" s="48" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B152" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C152" s="36" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D152" s="48" t="s">
         <v>22</v>
@@ -19194,22 +19037,22 @@
         <v>22</v>
       </c>
       <c r="F152" s="48" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G152" s="49" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="H152" s="48" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="I152" s="48" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="J152" s="36" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="K152" s="48" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="L152" s="48" t="s">
         <v>22</v>
@@ -19244,7 +19087,7 @@
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="48" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B153" s="48" t="s">
         <v>22</v>
@@ -19309,13 +19152,13 @@
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="48" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B154" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C154" s="36" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D154" s="48" t="s">
         <v>22</v>
@@ -19324,22 +19167,22 @@
         <v>22</v>
       </c>
       <c r="F154" s="48" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G154" s="49" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="H154" s="48" t="s">
         <v>38</v>
       </c>
       <c r="I154" s="48" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="J154" s="36" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="K154" s="48" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="L154" s="48" t="s">
         <v>22</v>
@@ -19374,13 +19217,13 @@
     </row>
     <row r="155" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A155" s="48" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B155" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C155" s="36" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D155" s="48" t="s">
         <v>22</v>
@@ -19389,22 +19232,22 @@
         <v>22</v>
       </c>
       <c r="F155" s="48" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G155" s="49" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="H155" s="48" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="I155" s="48" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="J155" s="36" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="K155" s="48" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="L155" s="48" t="s">
         <v>22</v>
@@ -19439,13 +19282,13 @@
     </row>
     <row r="156" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A156" s="48" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B156" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C156" s="36" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D156" s="48" t="s">
         <v>22</v>
@@ -19457,19 +19300,19 @@
         <v>29</v>
       </c>
       <c r="G156" s="49" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="H156" s="48" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="I156" s="48" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="J156" s="36" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="K156" s="48" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="L156" s="48" t="s">
         <v>22</v>
@@ -19504,13 +19347,13 @@
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="48" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B157" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C157" s="36" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="D157" s="48" t="s">
         <v>22</v>
@@ -19519,22 +19362,22 @@
         <v>22</v>
       </c>
       <c r="F157" s="48" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G157" s="49" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="H157" s="48" t="s">
         <v>39</v>
       </c>
       <c r="I157" s="48" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="J157" s="36" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="K157" s="48" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="L157" s="48" t="s">
         <v>22</v>
@@ -19569,7 +19412,7 @@
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="48" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B158" s="48" t="s">
         <v>22</v>
@@ -19634,7 +19477,7 @@
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="48" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B159" s="48" t="s">
         <v>22</v>
@@ -19699,13 +19542,13 @@
     </row>
     <row r="160" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A160" s="48" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B160" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C160" s="36" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D160" s="48" t="s">
         <v>22</v>
@@ -19717,19 +19560,19 @@
         <v>29</v>
       </c>
       <c r="G160" s="49" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="H160" s="48" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="I160" s="48" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="J160" s="36" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="K160" s="48" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="L160" s="48" t="s">
         <v>22</v>
@@ -19764,7 +19607,7 @@
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="48" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B161" s="48" t="s">
         <v>22</v>
@@ -19829,7 +19672,7 @@
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="48" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B162" s="48" t="s">
         <v>22</v>
@@ -19894,7 +19737,7 @@
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="48" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B163" s="48" t="s">
         <v>22</v>
@@ -19959,7 +19802,7 @@
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B164" s="48" t="s">
         <v>22</v>
@@ -20019,12 +19862,12 @@
         <v>22</v>
       </c>
       <c r="U164" s="48" t="s">
-        <v>22</v>
+        <v>596</v>
       </c>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B165" s="48" t="s">
         <v>22</v>
@@ -20084,12 +19927,12 @@
         <v>22</v>
       </c>
       <c r="U165" s="48" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="48" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B166" s="48" t="s">
         <v>22</v>
@@ -20149,12 +19992,12 @@
         <v>22</v>
       </c>
       <c r="U166" s="48" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="48" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B167" s="48" t="s">
         <v>22</v>
@@ -20162,8 +20005,8 @@
       <c r="C167" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D167" s="48" t="s">
-        <v>22</v>
+      <c r="D167" s="49" t="s">
+        <v>143</v>
       </c>
       <c r="E167" s="48" t="s">
         <v>22</v>
@@ -20214,12 +20057,12 @@
         <v>22</v>
       </c>
       <c r="U167" s="48" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="48" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B168" s="48" t="s">
         <v>22</v>
@@ -20227,8 +20070,8 @@
       <c r="C168" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D168" s="49" t="s">
-        <v>143</v>
+      <c r="D168" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="E168" s="48" t="s">
         <v>22</v>
@@ -20279,12 +20122,12 @@
         <v>22</v>
       </c>
       <c r="U168" s="48" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="48" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="B169" s="48" t="s">
         <v>22</v>
@@ -20344,12 +20187,12 @@
         <v>22</v>
       </c>
       <c r="U169" s="48" t="s">
-        <v>600</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="48" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B170" s="48" t="s">
         <v>22</v>
@@ -20479,7 +20322,7 @@
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="48" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B172" s="48" t="s">
         <v>22</v>
@@ -20539,12 +20382,12 @@
         <v>22</v>
       </c>
       <c r="U172" s="48" t="s">
-        <v>22</v>
+        <v>639</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="48" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B173" s="48" t="s">
         <v>22</v>
@@ -20604,12 +20447,12 @@
         <v>22</v>
       </c>
       <c r="U173" s="48" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="48" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B174" s="48" t="s">
         <v>22</v>
@@ -20669,12 +20512,12 @@
         <v>22</v>
       </c>
       <c r="U174" s="48" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="48" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B175" s="48" t="s">
         <v>22</v>
@@ -20734,12 +20577,12 @@
         <v>22</v>
       </c>
       <c r="U175" s="48" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="48" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B176" s="48" t="s">
         <v>22</v>
@@ -20799,12 +20642,12 @@
         <v>22</v>
       </c>
       <c r="U176" s="48" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A177" s="48" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B177" s="48" t="s">
         <v>22</v>
@@ -20864,12 +20707,12 @@
         <v>22</v>
       </c>
       <c r="U177" s="48" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="178" spans="1:21" ht="64.5" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A178" s="48" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B178" s="48" t="s">
         <v>22</v>
@@ -20929,12 +20772,12 @@
         <v>22</v>
       </c>
       <c r="U178" s="48" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="179" spans="1:21" ht="51.75" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="48" t="s">
-        <v>579</v>
+        <v>616</v>
       </c>
       <c r="B179" s="48" t="s">
         <v>22</v>
@@ -20994,136 +20837,6 @@
         <v>22</v>
       </c>
       <c r="U179" s="48" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A180" s="48" t="s">
-        <v>582</v>
-      </c>
-      <c r="B180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T180" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U180" s="48" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A181" s="48" t="s">
-        <v>623</v>
-      </c>
-      <c r="B181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T181" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U181" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -21249,7 +20962,7 @@
     <hyperlink ref="G155" r:id="rId13" xr:uid="{98E0996F-0FB4-4189-BE73-57E37E31FC3F}"/>
     <hyperlink ref="G152" r:id="rId14" xr:uid="{009DD950-489A-4511-9EE8-3302596C4B91}"/>
     <hyperlink ref="G157" r:id="rId15" xr:uid="{FEC9AB2B-6FD0-4D08-96BB-5634F117BFB0}"/>
-    <hyperlink ref="D168" r:id="rId16" xr:uid="{EAE526E7-10C0-4EC9-846A-D81343ACBEC4}"/>
+    <hyperlink ref="D167" r:id="rId16" xr:uid="{EAE526E7-10C0-4EC9-846A-D81343ACBEC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjith\Downloads\ZlaataProductionPGR (3)\ZlaataProductionPGR\src\test\resources\testdata\zltUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gowthamraj\git\zlaataautomation-pixel\zlaata\zlaata\zlaata\zlaata\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD66B2A-C601-4B66-B7CE-DA44B0C215A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D21428C-9EE0-4061-98C8-1385764245E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5711" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5711" uniqueCount="694">
   <si>
     <t>S.No</t>
   </si>
@@ -2105,6 +2105,9 @@
   </si>
   <si>
     <t>Verify user can login in coupon popup</t>
+  </si>
+  <si>
+    <t>6383041822</t>
   </si>
 </sst>
 </file>
@@ -3537,8 +3540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
   <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D205" sqref="D205"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10437,8 +10440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20065,7 +20068,7 @@
       </c>
     </row>
     <row r="152" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A152" s="48" t="s">
+      <c r="A152" s="63" t="s">
         <v>510</v>
       </c>
       <c r="B152" s="48" t="s">
@@ -20267,7 +20270,7 @@
         <v>22</v>
       </c>
       <c r="C155" s="36" t="s">
-        <v>575</v>
+        <v>693</v>
       </c>
       <c r="D155" s="48" t="s">
         <v>22</v>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjith\git\repository\ZlaataProduction\src\test\resources\testdata\zltUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gowthamraj\Desktop\zlaataQA001\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2E5AC6-E213-4099-A03E-31C187044AC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B82C6C-0C21-4375-8328-52F681B3275C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4720" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4750" uniqueCount="602">
   <si>
     <t>S.No</t>
   </si>
@@ -1615,9 +1615,6 @@
     <t>Verify "Buy Now" Button Functionality on Product details page</t>
   </si>
   <si>
-    <t>Verify Quick View Popup Close Button on Product details page</t>
-  </si>
-  <si>
     <t>Verify "View All" Button Clickability on Product details page</t>
   </si>
   <si>
@@ -1823,6 +1820,18 @@
   </si>
   <si>
     <t>6383041822</t>
+  </si>
+  <si>
+    <t>Verify View All Button in More for You and Suggested for You Sections</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_PDP_27</t>
+  </si>
+  <si>
+    <t>Verify that user can submit a review after entering all data</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_PDP_27</t>
   </si>
 </sst>
 </file>
@@ -3244,10 +3253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z165"/>
+  <dimension ref="A1:Z166"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView topLeftCell="A83" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3306,7 +3315,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>14</v>
@@ -4582,7 +4591,7 @@
         <v>189</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E43" s="47" t="s">
         <v>14</v>
@@ -5840,7 +5849,7 @@
         <v>306</v>
       </c>
       <c r="D84" s="48" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E84" s="48" t="s">
         <v>14</v>
@@ -6064,7 +6073,7 @@
         <v>324</v>
       </c>
       <c r="D91" s="48" t="s">
-        <v>529</v>
+        <v>598</v>
       </c>
       <c r="E91" s="48" t="s">
         <v>14</v>
@@ -6160,7 +6169,7 @@
         <v>332</v>
       </c>
       <c r="D94" s="48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E94" s="48" t="s">
         <v>14</v>
@@ -6192,7 +6201,7 @@
         <v>334</v>
       </c>
       <c r="D95" s="48" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E95" s="48" t="s">
         <v>14</v>
@@ -6224,7 +6233,7 @@
         <v>336</v>
       </c>
       <c r="D96" s="48" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E96" s="48" t="s">
         <v>14</v>
@@ -6256,7 +6265,7 @@
         <v>338</v>
       </c>
       <c r="D97" s="48" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E97" s="48" t="s">
         <v>14</v>
@@ -6288,7 +6297,7 @@
         <v>340</v>
       </c>
       <c r="D98" s="48" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E98" s="48" t="s">
         <v>14</v>
@@ -6320,7 +6329,7 @@
         <v>342</v>
       </c>
       <c r="D99" s="48" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E99" s="48" t="s">
         <v>14</v>
@@ -6374,69 +6383,69 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="89" t="s">
+      <c r="A101" s="25">
+        <v>28</v>
+      </c>
+      <c r="B101" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="48" t="s">
+        <v>599</v>
+      </c>
+      <c r="D101" s="48" t="s">
+        <v>600</v>
+      </c>
+      <c r="E101" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="48" t="s">
+        <v>601</v>
+      </c>
+      <c r="G101" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="I101" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J101" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="89" t="s">
         <v>376</v>
       </c>
-      <c r="B101" s="89"/>
-      <c r="C101" s="89"/>
-      <c r="D101" s="89"/>
-      <c r="E101" s="89"/>
-      <c r="F101" s="89"/>
-      <c r="G101" s="89"/>
-      <c r="H101" s="89"/>
-      <c r="I101" s="89"/>
-      <c r="J101" s="89"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="25">
-        <v>1</v>
-      </c>
-      <c r="B102" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" s="48" t="s">
-        <v>348</v>
-      </c>
-      <c r="D102" s="48" t="s">
-        <v>352</v>
-      </c>
-      <c r="E102" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="G102" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H102" s="48" t="s">
-        <v>350</v>
-      </c>
-      <c r="I102" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J102" s="48" t="s">
-        <v>13</v>
-      </c>
+      <c r="B102" s="89"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="89"/>
+      <c r="F102" s="89"/>
+      <c r="G102" s="89"/>
+      <c r="H102" s="89"/>
+      <c r="I102" s="89"/>
+      <c r="J102" s="89"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C103" s="48" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D103" s="48" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E103" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F103" s="48" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G103" s="48" t="s">
         <v>11</v>
@@ -6453,22 +6462,22 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B104" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C104" s="48" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D104" s="48" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E104" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F104" s="48" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G104" s="48" t="s">
         <v>11</v>
@@ -6485,22 +6494,22 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B105" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C105" s="48" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D105" s="48" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E105" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F105" s="48" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G105" s="48" t="s">
         <v>11</v>
@@ -6517,22 +6526,22 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B106" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C106" s="48" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D106" s="48" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E106" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F106" s="48" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G106" s="48" t="s">
         <v>11</v>
@@ -6549,22 +6558,22 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B107" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C107" s="48" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D107" s="48" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E107" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="48" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G107" s="48" t="s">
         <v>11</v>
@@ -6581,22 +6590,22 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B108" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="48" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D108" s="48" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E108" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F108" s="48" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G108" s="48" t="s">
         <v>11</v>
@@ -6613,22 +6622,22 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B109" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C109" s="48" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D109" s="48" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E109" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F109" s="48" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G109" s="48" t="s">
         <v>11</v>
@@ -6645,22 +6654,22 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B110" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C110" s="48" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D110" s="48" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E110" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F110" s="48" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G110" s="48" t="s">
         <v>11</v>
@@ -6676,189 +6685,175 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="78" t="s">
+      <c r="A111" s="25">
+        <v>9</v>
+      </c>
+      <c r="B111" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="D111" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="E111" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="G111" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="I111" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J111" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="78" t="s">
         <v>378</v>
       </c>
-      <c r="B111" s="78"/>
-      <c r="C111" s="78"/>
-      <c r="D111" s="78"/>
-      <c r="E111" s="78"/>
-      <c r="F111" s="78"/>
-      <c r="G111" s="78"/>
-      <c r="H111" s="78"/>
-      <c r="I111" s="78"/>
-      <c r="J111" s="78"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="25">
+      <c r="B112" s="78"/>
+      <c r="C112" s="78"/>
+      <c r="D112" s="78"/>
+      <c r="E112" s="78"/>
+      <c r="F112" s="78"/>
+      <c r="G112" s="78"/>
+      <c r="H112" s="78"/>
+      <c r="I112" s="78"/>
+      <c r="J112" s="78"/>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A113" s="25">
         <v>1</v>
       </c>
-      <c r="B112" s="48" t="s">
+      <c r="B113" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="48" t="s">
+      <c r="C113" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="D112" s="24" t="s">
+      <c r="D113" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="E112" s="48" t="s">
+      <c r="E113" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F112" s="48" t="s">
+      <c r="F113" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="G112" s="48" t="s">
+      <c r="G113" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H112" s="48" t="s">
+      <c r="H113" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="I112" s="48" t="s">
+      <c r="I113" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="J112" s="48" t="s">
+      <c r="J113" s="48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="78" t="s">
+    <row r="114" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="78" t="s">
         <v>383</v>
       </c>
-      <c r="B113" s="78"/>
-      <c r="C113" s="78"/>
-      <c r="D113" s="78"/>
-      <c r="E113" s="78"/>
-      <c r="F113" s="78"/>
-      <c r="G113" s="78"/>
-      <c r="H113" s="78"/>
-      <c r="I113" s="78"/>
-      <c r="J113" s="78"/>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A114" s="25">
+      <c r="B114" s="78"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="78"/>
+      <c r="E114" s="78"/>
+      <c r="F114" s="78"/>
+      <c r="G114" s="78"/>
+      <c r="H114" s="78"/>
+      <c r="I114" s="78"/>
+      <c r="J114" s="78"/>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A115" s="25">
         <v>1</v>
       </c>
-      <c r="B114" s="48" t="s">
+      <c r="B115" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C114" s="48" t="s">
+      <c r="C115" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="D114" s="24" t="s">
+      <c r="D115" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="E114" s="48" t="s">
+      <c r="E115" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F114" s="48" t="s">
+      <c r="F115" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="G114" s="48" t="s">
+      <c r="G115" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H114" s="48" t="s">
+      <c r="H115" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="I114" s="48" t="s">
+      <c r="I115" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="J114" s="48" t="s">
+      <c r="J115" s="48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="78" t="s">
+    <row r="116" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="78" t="s">
         <v>396</v>
       </c>
-      <c r="B115" s="78"/>
-      <c r="C115" s="78"/>
-      <c r="D115" s="78"/>
-      <c r="E115" s="78"/>
-      <c r="F115" s="78"/>
-      <c r="G115" s="78"/>
-      <c r="H115" s="78"/>
-      <c r="I115" s="78"/>
-      <c r="J115" s="78"/>
-    </row>
-    <row r="116" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="25">
-        <v>1</v>
-      </c>
-      <c r="B116" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="D116" s="51" t="s">
-        <v>398</v>
-      </c>
-      <c r="E116" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" s="51" t="s">
-        <v>399</v>
-      </c>
-      <c r="G116" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H116" s="51" t="s">
-        <v>400</v>
-      </c>
-      <c r="I116" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="J116" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="K116" s="58"/>
-      <c r="L116" s="58"/>
-      <c r="M116" s="58"/>
-      <c r="N116" s="58"/>
-      <c r="O116" s="58"/>
-      <c r="P116" s="58"/>
-      <c r="Q116" s="58"/>
-      <c r="R116" s="58"/>
-      <c r="S116" s="58"/>
-      <c r="T116" s="58"/>
-      <c r="U116" s="58"/>
-      <c r="V116" s="58"/>
-      <c r="W116" s="58"/>
-      <c r="X116" s="58"/>
+      <c r="B116" s="78"/>
+      <c r="C116" s="78"/>
+      <c r="D116" s="78"/>
+      <c r="E116" s="78"/>
+      <c r="F116" s="78"/>
+      <c r="G116" s="78"/>
+      <c r="H116" s="78"/>
+      <c r="I116" s="78"/>
+      <c r="J116" s="78"/>
     </row>
     <row r="117" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B117" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="48" t="s">
-        <v>517</v>
-      </c>
-      <c r="D117" s="63" t="s">
-        <v>538</v>
-      </c>
-      <c r="E117" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="D117" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="E117" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F117" s="48" t="s">
-        <v>401</v>
-      </c>
-      <c r="G117" s="48" t="s">
+      <c r="F117" s="51" t="s">
+        <v>399</v>
+      </c>
+      <c r="G117" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="H117" s="48" t="s">
+      <c r="H117" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="I117" s="48" t="s">
+      <c r="I117" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J117" s="48" t="s">
+      <c r="J117" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="K117" s="57"/>
+      <c r="K117" s="58"/>
       <c r="L117" s="58"/>
       <c r="M117" s="58"/>
       <c r="N117" s="58"/>
@@ -6875,22 +6870,22 @@
     </row>
     <row r="118" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B118" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="D118" s="64" t="s">
-        <v>406</v>
+        <v>517</v>
+      </c>
+      <c r="D118" s="63" t="s">
+        <v>537</v>
       </c>
       <c r="E118" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F118" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G118" s="48" t="s">
         <v>11</v>
@@ -6921,22 +6916,22 @@
     </row>
     <row r="119" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B119" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="48" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D119" s="64" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E119" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F119" s="48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G119" s="48" t="s">
         <v>11</v>
@@ -6967,22 +6962,22 @@
     </row>
     <row r="120" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B120" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C120" s="48" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D120" s="64" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E120" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F120" s="48" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G120" s="48" t="s">
         <v>11</v>
@@ -7013,22 +7008,22 @@
     </row>
     <row r="121" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B121" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C121" s="48" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D121" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E121" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G121" s="48" t="s">
         <v>11</v>
@@ -7059,22 +7054,22 @@
     </row>
     <row r="122" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B122" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="48" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D122" s="64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E122" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F122" s="48" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G122" s="48" t="s">
         <v>11</v>
@@ -7103,84 +7098,84 @@
       <c r="W122" s="58"/>
       <c r="X122" s="58"/>
     </row>
-    <row r="123" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="78" t="s">
+    <row r="123" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="25">
+        <v>7</v>
+      </c>
+      <c r="B123" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="D123" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="E123" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="G123" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="I123" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J123" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K123" s="57"/>
+      <c r="L123" s="58"/>
+      <c r="M123" s="58"/>
+      <c r="N123" s="58"/>
+      <c r="O123" s="58"/>
+      <c r="P123" s="58"/>
+      <c r="Q123" s="58"/>
+      <c r="R123" s="58"/>
+      <c r="S123" s="58"/>
+      <c r="T123" s="58"/>
+      <c r="U123" s="58"/>
+      <c r="V123" s="58"/>
+      <c r="W123" s="58"/>
+      <c r="X123" s="58"/>
+    </row>
+    <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="78" t="s">
         <v>413</v>
       </c>
-      <c r="B123" s="78"/>
-      <c r="C123" s="78"/>
-      <c r="D123" s="79"/>
-      <c r="E123" s="79"/>
-      <c r="F123" s="79"/>
-      <c r="G123" s="79"/>
-      <c r="H123" s="79"/>
-      <c r="I123" s="79"/>
-      <c r="J123" s="79"/>
-    </row>
-    <row r="124" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="59">
+      <c r="B124" s="78"/>
+      <c r="C124" s="78"/>
+      <c r="D124" s="79"/>
+      <c r="E124" s="79"/>
+      <c r="F124" s="79"/>
+      <c r="G124" s="79"/>
+      <c r="H124" s="79"/>
+      <c r="I124" s="79"/>
+      <c r="J124" s="79"/>
+    </row>
+    <row r="125" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="59">
         <v>11</v>
       </c>
-      <c r="B124" s="60" t="s">
+      <c r="B125" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C124" s="48" t="s">
+      <c r="C125" s="48" t="s">
         <v>414</v>
       </c>
-      <c r="D124" s="60" t="s">
+      <c r="D125" s="60" t="s">
         <v>510</v>
-      </c>
-      <c r="E124" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="G124" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H124" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="I124" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J124" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K124" s="61"/>
-      <c r="L124" s="61"/>
-      <c r="M124" s="61"/>
-      <c r="N124" s="61"/>
-      <c r="O124" s="61"/>
-      <c r="P124" s="61"/>
-      <c r="Q124" s="61"/>
-      <c r="R124" s="61"/>
-      <c r="S124" s="61"/>
-      <c r="T124" s="61"/>
-      <c r="U124" s="61"/>
-      <c r="V124" s="61"/>
-      <c r="W124" s="61"/>
-      <c r="X124" s="61"/>
-    </row>
-    <row r="125" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="26">
-        <v>2</v>
-      </c>
-      <c r="B125" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" s="48" t="s">
-        <v>417</v>
-      </c>
-      <c r="D125" s="27" t="s">
-        <v>418</v>
       </c>
       <c r="E125" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F125" s="48" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G125" s="27" t="s">
         <v>11</v>
@@ -7189,44 +7184,44 @@
         <v>416</v>
       </c>
       <c r="I125" s="27" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J125" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K125" s="58"/>
-      <c r="L125" s="58"/>
-      <c r="M125" s="58"/>
-      <c r="N125" s="58"/>
-      <c r="O125" s="58"/>
-      <c r="P125" s="58"/>
-      <c r="Q125" s="58"/>
-      <c r="R125" s="58"/>
-      <c r="S125" s="58"/>
-      <c r="T125" s="58"/>
-      <c r="U125" s="58"/>
-      <c r="V125" s="58"/>
-      <c r="W125" s="58"/>
-      <c r="X125" s="58"/>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K125" s="61"/>
+      <c r="L125" s="61"/>
+      <c r="M125" s="61"/>
+      <c r="N125" s="61"/>
+      <c r="O125" s="61"/>
+      <c r="P125" s="61"/>
+      <c r="Q125" s="61"/>
+      <c r="R125" s="61"/>
+      <c r="S125" s="61"/>
+      <c r="T125" s="61"/>
+      <c r="U125" s="61"/>
+      <c r="V125" s="61"/>
+      <c r="W125" s="61"/>
+      <c r="X125" s="61"/>
+    </row>
+    <row r="126" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B126" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C126" s="48" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D126" s="27" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E126" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F126" s="48" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G126" s="27" t="s">
         <v>11</v>
@@ -7235,7 +7230,7 @@
         <v>416</v>
       </c>
       <c r="I126" s="27" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J126" s="27" t="s">
         <v>13</v>
@@ -7255,24 +7250,24 @@
       <c r="W126" s="58"/>
       <c r="X126" s="58"/>
     </row>
-    <row r="127" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B127" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C127" s="48" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D127" s="27" t="s">
-        <v>511</v>
+        <v>421</v>
       </c>
       <c r="E127" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F127" s="48" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G127" s="27" t="s">
         <v>11</v>
@@ -7303,22 +7298,22 @@
     </row>
     <row r="128" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B128" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C128" s="48" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D128" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E128" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="48" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G128" s="27" t="s">
         <v>11</v>
@@ -7349,22 +7344,22 @@
     </row>
     <row r="129" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B129" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C129" s="48" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D129" s="27" t="s">
-        <v>428</v>
+        <v>512</v>
       </c>
       <c r="E129" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F129" s="48" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G129" s="27" t="s">
         <v>11</v>
@@ -7395,22 +7390,22 @@
     </row>
     <row r="130" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B130" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C130" s="48" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D130" s="27" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E130" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F130" s="48" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G130" s="27" t="s">
         <v>11</v>
@@ -7441,22 +7436,22 @@
     </row>
     <row r="131" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B131" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C131" s="48" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D131" s="27" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E131" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F131" s="48" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G131" s="27" t="s">
         <v>11</v>
@@ -7487,22 +7482,22 @@
     </row>
     <row r="132" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B132" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C132" s="48" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D132" s="27" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E132" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F132" s="48" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G132" s="27" t="s">
         <v>11</v>
@@ -7533,22 +7528,22 @@
     </row>
     <row r="133" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B133" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C133" s="48" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D133" s="27" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E133" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F133" s="48" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G133" s="27" t="s">
         <v>11</v>
@@ -7577,84 +7572,84 @@
       <c r="W133" s="58"/>
       <c r="X133" s="58"/>
     </row>
-    <row r="134" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="80" t="s">
+    <row r="134" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="26">
+        <v>10</v>
+      </c>
+      <c r="B134" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="D134" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="E134" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="G134" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="I134" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J134" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K134" s="58"/>
+      <c r="L134" s="58"/>
+      <c r="M134" s="58"/>
+      <c r="N134" s="58"/>
+      <c r="O134" s="58"/>
+      <c r="P134" s="58"/>
+      <c r="Q134" s="58"/>
+      <c r="R134" s="58"/>
+      <c r="S134" s="58"/>
+      <c r="T134" s="58"/>
+      <c r="U134" s="58"/>
+      <c r="V134" s="58"/>
+      <c r="W134" s="58"/>
+      <c r="X134" s="58"/>
+    </row>
+    <row r="135" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="80" t="s">
         <v>442</v>
       </c>
-      <c r="B134" s="81"/>
-      <c r="C134" s="81"/>
-      <c r="D134" s="81"/>
-      <c r="E134" s="81"/>
-      <c r="F134" s="81"/>
-      <c r="G134" s="81"/>
-      <c r="H134" s="81"/>
-      <c r="I134" s="81"/>
-      <c r="J134" s="82"/>
-    </row>
-    <row r="135" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="25">
-        <v>1</v>
-      </c>
-      <c r="B135" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C135" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="D135" s="48" t="s">
-        <v>444</v>
-      </c>
-      <c r="E135" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F135" s="48" t="s">
-        <v>445</v>
-      </c>
-      <c r="G135" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H135" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="I135" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J135" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="K135" s="58"/>
-      <c r="L135" s="58"/>
-      <c r="M135" s="58"/>
-      <c r="N135" s="58"/>
-      <c r="O135" s="58"/>
-      <c r="P135" s="58"/>
-      <c r="Q135" s="58"/>
-      <c r="R135" s="58"/>
-      <c r="S135" s="58"/>
-      <c r="T135" s="58"/>
-      <c r="U135" s="58"/>
-      <c r="V135" s="58"/>
-      <c r="W135" s="58"/>
-      <c r="X135" s="58"/>
+      <c r="B135" s="81"/>
+      <c r="C135" s="81"/>
+      <c r="D135" s="81"/>
+      <c r="E135" s="81"/>
+      <c r="F135" s="81"/>
+      <c r="G135" s="81"/>
+      <c r="H135" s="81"/>
+      <c r="I135" s="81"/>
+      <c r="J135" s="82"/>
     </row>
     <row r="136" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B136" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C136" s="48" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D136" s="48" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E136" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F136" s="48" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G136" s="48" t="s">
         <v>11</v>
@@ -7685,22 +7680,22 @@
     </row>
     <row r="137" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B137" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C137" s="48" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D137" s="48" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E137" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F137" s="48" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G137" s="48" t="s">
         <v>11</v>
@@ -7731,22 +7726,22 @@
     </row>
     <row r="138" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B138" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C138" s="48" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D138" s="48" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="E138" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F138" s="48" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G138" s="48" t="s">
         <v>11</v>
@@ -7760,25 +7755,39 @@
       <c r="J138" s="48" t="s">
         <v>13</v>
       </c>
+      <c r="K138" s="58"/>
+      <c r="L138" s="58"/>
+      <c r="M138" s="58"/>
+      <c r="N138" s="58"/>
+      <c r="O138" s="58"/>
+      <c r="P138" s="58"/>
+      <c r="Q138" s="58"/>
+      <c r="R138" s="58"/>
+      <c r="S138" s="58"/>
+      <c r="T138" s="58"/>
+      <c r="U138" s="58"/>
+      <c r="V138" s="58"/>
+      <c r="W138" s="58"/>
+      <c r="X138" s="58"/>
     </row>
     <row r="139" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B139" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C139" s="48" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D139" s="48" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="E139" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F139" s="48" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G139" s="48" t="s">
         <v>11</v>
@@ -7792,39 +7801,25 @@
       <c r="J139" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K139" s="58"/>
-      <c r="L139" s="58"/>
-      <c r="M139" s="58"/>
-      <c r="N139" s="58"/>
-      <c r="O139" s="58"/>
-      <c r="P139" s="58"/>
-      <c r="Q139" s="58"/>
-      <c r="R139" s="58"/>
-      <c r="S139" s="58"/>
-      <c r="T139" s="58"/>
-      <c r="U139" s="58"/>
-      <c r="V139" s="58"/>
-      <c r="W139" s="58"/>
-      <c r="X139" s="58"/>
     </row>
     <row r="140" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B140" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C140" s="48" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D140" s="48" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E140" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F140" s="48" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G140" s="48" t="s">
         <v>11</v>
@@ -7855,22 +7850,22 @@
     </row>
     <row r="141" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B141" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C141" s="48" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D141" s="48" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E141" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F141" s="48" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G141" s="48" t="s">
         <v>11</v>
@@ -7901,22 +7896,22 @@
     </row>
     <row r="142" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B142" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C142" s="48" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D142" s="48" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E142" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F142" s="48" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G142" s="48" t="s">
         <v>11</v>
@@ -7947,22 +7942,22 @@
     </row>
     <row r="143" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B143" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C143" s="48" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D143" s="48" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E143" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F143" s="48" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G143" s="48" t="s">
         <v>11</v>
@@ -7993,22 +7988,22 @@
     </row>
     <row r="144" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B144" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C144" s="48" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D144" s="48" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E144" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F144" s="48" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G144" s="48" t="s">
         <v>11</v>
@@ -8037,143 +8032,141 @@
       <c r="W144" s="58"/>
       <c r="X144" s="58"/>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A145" s="78" t="s">
+    <row r="145" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="25">
+        <v>10</v>
+      </c>
+      <c r="B145" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="D145" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="E145" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="48" t="s">
+        <v>472</v>
+      </c>
+      <c r="G145" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="I145" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J145" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K145" s="58"/>
+      <c r="L145" s="58"/>
+      <c r="M145" s="58"/>
+      <c r="N145" s="58"/>
+      <c r="O145" s="58"/>
+      <c r="P145" s="58"/>
+      <c r="Q145" s="58"/>
+      <c r="R145" s="58"/>
+      <c r="S145" s="58"/>
+      <c r="T145" s="58"/>
+      <c r="U145" s="58"/>
+      <c r="V145" s="58"/>
+      <c r="W145" s="58"/>
+      <c r="X145" s="58"/>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A146" s="78" t="s">
         <v>514</v>
       </c>
-      <c r="B145" s="78"/>
-      <c r="C145" s="78"/>
-      <c r="D145" s="78"/>
-      <c r="E145" s="78"/>
-      <c r="F145" s="78"/>
-      <c r="G145" s="78"/>
-      <c r="H145" s="78"/>
-      <c r="I145" s="78"/>
-      <c r="J145" s="78"/>
-    </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A146" s="25">
+      <c r="B146" s="78"/>
+      <c r="C146" s="78"/>
+      <c r="D146" s="78"/>
+      <c r="E146" s="78"/>
+      <c r="F146" s="78"/>
+      <c r="G146" s="78"/>
+      <c r="H146" s="78"/>
+      <c r="I146" s="78"/>
+      <c r="J146" s="78"/>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A147" s="25">
         <v>1</v>
       </c>
-      <c r="B146" s="48" t="s">
+      <c r="B147" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C146" s="48" t="s">
+      <c r="C147" s="48" t="s">
         <v>515</v>
       </c>
-      <c r="D146" s="24" t="s">
+      <c r="D147" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="E146" s="48" t="s">
+      <c r="E147" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F146" s="48" t="s">
+      <c r="F147" s="48" t="s">
         <v>513</v>
       </c>
-      <c r="G146" s="48" t="s">
+      <c r="G147" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H146" s="48" t="s">
+      <c r="H147" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="I146" s="48" t="s">
+      <c r="I147" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="J146" s="48" t="s">
+      <c r="J147" s="48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="78" t="s">
+    <row r="148" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="78" t="s">
+        <v>540</v>
+      </c>
+      <c r="B148" s="78"/>
+      <c r="C148" s="78"/>
+      <c r="D148" s="78"/>
+      <c r="E148" s="78"/>
+      <c r="F148" s="78"/>
+      <c r="G148" s="78"/>
+      <c r="H148" s="78"/>
+      <c r="I148" s="78"/>
+      <c r="J148" s="78"/>
+    </row>
+    <row r="149" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="65">
+        <v>1</v>
+      </c>
+      <c r="B149" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="67" t="s">
         <v>541</v>
       </c>
-      <c r="B147" s="78"/>
-      <c r="C147" s="78"/>
-      <c r="D147" s="78"/>
-      <c r="E147" s="78"/>
-      <c r="F147" s="78"/>
-      <c r="G147" s="78"/>
-      <c r="H147" s="78"/>
-      <c r="I147" s="78"/>
-      <c r="J147" s="78"/>
-    </row>
-    <row r="148" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="65">
-        <v>1</v>
-      </c>
-      <c r="B148" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C148" s="67" t="s">
+      <c r="D149" s="66" t="s">
         <v>542</v>
       </c>
-      <c r="D148" s="66" t="s">
+      <c r="E149" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="E148" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F148" s="67" t="s">
+      <c r="G149" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H149" s="66" t="s">
         <v>544</v>
       </c>
-      <c r="G148" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="H148" s="66" t="s">
-        <v>545</v>
-      </c>
-      <c r="I148" s="66" t="s">
+      <c r="I149" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="J148" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="K148" s="58"/>
-      <c r="L148" s="58"/>
-      <c r="M148" s="58"/>
-      <c r="N148" s="58"/>
-      <c r="O148" s="58"/>
-      <c r="P148" s="58"/>
-      <c r="Q148" s="58"/>
-      <c r="R148" s="58"/>
-      <c r="S148" s="58"/>
-      <c r="T148" s="58"/>
-      <c r="U148" s="58"/>
-      <c r="V148" s="58"/>
-      <c r="W148" s="58"/>
-      <c r="X148" s="58"/>
-      <c r="Y148" s="58"/>
-      <c r="Z148" s="58"/>
-    </row>
-    <row r="149" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="68">
-        <v>2</v>
-      </c>
-      <c r="B149" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C149" s="70" t="s">
-        <v>546</v>
-      </c>
-      <c r="D149" s="69" t="s">
-        <v>547</v>
-      </c>
-      <c r="E149" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F149" s="70" t="s">
-        <v>548</v>
-      </c>
-      <c r="G149" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="H149" s="69" t="s">
-        <v>545</v>
-      </c>
-      <c r="I149" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="J149" s="69" t="s">
+      <c r="J149" s="66" t="s">
         <v>13</v>
       </c>
       <c r="K149" s="58"/>
@@ -8195,28 +8188,28 @@
     </row>
     <row r="150" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B150" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C150" s="70" t="s">
-        <v>549</v>
-      </c>
-      <c r="D150" s="71" t="s">
-        <v>550</v>
+        <v>545</v>
+      </c>
+      <c r="D150" s="69" t="s">
+        <v>546</v>
       </c>
       <c r="E150" s="69" t="s">
         <v>14</v>
       </c>
       <c r="F150" s="70" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G150" s="69" t="s">
         <v>11</v>
       </c>
       <c r="H150" s="69" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I150" s="69" t="s">
         <v>12</v>
@@ -8243,28 +8236,28 @@
     </row>
     <row r="151" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B151" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C151" s="70" t="s">
-        <v>552</v>
-      </c>
-      <c r="D151" s="69" t="s">
-        <v>553</v>
+        <v>548</v>
+      </c>
+      <c r="D151" s="71" t="s">
+        <v>549</v>
       </c>
       <c r="E151" s="69" t="s">
         <v>14</v>
       </c>
       <c r="F151" s="70" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G151" s="69" t="s">
         <v>11</v>
       </c>
       <c r="H151" s="69" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I151" s="69" t="s">
         <v>12</v>
@@ -8291,28 +8284,28 @@
     </row>
     <row r="152" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B152" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C152" s="70" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D152" s="69" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="E152" s="69" t="s">
         <v>14</v>
       </c>
       <c r="F152" s="70" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G152" s="69" t="s">
         <v>11</v>
       </c>
       <c r="H152" s="69" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I152" s="69" t="s">
         <v>12</v>
@@ -8339,28 +8332,28 @@
     </row>
     <row r="153" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="68">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B153" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C153" s="70" t="s">
-        <v>557</v>
-      </c>
-      <c r="D153" s="71" t="s">
-        <v>594</v>
+        <v>554</v>
+      </c>
+      <c r="D153" s="69" t="s">
+        <v>592</v>
       </c>
       <c r="E153" s="69" t="s">
         <v>14</v>
       </c>
       <c r="F153" s="70" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G153" s="69" t="s">
         <v>11</v>
       </c>
       <c r="H153" s="69" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I153" s="69" t="s">
         <v>12</v>
@@ -8387,28 +8380,28 @@
     </row>
     <row r="154" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B154" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C154" s="70" t="s">
-        <v>559</v>
-      </c>
-      <c r="D154" s="69" t="s">
-        <v>595</v>
+        <v>556</v>
+      </c>
+      <c r="D154" s="71" t="s">
+        <v>593</v>
       </c>
       <c r="E154" s="69" t="s">
         <v>14</v>
       </c>
       <c r="F154" s="70" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G154" s="69" t="s">
         <v>11</v>
       </c>
       <c r="H154" s="69" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I154" s="69" t="s">
         <v>12</v>
@@ -8435,28 +8428,28 @@
     </row>
     <row r="155" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B155" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C155" s="70" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D155" s="69" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E155" s="69" t="s">
         <v>14</v>
       </c>
       <c r="F155" s="70" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G155" s="69" t="s">
         <v>11</v>
       </c>
       <c r="H155" s="69" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I155" s="69" t="s">
         <v>12</v>
@@ -8482,34 +8475,34 @@
       <c r="Z155" s="58"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="72">
-        <v>9</v>
-      </c>
-      <c r="B156" s="74" t="s">
+      <c r="A156" s="68">
+        <v>8</v>
+      </c>
+      <c r="B156" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C156" s="75" t="s">
-        <v>563</v>
-      </c>
-      <c r="D156" s="74" t="s">
-        <v>566</v>
-      </c>
-      <c r="E156" s="74" t="s">
+      <c r="C156" s="70" t="s">
+        <v>560</v>
+      </c>
+      <c r="D156" s="69" t="s">
+        <v>595</v>
+      </c>
+      <c r="E156" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="F156" s="75" t="s">
-        <v>564</v>
-      </c>
-      <c r="G156" s="74" t="s">
+      <c r="F156" s="70" t="s">
+        <v>561</v>
+      </c>
+      <c r="G156" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H156" s="74" t="s">
-        <v>545</v>
-      </c>
-      <c r="I156" s="74" t="s">
+      <c r="H156" s="69" t="s">
+        <v>544</v>
+      </c>
+      <c r="I156" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J156" s="74" t="s">
+      <c r="J156" s="69" t="s">
         <v>13</v>
       </c>
       <c r="K156" s="58"/>
@@ -8530,29 +8523,29 @@
       <c r="Z156" s="58"/>
     </row>
     <row r="157" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="73">
-        <v>10</v>
+      <c r="A157" s="72">
+        <v>9</v>
       </c>
       <c r="B157" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C157" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="D157" s="74" t="s">
         <v>565</v>
-      </c>
-      <c r="D157" s="74" t="s">
-        <v>569</v>
       </c>
       <c r="E157" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F157" s="75" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G157" s="74" t="s">
         <v>11</v>
       </c>
       <c r="H157" s="74" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I157" s="74" t="s">
         <v>12</v>
@@ -8578,29 +8571,29 @@
       <c r="Z157" s="58"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="72">
-        <v>11</v>
+      <c r="A158" s="73">
+        <v>10</v>
       </c>
       <c r="B158" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C158" s="75" t="s">
+        <v>564</v>
+      </c>
+      <c r="D158" s="74" t="s">
         <v>568</v>
-      </c>
-      <c r="D158" s="74" t="s">
-        <v>572</v>
       </c>
       <c r="E158" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F158" s="75" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G158" s="74" t="s">
         <v>11</v>
       </c>
       <c r="H158" s="74" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I158" s="74" t="s">
         <v>12</v>
@@ -8626,29 +8619,29 @@
       <c r="Z158" s="58"/>
     </row>
     <row r="159" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="73">
-        <v>12</v>
+      <c r="A159" s="72">
+        <v>11</v>
       </c>
       <c r="B159" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C159" s="75" t="s">
+        <v>567</v>
+      </c>
+      <c r="D159" s="74" t="s">
         <v>571</v>
-      </c>
-      <c r="D159" s="74" t="s">
-        <v>575</v>
       </c>
       <c r="E159" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F159" s="75" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G159" s="74" t="s">
         <v>11</v>
       </c>
       <c r="H159" s="74" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I159" s="74" t="s">
         <v>12</v>
@@ -8674,29 +8667,29 @@
       <c r="Z159" s="58"/>
     </row>
     <row r="160" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="72">
-        <v>13</v>
+      <c r="A160" s="73">
+        <v>12</v>
       </c>
       <c r="B160" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C160" s="75" t="s">
+        <v>570</v>
+      </c>
+      <c r="D160" s="74" t="s">
         <v>574</v>
-      </c>
-      <c r="D160" s="74" t="s">
-        <v>578</v>
       </c>
       <c r="E160" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F160" s="75" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G160" s="74" t="s">
         <v>11</v>
       </c>
       <c r="H160" s="74" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I160" s="74" t="s">
         <v>12</v>
@@ -8722,29 +8715,29 @@
       <c r="Z160" s="58"/>
     </row>
     <row r="161" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="73">
-        <v>14</v>
+      <c r="A161" s="72">
+        <v>13</v>
       </c>
       <c r="B161" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C161" s="75" t="s">
+        <v>573</v>
+      </c>
+      <c r="D161" s="74" t="s">
         <v>577</v>
-      </c>
-      <c r="D161" s="76" t="s">
-        <v>581</v>
       </c>
       <c r="E161" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F161" s="75" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G161" s="74" t="s">
         <v>11</v>
       </c>
       <c r="H161" s="74" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I161" s="74" t="s">
         <v>12</v>
@@ -8770,29 +8763,29 @@
       <c r="Z161" s="58"/>
     </row>
     <row r="162" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="72">
-        <v>15</v>
+      <c r="A162" s="73">
+        <v>14</v>
       </c>
       <c r="B162" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C162" s="75" t="s">
+        <v>576</v>
+      </c>
+      <c r="D162" s="76" t="s">
         <v>580</v>
-      </c>
-      <c r="D162" s="76" t="s">
-        <v>597</v>
       </c>
       <c r="E162" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F162" s="75" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G162" s="74" t="s">
         <v>11</v>
       </c>
       <c r="H162" s="74" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I162" s="74" t="s">
         <v>12</v>
@@ -8818,29 +8811,29 @@
       <c r="Z162" s="58"/>
     </row>
     <row r="163" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="73">
-        <v>16</v>
+      <c r="A163" s="72">
+        <v>15</v>
       </c>
       <c r="B163" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C163" s="75" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D163" s="76" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="E163" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F163" s="75" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G163" s="74" t="s">
         <v>11</v>
       </c>
       <c r="H163" s="74" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I163" s="74" t="s">
         <v>12</v>
@@ -8866,29 +8859,29 @@
       <c r="Z163" s="58"/>
     </row>
     <row r="164" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="72">
-        <v>17</v>
+      <c r="A164" s="73">
+        <v>16</v>
       </c>
       <c r="B164" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C164" s="75" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D164" s="76" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E164" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F164" s="75" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G164" s="74" t="s">
         <v>11</v>
       </c>
       <c r="H164" s="74" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I164" s="74" t="s">
         <v>12</v>
@@ -8914,29 +8907,29 @@
       <c r="Z164" s="58"/>
     </row>
     <row r="165" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="73">
-        <v>18</v>
+      <c r="A165" s="72">
+        <v>17</v>
       </c>
       <c r="B165" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C165" s="75" t="s">
-        <v>587</v>
-      </c>
-      <c r="D165" s="77" t="s">
-        <v>591</v>
+        <v>584</v>
+      </c>
+      <c r="D165" s="76" t="s">
+        <v>589</v>
       </c>
       <c r="E165" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F165" s="75" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G165" s="74" t="s">
         <v>11</v>
       </c>
       <c r="H165" s="74" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I165" s="74" t="s">
         <v>12</v>
@@ -8961,21 +8954,69 @@
       <c r="Y165" s="58"/>
       <c r="Z165" s="58"/>
     </row>
+    <row r="166" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="73">
+        <v>18</v>
+      </c>
+      <c r="B166" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="75" t="s">
+        <v>586</v>
+      </c>
+      <c r="D166" s="77" t="s">
+        <v>590</v>
+      </c>
+      <c r="E166" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" s="75" t="s">
+        <v>588</v>
+      </c>
+      <c r="G166" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H166" s="74" t="s">
+        <v>544</v>
+      </c>
+      <c r="I166" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J166" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="K166" s="58"/>
+      <c r="L166" s="58"/>
+      <c r="M166" s="58"/>
+      <c r="N166" s="58"/>
+      <c r="O166" s="58"/>
+      <c r="P166" s="58"/>
+      <c r="Q166" s="58"/>
+      <c r="R166" s="58"/>
+      <c r="S166" s="58"/>
+      <c r="T166" s="58"/>
+      <c r="U166" s="58"/>
+      <c r="V166" s="58"/>
+      <c r="W166" s="58"/>
+      <c r="X166" s="58"/>
+      <c r="Y166" s="58"/>
+      <c r="Z166" s="58"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A147:J147"/>
-    <mergeCell ref="A145:J145"/>
-    <mergeCell ref="A123:J123"/>
-    <mergeCell ref="A134:J134"/>
+    <mergeCell ref="A148:J148"/>
+    <mergeCell ref="A146:J146"/>
+    <mergeCell ref="A124:J124"/>
+    <mergeCell ref="A135:J135"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A37:J37"/>
     <mergeCell ref="A51:J51"/>
     <mergeCell ref="A62:J62"/>
     <mergeCell ref="A74:J74"/>
-    <mergeCell ref="A115:J115"/>
-    <mergeCell ref="A113:J113"/>
-    <mergeCell ref="A111:J111"/>
-    <mergeCell ref="A101:J101"/>
+    <mergeCell ref="A116:J116"/>
+    <mergeCell ref="A114:J114"/>
+    <mergeCell ref="A112:J112"/>
+    <mergeCell ref="A102:J102"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -9073,10 +9114,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:U164"/>
+  <dimension ref="A1:U165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10392,7 +10433,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>96</v>
@@ -15324,60 +15365,60 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="B100" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C100" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D100" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E100" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F100" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H100" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I100" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J100" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K100" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L100" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M100" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N100" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O100" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P100" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q100" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R100" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S100" s="48" t="s">
+        <v>601</v>
+      </c>
+      <c r="B100" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H100" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="I100" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="J100" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K100" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="L100" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="M100" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="N100" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="O100" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="P100" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q100" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="R100" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="S100" s="51" t="s">
         <v>22</v>
       </c>
       <c r="T100" s="48" t="s">
@@ -15389,7 +15430,7 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B101" s="48" t="s">
         <v>22</v>
@@ -15454,7 +15495,7 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B102" s="48" t="s">
         <v>22</v>
@@ -15519,7 +15560,7 @@
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="48" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B103" s="48" t="s">
         <v>22</v>
@@ -15584,7 +15625,7 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B104" s="48" t="s">
         <v>22</v>
@@ -15649,7 +15690,7 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B105" s="48" t="s">
         <v>22</v>
@@ -15714,7 +15755,7 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B106" s="48" t="s">
         <v>22</v>
@@ -15779,7 +15820,7 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B107" s="48" t="s">
         <v>22</v>
@@ -15844,7 +15885,7 @@
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B108" s="48" t="s">
         <v>22</v>
@@ -15909,7 +15950,7 @@
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="48" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B109" s="48" t="s">
         <v>22</v>
@@ -15974,7 +16015,7 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B110" s="48" t="s">
         <v>22</v>
@@ -16039,7 +16080,7 @@
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="48" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B111" s="48" t="s">
         <v>22</v>
@@ -16104,7 +16145,7 @@
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="48" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B112" s="48" t="s">
         <v>22</v>
@@ -16169,7 +16210,7 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B113" s="48" t="s">
         <v>22</v>
@@ -16234,7 +16275,7 @@
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B114" s="48" t="s">
         <v>22</v>
@@ -16299,7 +16340,7 @@
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B115" s="48" t="s">
         <v>22</v>
@@ -16364,7 +16405,7 @@
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B116" s="48" t="s">
         <v>22</v>
@@ -16429,7 +16470,7 @@
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="48" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B117" s="48" t="s">
         <v>22</v>
@@ -16494,167 +16535,167 @@
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="B118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U118" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A119" s="48" t="s">
         <v>409</v>
       </c>
-      <c r="B118" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D118" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E118" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F118" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H118" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I118" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J118" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K118" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L118" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M118" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N118" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O118" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P118" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q118" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R118" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S118" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T118" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U118" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A119" s="62" t="s">
+      <c r="B119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U119" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A120" s="62" t="s">
         <v>415</v>
       </c>
-      <c r="B119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119" s="36" t="s">
+      <c r="B120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="D119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F119" s="48" t="s">
+      <c r="D120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F120" s="48" t="s">
         <v>495</v>
       </c>
-      <c r="G119" s="49" t="s">
+      <c r="G120" s="49" t="s">
         <v>496</v>
       </c>
-      <c r="H119" s="48" t="s">
+      <c r="H120" s="48" t="s">
         <v>497</v>
       </c>
-      <c r="I119" s="48" t="s">
+      <c r="I120" s="48" t="s">
         <v>498</v>
       </c>
-      <c r="J119" s="36" t="s">
+      <c r="J120" s="36" t="s">
         <v>478</v>
       </c>
-      <c r="K119" s="48" t="s">
+      <c r="K120" s="48" t="s">
         <v>499</v>
-      </c>
-      <c r="L119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U119" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A120" s="48" t="s">
-        <v>419</v>
-      </c>
-      <c r="B120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K120" s="48" t="s">
-        <v>22</v>
       </c>
       <c r="L120" s="48" t="s">
         <v>22</v>
@@ -16689,102 +16730,102 @@
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="B121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U121" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A122" s="48" t="s">
         <v>422</v>
       </c>
-      <c r="B121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C121" s="36" t="s">
+      <c r="B122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="D121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F121" s="48" t="s">
+      <c r="D122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F122" s="48" t="s">
         <v>475</v>
       </c>
-      <c r="G121" s="49" t="s">
+      <c r="G122" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="H121" s="48" t="s">
+      <c r="H122" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="I121" s="48" t="s">
+      <c r="I122" s="48" t="s">
         <v>477</v>
       </c>
-      <c r="J121" s="36" t="s">
+      <c r="J122" s="36" t="s">
         <v>478</v>
       </c>
-      <c r="K121" s="48" t="s">
+      <c r="K122" s="48" t="s">
         <v>479</v>
-      </c>
-      <c r="L121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U121" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A122" s="48" t="s">
-        <v>424</v>
-      </c>
-      <c r="B122" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C122" s="36" t="s">
-        <v>598</v>
-      </c>
-      <c r="D122" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E122" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F122" s="48" t="s">
-        <v>481</v>
-      </c>
-      <c r="G122" s="49" t="s">
-        <v>482</v>
-      </c>
-      <c r="H122" s="48" t="s">
-        <v>483</v>
-      </c>
-      <c r="I122" s="48" t="s">
-        <v>500</v>
-      </c>
-      <c r="J122" s="36" t="s">
-        <v>501</v>
-      </c>
-      <c r="K122" s="48" t="s">
-        <v>502</v>
       </c>
       <c r="L122" s="48" t="s">
         <v>22</v>
@@ -16819,13 +16860,13 @@
     </row>
     <row r="123" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A123" s="48" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B123" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C123" s="36" t="s">
-        <v>480</v>
+        <v>597</v>
       </c>
       <c r="D123" s="48" t="s">
         <v>22</v>
@@ -16834,7 +16875,7 @@
         <v>22</v>
       </c>
       <c r="F123" s="48" t="s">
-        <v>29</v>
+        <v>481</v>
       </c>
       <c r="G123" s="49" t="s">
         <v>482</v>
@@ -16843,78 +16884,78 @@
         <v>483</v>
       </c>
       <c r="I123" s="48" t="s">
+        <v>500</v>
+      </c>
+      <c r="J123" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="K123" s="48" t="s">
+        <v>502</v>
+      </c>
+      <c r="L123" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M123" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N123" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O123" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P123" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q123" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R123" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S123" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T123" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U123" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A124" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="B124" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="D124" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F124" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G124" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="H124" s="48" t="s">
+        <v>483</v>
+      </c>
+      <c r="I124" s="48" t="s">
         <v>484</v>
       </c>
-      <c r="J123" s="36" t="s">
+      <c r="J124" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="K123" s="48" t="s">
+      <c r="K124" s="48" t="s">
         <v>486</v>
-      </c>
-      <c r="L123" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M123" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N123" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O123" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P123" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q123" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R123" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S123" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T123" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U123" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A124" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="B124" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C124" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="D124" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E124" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F124" s="48" t="s">
-        <v>504</v>
-      </c>
-      <c r="G124" s="49" t="s">
-        <v>505</v>
-      </c>
-      <c r="H124" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I124" s="48" t="s">
-        <v>506</v>
-      </c>
-      <c r="J124" s="36" t="s">
-        <v>507</v>
-      </c>
-      <c r="K124" s="48" t="s">
-        <v>502</v>
       </c>
       <c r="L124" s="48" t="s">
         <v>22</v>
@@ -16949,13 +16990,13 @@
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="48" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B125" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C125" s="48" t="s">
-        <v>22</v>
+      <c r="C125" s="36" t="s">
+        <v>503</v>
       </c>
       <c r="D125" s="48" t="s">
         <v>22</v>
@@ -16964,22 +17005,22 @@
         <v>22</v>
       </c>
       <c r="F125" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" s="48" t="s">
-        <v>22</v>
+        <v>504</v>
+      </c>
+      <c r="G125" s="49" t="s">
+        <v>505</v>
       </c>
       <c r="H125" s="48" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I125" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J125" s="48" t="s">
-        <v>22</v>
+        <v>506</v>
+      </c>
+      <c r="J125" s="36" t="s">
+        <v>507</v>
       </c>
       <c r="K125" s="48" t="s">
-        <v>22</v>
+        <v>502</v>
       </c>
       <c r="L125" s="48" t="s">
         <v>22</v>
@@ -17014,167 +17055,167 @@
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="B126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U126" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A127" s="48" t="s">
         <v>435</v>
       </c>
-      <c r="B126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U126" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="48" t="s">
+      <c r="B127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U127" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A128" s="48" t="s">
         <v>438</v>
       </c>
-      <c r="B127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C127" s="36" t="s">
+      <c r="B128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="D127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F127" s="48" t="s">
+      <c r="D128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="G127" s="49" t="s">
+      <c r="G128" s="49" t="s">
         <v>482</v>
       </c>
-      <c r="H127" s="48" t="s">
+      <c r="H128" s="48" t="s">
         <v>483</v>
       </c>
-      <c r="I127" s="48" t="s">
+      <c r="I128" s="48" t="s">
         <v>484</v>
       </c>
-      <c r="J127" s="36" t="s">
+      <c r="J128" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="K127" s="48" t="s">
+      <c r="K128" s="48" t="s">
         <v>486</v>
-      </c>
-      <c r="L127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U127" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A128" s="48" t="s">
-        <v>441</v>
-      </c>
-      <c r="B128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K128" s="48" t="s">
-        <v>22</v>
       </c>
       <c r="L128" s="48" t="s">
         <v>22</v>
@@ -17209,7 +17250,7 @@
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="48" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="B129" s="48" t="s">
         <v>22</v>
@@ -17274,7 +17315,7 @@
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B130" s="48" t="s">
         <v>22</v>
@@ -17339,7 +17380,7 @@
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B131" s="48" t="s">
         <v>22</v>
@@ -17399,12 +17440,12 @@
         <v>22</v>
       </c>
       <c r="U131" s="48" t="s">
-        <v>493</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B132" s="48" t="s">
         <v>22</v>
@@ -17464,12 +17505,12 @@
         <v>22</v>
       </c>
       <c r="U132" s="48" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="48" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B133" s="48" t="s">
         <v>22</v>
@@ -17529,12 +17570,12 @@
         <v>22</v>
       </c>
       <c r="U133" s="48" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B134" s="48" t="s">
         <v>22</v>
@@ -17542,8 +17583,8 @@
       <c r="C134" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D134" s="49" t="s">
-        <v>142</v>
+      <c r="D134" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="E134" s="48" t="s">
         <v>22</v>
@@ -17594,12 +17635,12 @@
         <v>22</v>
       </c>
       <c r="U134" s="48" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B135" s="48" t="s">
         <v>22</v>
@@ -17607,8 +17648,8 @@
       <c r="C135" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D135" s="48" t="s">
-        <v>22</v>
+      <c r="D135" s="49" t="s">
+        <v>142</v>
       </c>
       <c r="E135" s="48" t="s">
         <v>22</v>
@@ -17659,12 +17700,12 @@
         <v>22</v>
       </c>
       <c r="U135" s="48" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="48" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="B136" s="48" t="s">
         <v>22</v>
@@ -17724,12 +17765,12 @@
         <v>22</v>
       </c>
       <c r="U136" s="48" t="s">
-        <v>22</v>
+        <v>490</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="48" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B137" s="48" t="s">
         <v>22</v>
@@ -17794,7 +17835,7 @@
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="48" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B138" s="48" t="s">
         <v>22</v>
@@ -17859,7 +17900,7 @@
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="48" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B139" s="48" t="s">
         <v>22</v>
@@ -17919,12 +17960,12 @@
         <v>22</v>
       </c>
       <c r="U139" s="48" t="s">
-        <v>536</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="48" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B140" s="48" t="s">
         <v>22</v>
@@ -17984,12 +18025,12 @@
         <v>22</v>
       </c>
       <c r="U140" s="48" t="s">
-        <v>487</v>
+        <v>535</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="48" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B141" s="48" t="s">
         <v>22</v>
@@ -18049,12 +18090,12 @@
         <v>22</v>
       </c>
       <c r="U141" s="48" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="48" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B142" s="48" t="s">
         <v>22</v>
@@ -18114,273 +18155,273 @@
         <v>22</v>
       </c>
       <c r="U142" s="48" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="B143" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D143" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E143" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F143" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G143" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H143" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I143" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J143" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K143" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L143" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M143" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N143" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O143" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P143" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q143" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R143" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S143" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T143" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U143" s="48" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A144" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="B143" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C143" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D143" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E143" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F143" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H143" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I143" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J143" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K143" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L143" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M143" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N143" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O143" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P143" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q143" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R143" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S143" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T143" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U143" s="48" t="s">
+      <c r="B144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U144" s="48" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="48" t="s">
+    <row r="145" spans="1:21" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="48" t="s">
         <v>469</v>
       </c>
-      <c r="B144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U144" s="48" t="s">
+      <c r="B145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U145" s="48" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="48" t="s">
+    <row r="146" spans="1:21" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="B145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U145" s="48" t="s">
+      <c r="B146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U146" s="48" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="48" t="s">
+    <row r="147" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="48" t="s">
         <v>513</v>
       </c>
-      <c r="B146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U146" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="147" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="67" t="s">
-        <v>544</v>
-      </c>
       <c r="B147" s="48" t="s">
         <v>22</v>
       </c>
@@ -18443,8 +18484,8 @@
       </c>
     </row>
     <row r="148" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="70" t="s">
-        <v>548</v>
+      <c r="A148" s="67" t="s">
+        <v>543</v>
       </c>
       <c r="B148" s="48" t="s">
         <v>22</v>
@@ -18508,8 +18549,8 @@
       </c>
     </row>
     <row r="149" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="67" t="s">
-        <v>551</v>
+      <c r="A149" s="70" t="s">
+        <v>547</v>
       </c>
       <c r="B149" s="48" t="s">
         <v>22</v>
@@ -18573,8 +18614,8 @@
       </c>
     </row>
     <row r="150" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="70" t="s">
-        <v>554</v>
+      <c r="A150" s="67" t="s">
+        <v>550</v>
       </c>
       <c r="B150" s="48" t="s">
         <v>22</v>
@@ -18638,8 +18679,8 @@
       </c>
     </row>
     <row r="151" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="67" t="s">
-        <v>556</v>
+      <c r="A151" s="70" t="s">
+        <v>553</v>
       </c>
       <c r="B151" s="48" t="s">
         <v>22</v>
@@ -18703,8 +18744,8 @@
       </c>
     </row>
     <row r="152" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="70" t="s">
-        <v>558</v>
+      <c r="A152" s="67" t="s">
+        <v>555</v>
       </c>
       <c r="B152" s="48" t="s">
         <v>22</v>
@@ -18768,8 +18809,8 @@
       </c>
     </row>
     <row r="153" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="67" t="s">
-        <v>560</v>
+      <c r="A153" s="70" t="s">
+        <v>557</v>
       </c>
       <c r="B153" s="48" t="s">
         <v>22</v>
@@ -18833,8 +18874,8 @@
       </c>
     </row>
     <row r="154" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="70" t="s">
-        <v>562</v>
+      <c r="A154" s="67" t="s">
+        <v>559</v>
       </c>
       <c r="B154" s="48" t="s">
         <v>22</v>
@@ -18898,8 +18939,8 @@
       </c>
     </row>
     <row r="155" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="67" t="s">
-        <v>564</v>
+      <c r="A155" s="70" t="s">
+        <v>561</v>
       </c>
       <c r="B155" s="48" t="s">
         <v>22</v>
@@ -18963,8 +19004,8 @@
       </c>
     </row>
     <row r="156" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="70" t="s">
-        <v>567</v>
+      <c r="A156" s="67" t="s">
+        <v>563</v>
       </c>
       <c r="B156" s="48" t="s">
         <v>22</v>
@@ -19028,8 +19069,8 @@
       </c>
     </row>
     <row r="157" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="67" t="s">
-        <v>570</v>
+      <c r="A157" s="70" t="s">
+        <v>566</v>
       </c>
       <c r="B157" s="48" t="s">
         <v>22</v>
@@ -19093,8 +19134,8 @@
       </c>
     </row>
     <row r="158" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="70" t="s">
-        <v>573</v>
+      <c r="A158" s="67" t="s">
+        <v>569</v>
       </c>
       <c r="B158" s="48" t="s">
         <v>22</v>
@@ -19158,8 +19199,8 @@
       </c>
     </row>
     <row r="159" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="67" t="s">
-        <v>576</v>
+      <c r="A159" s="70" t="s">
+        <v>572</v>
       </c>
       <c r="B159" s="48" t="s">
         <v>22</v>
@@ -19223,8 +19264,8 @@
       </c>
     </row>
     <row r="160" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="70" t="s">
-        <v>579</v>
+      <c r="A160" s="67" t="s">
+        <v>575</v>
       </c>
       <c r="B160" s="48" t="s">
         <v>22</v>
@@ -19288,8 +19329,8 @@
       </c>
     </row>
     <row r="161" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="67" t="s">
-        <v>582</v>
+      <c r="A161" s="70" t="s">
+        <v>578</v>
       </c>
       <c r="B161" s="48" t="s">
         <v>22</v>
@@ -19354,7 +19395,7 @@
     </row>
     <row r="162" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="67" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B162" s="48" t="s">
         <v>22</v>
@@ -19419,7 +19460,7 @@
     </row>
     <row r="163" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="67" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B163" s="48" t="s">
         <v>22</v>
@@ -19482,68 +19523,133 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="67" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U164" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="67" t="s">
+        <v>588</v>
+      </c>
+      <c r="B165" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C164" s="36" t="s">
+      <c r="C165" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="D164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F164" s="48" t="s">
+      <c r="D165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F165" s="48" t="s">
         <v>481</v>
       </c>
-      <c r="G164" s="49" t="s">
+      <c r="G165" s="49" t="s">
         <v>482</v>
       </c>
-      <c r="H164" s="48" t="s">
+      <c r="H165" s="48" t="s">
         <v>483</v>
       </c>
-      <c r="I164" s="48" t="s">
+      <c r="I165" s="48" t="s">
         <v>500</v>
       </c>
-      <c r="J164" s="36" t="s">
+      <c r="J165" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="K164" s="48" t="s">
+      <c r="K165" s="48" t="s">
         <v>502</v>
       </c>
-      <c r="L164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U164" s="48" t="s">
+      <c r="L165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U165" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -19663,14 +19769,14 @@
     <hyperlink ref="C17" r:id="rId7" xr:uid="{6F82EE81-6932-4BED-AC6D-A978AE746C24}"/>
     <hyperlink ref="C32" r:id="rId8" display="mailto:8956sdf5985df@6@7" xr:uid="{2B87FF58-DF60-407D-8810-934B25AE33D1}"/>
     <hyperlink ref="D23" r:id="rId9" xr:uid="{4001AA3D-FA2B-4237-A3F6-CC0631BC40D8}"/>
-    <hyperlink ref="G121" r:id="rId10" xr:uid="{5E6B6B1A-B5E2-4B87-A212-43CBE728E697}"/>
-    <hyperlink ref="G123" r:id="rId11" xr:uid="{21D57B30-A62F-4B04-8FC4-754A1492DE18}"/>
-    <hyperlink ref="G127" r:id="rId12" xr:uid="{757DF638-4C34-42A1-BA8F-AD4541A38734}"/>
-    <hyperlink ref="G122" r:id="rId13" xr:uid="{98E0996F-0FB4-4189-BE73-57E37E31FC3F}"/>
-    <hyperlink ref="G119" r:id="rId14" xr:uid="{009DD950-489A-4511-9EE8-3302596C4B91}"/>
-    <hyperlink ref="G124" r:id="rId15" xr:uid="{FEC9AB2B-6FD0-4D08-96BB-5634F117BFB0}"/>
-    <hyperlink ref="D134" r:id="rId16" xr:uid="{EAE526E7-10C0-4EC9-846A-D81343ACBEC4}"/>
-    <hyperlink ref="G164" r:id="rId17" xr:uid="{0A52F660-ABF2-41CF-BD4C-5E55458D590D}"/>
+    <hyperlink ref="G122" r:id="rId10" xr:uid="{5E6B6B1A-B5E2-4B87-A212-43CBE728E697}"/>
+    <hyperlink ref="G124" r:id="rId11" xr:uid="{21D57B30-A62F-4B04-8FC4-754A1492DE18}"/>
+    <hyperlink ref="G128" r:id="rId12" xr:uid="{757DF638-4C34-42A1-BA8F-AD4541A38734}"/>
+    <hyperlink ref="G123" r:id="rId13" xr:uid="{98E0996F-0FB4-4189-BE73-57E37E31FC3F}"/>
+    <hyperlink ref="G120" r:id="rId14" xr:uid="{009DD950-489A-4511-9EE8-3302596C4B91}"/>
+    <hyperlink ref="G125" r:id="rId15" xr:uid="{FEC9AB2B-6FD0-4D08-96BB-5634F117BFB0}"/>
+    <hyperlink ref="D135" r:id="rId16" xr:uid="{EAE526E7-10C0-4EC9-846A-D81343ACBEC4}"/>
+    <hyperlink ref="G165" r:id="rId17" xr:uid="{0A52F660-ABF2-41CF-BD4C-5E55458D590D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gowthamraj\Desktop\zlaataQA001\src\test\resources\testdata\zltUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gowthamraj\git\zlaatanew\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B82C6C-0C21-4375-8328-52F681B3275C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15995E10-E53C-4A35-8FC4-31702BC990F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4750" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4780" uniqueCount="605">
   <si>
     <t>S.No</t>
   </si>
@@ -1832,6 +1832,15 @@
   </si>
   <si>
     <t>TD_UI_Zlaata_PDP_27</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_COP_10</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_COP_10</t>
+  </si>
+  <si>
+    <t>Verify Accessories, Recently Viewed, and Top Selling buttons on Checkout page</t>
   </si>
 </sst>
 </file>
@@ -3253,10 +3262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z166"/>
+  <dimension ref="A1:Z167"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6717,189 +6726,175 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="78" t="s">
+      <c r="A112" s="25">
+        <v>9</v>
+      </c>
+      <c r="B112" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="48" t="s">
+        <v>603</v>
+      </c>
+      <c r="D112" s="48" t="s">
+        <v>604</v>
+      </c>
+      <c r="E112" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="48" t="s">
+        <v>602</v>
+      </c>
+      <c r="G112" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="I112" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J112" s="48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A113" s="78" t="s">
         <v>378</v>
       </c>
-      <c r="B112" s="78"/>
-      <c r="C112" s="78"/>
-      <c r="D112" s="78"/>
-      <c r="E112" s="78"/>
-      <c r="F112" s="78"/>
-      <c r="G112" s="78"/>
-      <c r="H112" s="78"/>
-      <c r="I112" s="78"/>
-      <c r="J112" s="78"/>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A113" s="25">
+      <c r="B113" s="78"/>
+      <c r="C113" s="78"/>
+      <c r="D113" s="78"/>
+      <c r="E113" s="78"/>
+      <c r="F113" s="78"/>
+      <c r="G113" s="78"/>
+      <c r="H113" s="78"/>
+      <c r="I113" s="78"/>
+      <c r="J113" s="78"/>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A114" s="25">
         <v>1</v>
       </c>
-      <c r="B113" s="48" t="s">
+      <c r="B114" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C113" s="48" t="s">
+      <c r="C114" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="D114" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="E113" s="48" t="s">
+      <c r="E114" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F113" s="48" t="s">
+      <c r="F114" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="G113" s="48" t="s">
+      <c r="G114" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H113" s="48" t="s">
+      <c r="H114" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="I113" s="48" t="s">
+      <c r="I114" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="J113" s="48" t="s">
+      <c r="J114" s="48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="78" t="s">
+    <row r="115" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="78" t="s">
         <v>383</v>
       </c>
-      <c r="B114" s="78"/>
-      <c r="C114" s="78"/>
-      <c r="D114" s="78"/>
-      <c r="E114" s="78"/>
-      <c r="F114" s="78"/>
-      <c r="G114" s="78"/>
-      <c r="H114" s="78"/>
-      <c r="I114" s="78"/>
-      <c r="J114" s="78"/>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A115" s="25">
+      <c r="B115" s="78"/>
+      <c r="C115" s="78"/>
+      <c r="D115" s="78"/>
+      <c r="E115" s="78"/>
+      <c r="F115" s="78"/>
+      <c r="G115" s="78"/>
+      <c r="H115" s="78"/>
+      <c r="I115" s="78"/>
+      <c r="J115" s="78"/>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A116" s="25">
         <v>1</v>
       </c>
-      <c r="B115" s="48" t="s">
+      <c r="B116" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C115" s="48" t="s">
+      <c r="C116" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="D115" s="24" t="s">
+      <c r="D116" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="E115" s="48" t="s">
+      <c r="E116" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F115" s="48" t="s">
+      <c r="F116" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="G115" s="48" t="s">
+      <c r="G116" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H115" s="48" t="s">
+      <c r="H116" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="I115" s="48" t="s">
+      <c r="I116" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="J115" s="48" t="s">
+      <c r="J116" s="48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="78" t="s">
+    <row r="117" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="78" t="s">
         <v>396</v>
       </c>
-      <c r="B116" s="78"/>
-      <c r="C116" s="78"/>
-      <c r="D116" s="78"/>
-      <c r="E116" s="78"/>
-      <c r="F116" s="78"/>
-      <c r="G116" s="78"/>
-      <c r="H116" s="78"/>
-      <c r="I116" s="78"/>
-      <c r="J116" s="78"/>
-    </row>
-    <row r="117" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="25">
-        <v>1</v>
-      </c>
-      <c r="B117" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C117" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="D117" s="51" t="s">
-        <v>398</v>
-      </c>
-      <c r="E117" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F117" s="51" t="s">
-        <v>399</v>
-      </c>
-      <c r="G117" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H117" s="51" t="s">
-        <v>400</v>
-      </c>
-      <c r="I117" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="J117" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="K117" s="58"/>
-      <c r="L117" s="58"/>
-      <c r="M117" s="58"/>
-      <c r="N117" s="58"/>
-      <c r="O117" s="58"/>
-      <c r="P117" s="58"/>
-      <c r="Q117" s="58"/>
-      <c r="R117" s="58"/>
-      <c r="S117" s="58"/>
-      <c r="T117" s="58"/>
-      <c r="U117" s="58"/>
-      <c r="V117" s="58"/>
-      <c r="W117" s="58"/>
-      <c r="X117" s="58"/>
+      <c r="B117" s="78"/>
+      <c r="C117" s="78"/>
+      <c r="D117" s="78"/>
+      <c r="E117" s="78"/>
+      <c r="F117" s="78"/>
+      <c r="G117" s="78"/>
+      <c r="H117" s="78"/>
+      <c r="I117" s="78"/>
+      <c r="J117" s="78"/>
     </row>
     <row r="118" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B118" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="48" t="s">
-        <v>517</v>
-      </c>
-      <c r="D118" s="63" t="s">
-        <v>537</v>
-      </c>
-      <c r="E118" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="D118" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="E118" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F118" s="48" t="s">
-        <v>401</v>
-      </c>
-      <c r="G118" s="48" t="s">
+      <c r="F118" s="51" t="s">
+        <v>399</v>
+      </c>
+      <c r="G118" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="H118" s="48" t="s">
+      <c r="H118" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="I118" s="48" t="s">
+      <c r="I118" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J118" s="48" t="s">
+      <c r="J118" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="K118" s="57"/>
+      <c r="K118" s="58"/>
       <c r="L118" s="58"/>
       <c r="M118" s="58"/>
       <c r="N118" s="58"/>
@@ -6916,22 +6911,22 @@
     </row>
     <row r="119" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B119" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="D119" s="64" t="s">
-        <v>406</v>
+        <v>517</v>
+      </c>
+      <c r="D119" s="63" t="s">
+        <v>537</v>
       </c>
       <c r="E119" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F119" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G119" s="48" t="s">
         <v>11</v>
@@ -6962,22 +6957,22 @@
     </row>
     <row r="120" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B120" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C120" s="48" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D120" s="64" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E120" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F120" s="48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G120" s="48" t="s">
         <v>11</v>
@@ -7008,22 +7003,22 @@
     </row>
     <row r="121" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B121" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C121" s="48" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D121" s="64" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E121" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F121" s="48" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G121" s="48" t="s">
         <v>11</v>
@@ -7054,22 +7049,22 @@
     </row>
     <row r="122" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B122" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="48" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D122" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E122" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F122" s="48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G122" s="48" t="s">
         <v>11</v>
@@ -7100,22 +7095,22 @@
     </row>
     <row r="123" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B123" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C123" s="48" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D123" s="64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E123" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F123" s="48" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G123" s="48" t="s">
         <v>11</v>
@@ -7144,84 +7139,84 @@
       <c r="W123" s="58"/>
       <c r="X123" s="58"/>
     </row>
-    <row r="124" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="78" t="s">
+    <row r="124" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="25">
+        <v>7</v>
+      </c>
+      <c r="B124" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="D124" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="E124" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="G124" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="I124" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J124" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K124" s="57"/>
+      <c r="L124" s="58"/>
+      <c r="M124" s="58"/>
+      <c r="N124" s="58"/>
+      <c r="O124" s="58"/>
+      <c r="P124" s="58"/>
+      <c r="Q124" s="58"/>
+      <c r="R124" s="58"/>
+      <c r="S124" s="58"/>
+      <c r="T124" s="58"/>
+      <c r="U124" s="58"/>
+      <c r="V124" s="58"/>
+      <c r="W124" s="58"/>
+      <c r="X124" s="58"/>
+    </row>
+    <row r="125" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="78" t="s">
         <v>413</v>
       </c>
-      <c r="B124" s="78"/>
-      <c r="C124" s="78"/>
-      <c r="D124" s="79"/>
-      <c r="E124" s="79"/>
-      <c r="F124" s="79"/>
-      <c r="G124" s="79"/>
-      <c r="H124" s="79"/>
-      <c r="I124" s="79"/>
-      <c r="J124" s="79"/>
-    </row>
-    <row r="125" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="59">
+      <c r="B125" s="78"/>
+      <c r="C125" s="78"/>
+      <c r="D125" s="79"/>
+      <c r="E125" s="79"/>
+      <c r="F125" s="79"/>
+      <c r="G125" s="79"/>
+      <c r="H125" s="79"/>
+      <c r="I125" s="79"/>
+      <c r="J125" s="79"/>
+    </row>
+    <row r="126" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="59">
         <v>11</v>
       </c>
-      <c r="B125" s="60" t="s">
+      <c r="B126" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C125" s="48" t="s">
+      <c r="C126" s="48" t="s">
         <v>414</v>
       </c>
-      <c r="D125" s="60" t="s">
+      <c r="D126" s="60" t="s">
         <v>510</v>
-      </c>
-      <c r="E125" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="G125" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H125" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="I125" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J125" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K125" s="61"/>
-      <c r="L125" s="61"/>
-      <c r="M125" s="61"/>
-      <c r="N125" s="61"/>
-      <c r="O125" s="61"/>
-      <c r="P125" s="61"/>
-      <c r="Q125" s="61"/>
-      <c r="R125" s="61"/>
-      <c r="S125" s="61"/>
-      <c r="T125" s="61"/>
-      <c r="U125" s="61"/>
-      <c r="V125" s="61"/>
-      <c r="W125" s="61"/>
-      <c r="X125" s="61"/>
-    </row>
-    <row r="126" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="26">
-        <v>2</v>
-      </c>
-      <c r="B126" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" s="48" t="s">
-        <v>417</v>
-      </c>
-      <c r="D126" s="27" t="s">
-        <v>418</v>
       </c>
       <c r="E126" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F126" s="48" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G126" s="27" t="s">
         <v>11</v>
@@ -7230,44 +7225,44 @@
         <v>416</v>
       </c>
       <c r="I126" s="27" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J126" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K126" s="58"/>
-      <c r="L126" s="58"/>
-      <c r="M126" s="58"/>
-      <c r="N126" s="58"/>
-      <c r="O126" s="58"/>
-      <c r="P126" s="58"/>
-      <c r="Q126" s="58"/>
-      <c r="R126" s="58"/>
-      <c r="S126" s="58"/>
-      <c r="T126" s="58"/>
-      <c r="U126" s="58"/>
-      <c r="V126" s="58"/>
-      <c r="W126" s="58"/>
-      <c r="X126" s="58"/>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K126" s="61"/>
+      <c r="L126" s="61"/>
+      <c r="M126" s="61"/>
+      <c r="N126" s="61"/>
+      <c r="O126" s="61"/>
+      <c r="P126" s="61"/>
+      <c r="Q126" s="61"/>
+      <c r="R126" s="61"/>
+      <c r="S126" s="61"/>
+      <c r="T126" s="61"/>
+      <c r="U126" s="61"/>
+      <c r="V126" s="61"/>
+      <c r="W126" s="61"/>
+      <c r="X126" s="61"/>
+    </row>
+    <row r="127" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B127" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C127" s="48" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D127" s="27" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E127" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F127" s="48" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G127" s="27" t="s">
         <v>11</v>
@@ -7276,7 +7271,7 @@
         <v>416</v>
       </c>
       <c r="I127" s="27" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J127" s="27" t="s">
         <v>13</v>
@@ -7296,24 +7291,24 @@
       <c r="W127" s="58"/>
       <c r="X127" s="58"/>
     </row>
-    <row r="128" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B128" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C128" s="48" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D128" s="27" t="s">
-        <v>511</v>
+        <v>421</v>
       </c>
       <c r="E128" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="48" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G128" s="27" t="s">
         <v>11</v>
@@ -7344,22 +7339,22 @@
     </row>
     <row r="129" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B129" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C129" s="48" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D129" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E129" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F129" s="48" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G129" s="27" t="s">
         <v>11</v>
@@ -7390,22 +7385,22 @@
     </row>
     <row r="130" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B130" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C130" s="48" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D130" s="27" t="s">
-        <v>428</v>
+        <v>512</v>
       </c>
       <c r="E130" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F130" s="48" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G130" s="27" t="s">
         <v>11</v>
@@ -7436,22 +7431,22 @@
     </row>
     <row r="131" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B131" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C131" s="48" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D131" s="27" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E131" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F131" s="48" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G131" s="27" t="s">
         <v>11</v>
@@ -7482,22 +7477,22 @@
     </row>
     <row r="132" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B132" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C132" s="48" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D132" s="27" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E132" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F132" s="48" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G132" s="27" t="s">
         <v>11</v>
@@ -7528,22 +7523,22 @@
     </row>
     <row r="133" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B133" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C133" s="48" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D133" s="27" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E133" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F133" s="48" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G133" s="27" t="s">
         <v>11</v>
@@ -7574,22 +7569,22 @@
     </row>
     <row r="134" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B134" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C134" s="48" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D134" s="27" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E134" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F134" s="48" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G134" s="27" t="s">
         <v>11</v>
@@ -7618,84 +7613,84 @@
       <c r="W134" s="58"/>
       <c r="X134" s="58"/>
     </row>
-    <row r="135" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="80" t="s">
+    <row r="135" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="26">
+        <v>10</v>
+      </c>
+      <c r="B135" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="D135" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="E135" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="G135" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="I135" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J135" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K135" s="58"/>
+      <c r="L135" s="58"/>
+      <c r="M135" s="58"/>
+      <c r="N135" s="58"/>
+      <c r="O135" s="58"/>
+      <c r="P135" s="58"/>
+      <c r="Q135" s="58"/>
+      <c r="R135" s="58"/>
+      <c r="S135" s="58"/>
+      <c r="T135" s="58"/>
+      <c r="U135" s="58"/>
+      <c r="V135" s="58"/>
+      <c r="W135" s="58"/>
+      <c r="X135" s="58"/>
+    </row>
+    <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="80" t="s">
         <v>442</v>
       </c>
-      <c r="B135" s="81"/>
-      <c r="C135" s="81"/>
-      <c r="D135" s="81"/>
-      <c r="E135" s="81"/>
-      <c r="F135" s="81"/>
-      <c r="G135" s="81"/>
-      <c r="H135" s="81"/>
-      <c r="I135" s="81"/>
-      <c r="J135" s="82"/>
-    </row>
-    <row r="136" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="25">
-        <v>1</v>
-      </c>
-      <c r="B136" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C136" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="D136" s="48" t="s">
-        <v>444</v>
-      </c>
-      <c r="E136" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F136" s="48" t="s">
-        <v>445</v>
-      </c>
-      <c r="G136" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H136" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="I136" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J136" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="K136" s="58"/>
-      <c r="L136" s="58"/>
-      <c r="M136" s="58"/>
-      <c r="N136" s="58"/>
-      <c r="O136" s="58"/>
-      <c r="P136" s="58"/>
-      <c r="Q136" s="58"/>
-      <c r="R136" s="58"/>
-      <c r="S136" s="58"/>
-      <c r="T136" s="58"/>
-      <c r="U136" s="58"/>
-      <c r="V136" s="58"/>
-      <c r="W136" s="58"/>
-      <c r="X136" s="58"/>
+      <c r="B136" s="81"/>
+      <c r="C136" s="81"/>
+      <c r="D136" s="81"/>
+      <c r="E136" s="81"/>
+      <c r="F136" s="81"/>
+      <c r="G136" s="81"/>
+      <c r="H136" s="81"/>
+      <c r="I136" s="81"/>
+      <c r="J136" s="82"/>
     </row>
     <row r="137" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B137" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C137" s="48" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D137" s="48" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E137" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F137" s="48" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G137" s="48" t="s">
         <v>11</v>
@@ -7726,22 +7721,22 @@
     </row>
     <row r="138" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B138" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C138" s="48" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D138" s="48" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E138" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F138" s="48" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G138" s="48" t="s">
         <v>11</v>
@@ -7772,22 +7767,22 @@
     </row>
     <row r="139" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B139" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C139" s="48" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D139" s="48" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="E139" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F139" s="48" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G139" s="48" t="s">
         <v>11</v>
@@ -7801,25 +7796,39 @@
       <c r="J139" s="48" t="s">
         <v>13</v>
       </c>
+      <c r="K139" s="58"/>
+      <c r="L139" s="58"/>
+      <c r="M139" s="58"/>
+      <c r="N139" s="58"/>
+      <c r="O139" s="58"/>
+      <c r="P139" s="58"/>
+      <c r="Q139" s="58"/>
+      <c r="R139" s="58"/>
+      <c r="S139" s="58"/>
+      <c r="T139" s="58"/>
+      <c r="U139" s="58"/>
+      <c r="V139" s="58"/>
+      <c r="W139" s="58"/>
+      <c r="X139" s="58"/>
     </row>
     <row r="140" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B140" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C140" s="48" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D140" s="48" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="E140" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F140" s="48" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G140" s="48" t="s">
         <v>11</v>
@@ -7833,39 +7842,25 @@
       <c r="J140" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="K140" s="58"/>
-      <c r="L140" s="58"/>
-      <c r="M140" s="58"/>
-      <c r="N140" s="58"/>
-      <c r="O140" s="58"/>
-      <c r="P140" s="58"/>
-      <c r="Q140" s="58"/>
-      <c r="R140" s="58"/>
-      <c r="S140" s="58"/>
-      <c r="T140" s="58"/>
-      <c r="U140" s="58"/>
-      <c r="V140" s="58"/>
-      <c r="W140" s="58"/>
-      <c r="X140" s="58"/>
     </row>
     <row r="141" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B141" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C141" s="48" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D141" s="48" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E141" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F141" s="48" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G141" s="48" t="s">
         <v>11</v>
@@ -7896,22 +7891,22 @@
     </row>
     <row r="142" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B142" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C142" s="48" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D142" s="48" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E142" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F142" s="48" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G142" s="48" t="s">
         <v>11</v>
@@ -7942,22 +7937,22 @@
     </row>
     <row r="143" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B143" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C143" s="48" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D143" s="48" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E143" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F143" s="48" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G143" s="48" t="s">
         <v>11</v>
@@ -7988,22 +7983,22 @@
     </row>
     <row r="144" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B144" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C144" s="48" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D144" s="48" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E144" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F144" s="48" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G144" s="48" t="s">
         <v>11</v>
@@ -8034,22 +8029,22 @@
     </row>
     <row r="145" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B145" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C145" s="48" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D145" s="48" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E145" s="48" t="s">
         <v>14</v>
       </c>
       <c r="F145" s="48" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G145" s="48" t="s">
         <v>11</v>
@@ -8078,143 +8073,141 @@
       <c r="W145" s="58"/>
       <c r="X145" s="58"/>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A146" s="78" t="s">
+    <row r="146" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="25">
+        <v>10</v>
+      </c>
+      <c r="B146" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="D146" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="E146" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" s="48" t="s">
+        <v>472</v>
+      </c>
+      <c r="G146" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H146" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="I146" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J146" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K146" s="58"/>
+      <c r="L146" s="58"/>
+      <c r="M146" s="58"/>
+      <c r="N146" s="58"/>
+      <c r="O146" s="58"/>
+      <c r="P146" s="58"/>
+      <c r="Q146" s="58"/>
+      <c r="R146" s="58"/>
+      <c r="S146" s="58"/>
+      <c r="T146" s="58"/>
+      <c r="U146" s="58"/>
+      <c r="V146" s="58"/>
+      <c r="W146" s="58"/>
+      <c r="X146" s="58"/>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A147" s="78" t="s">
         <v>514</v>
       </c>
-      <c r="B146" s="78"/>
-      <c r="C146" s="78"/>
-      <c r="D146" s="78"/>
-      <c r="E146" s="78"/>
-      <c r="F146" s="78"/>
-      <c r="G146" s="78"/>
-      <c r="H146" s="78"/>
-      <c r="I146" s="78"/>
-      <c r="J146" s="78"/>
-    </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A147" s="25">
+      <c r="B147" s="78"/>
+      <c r="C147" s="78"/>
+      <c r="D147" s="78"/>
+      <c r="E147" s="78"/>
+      <c r="F147" s="78"/>
+      <c r="G147" s="78"/>
+      <c r="H147" s="78"/>
+      <c r="I147" s="78"/>
+      <c r="J147" s="78"/>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A148" s="25">
         <v>1</v>
       </c>
-      <c r="B147" s="48" t="s">
+      <c r="B148" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C147" s="48" t="s">
+      <c r="C148" s="48" t="s">
         <v>515</v>
       </c>
-      <c r="D147" s="24" t="s">
+      <c r="D148" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="E147" s="48" t="s">
+      <c r="E148" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F147" s="48" t="s">
+      <c r="F148" s="48" t="s">
         <v>513</v>
       </c>
-      <c r="G147" s="48" t="s">
+      <c r="G148" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H147" s="48" t="s">
+      <c r="H148" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="I147" s="48" t="s">
+      <c r="I148" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="J147" s="48" t="s">
+      <c r="J148" s="48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="78" t="s">
+    <row r="149" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="78" t="s">
         <v>540</v>
       </c>
-      <c r="B148" s="78"/>
-      <c r="C148" s="78"/>
-      <c r="D148" s="78"/>
-      <c r="E148" s="78"/>
-      <c r="F148" s="78"/>
-      <c r="G148" s="78"/>
-      <c r="H148" s="78"/>
-      <c r="I148" s="78"/>
-      <c r="J148" s="78"/>
-    </row>
-    <row r="149" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="65">
+      <c r="B149" s="78"/>
+      <c r="C149" s="78"/>
+      <c r="D149" s="78"/>
+      <c r="E149" s="78"/>
+      <c r="F149" s="78"/>
+      <c r="G149" s="78"/>
+      <c r="H149" s="78"/>
+      <c r="I149" s="78"/>
+      <c r="J149" s="78"/>
+    </row>
+    <row r="150" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="65">
         <v>1</v>
       </c>
-      <c r="B149" s="66" t="s">
+      <c r="B150" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C149" s="67" t="s">
+      <c r="C150" s="67" t="s">
         <v>541</v>
       </c>
-      <c r="D149" s="66" t="s">
+      <c r="D150" s="66" t="s">
         <v>542</v>
       </c>
-      <c r="E149" s="66" t="s">
+      <c r="E150" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="F149" s="67" t="s">
+      <c r="F150" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="G149" s="66" t="s">
+      <c r="G150" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="H149" s="66" t="s">
+      <c r="H150" s="66" t="s">
         <v>544</v>
       </c>
-      <c r="I149" s="66" t="s">
+      <c r="I150" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="J149" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="K149" s="58"/>
-      <c r="L149" s="58"/>
-      <c r="M149" s="58"/>
-      <c r="N149" s="58"/>
-      <c r="O149" s="58"/>
-      <c r="P149" s="58"/>
-      <c r="Q149" s="58"/>
-      <c r="R149" s="58"/>
-      <c r="S149" s="58"/>
-      <c r="T149" s="58"/>
-      <c r="U149" s="58"/>
-      <c r="V149" s="58"/>
-      <c r="W149" s="58"/>
-      <c r="X149" s="58"/>
-      <c r="Y149" s="58"/>
-      <c r="Z149" s="58"/>
-    </row>
-    <row r="150" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="68">
-        <v>2</v>
-      </c>
-      <c r="B150" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C150" s="70" t="s">
-        <v>545</v>
-      </c>
-      <c r="D150" s="69" t="s">
-        <v>546</v>
-      </c>
-      <c r="E150" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F150" s="70" t="s">
-        <v>547</v>
-      </c>
-      <c r="G150" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="H150" s="69" t="s">
-        <v>544</v>
-      </c>
-      <c r="I150" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="J150" s="69" t="s">
+      <c r="J150" s="66" t="s">
         <v>13</v>
       </c>
       <c r="K150" s="58"/>
@@ -8236,22 +8229,22 @@
     </row>
     <row r="151" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B151" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C151" s="70" t="s">
-        <v>548</v>
-      </c>
-      <c r="D151" s="71" t="s">
-        <v>549</v>
+        <v>545</v>
+      </c>
+      <c r="D151" s="69" t="s">
+        <v>546</v>
       </c>
       <c r="E151" s="69" t="s">
         <v>14</v>
       </c>
       <c r="F151" s="70" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G151" s="69" t="s">
         <v>11</v>
@@ -8284,22 +8277,22 @@
     </row>
     <row r="152" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B152" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C152" s="70" t="s">
-        <v>551</v>
-      </c>
-      <c r="D152" s="69" t="s">
-        <v>552</v>
+        <v>548</v>
+      </c>
+      <c r="D152" s="71" t="s">
+        <v>549</v>
       </c>
       <c r="E152" s="69" t="s">
         <v>14</v>
       </c>
       <c r="F152" s="70" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G152" s="69" t="s">
         <v>11</v>
@@ -8332,22 +8325,22 @@
     </row>
     <row r="153" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B153" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C153" s="70" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D153" s="69" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="E153" s="69" t="s">
         <v>14</v>
       </c>
       <c r="F153" s="70" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G153" s="69" t="s">
         <v>11</v>
@@ -8380,22 +8373,22 @@
     </row>
     <row r="154" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="68">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B154" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C154" s="70" t="s">
-        <v>556</v>
-      </c>
-      <c r="D154" s="71" t="s">
-        <v>593</v>
+        <v>554</v>
+      </c>
+      <c r="D154" s="69" t="s">
+        <v>592</v>
       </c>
       <c r="E154" s="69" t="s">
         <v>14</v>
       </c>
       <c r="F154" s="70" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G154" s="69" t="s">
         <v>11</v>
@@ -8428,22 +8421,22 @@
     </row>
     <row r="155" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B155" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C155" s="70" t="s">
-        <v>558</v>
-      </c>
-      <c r="D155" s="69" t="s">
-        <v>594</v>
+        <v>556</v>
+      </c>
+      <c r="D155" s="71" t="s">
+        <v>593</v>
       </c>
       <c r="E155" s="69" t="s">
         <v>14</v>
       </c>
       <c r="F155" s="70" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G155" s="69" t="s">
         <v>11</v>
@@ -8476,22 +8469,22 @@
     </row>
     <row r="156" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B156" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C156" s="70" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D156" s="69" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E156" s="69" t="s">
         <v>14</v>
       </c>
       <c r="F156" s="70" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G156" s="69" t="s">
         <v>11</v>
@@ -8523,34 +8516,34 @@
       <c r="Z156" s="58"/>
     </row>
     <row r="157" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="72">
-        <v>9</v>
-      </c>
-      <c r="B157" s="74" t="s">
+      <c r="A157" s="68">
+        <v>8</v>
+      </c>
+      <c r="B157" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C157" s="75" t="s">
-        <v>562</v>
-      </c>
-      <c r="D157" s="74" t="s">
-        <v>565</v>
-      </c>
-      <c r="E157" s="74" t="s">
+      <c r="C157" s="70" t="s">
+        <v>560</v>
+      </c>
+      <c r="D157" s="69" t="s">
+        <v>595</v>
+      </c>
+      <c r="E157" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="F157" s="75" t="s">
-        <v>563</v>
-      </c>
-      <c r="G157" s="74" t="s">
+      <c r="F157" s="70" t="s">
+        <v>561</v>
+      </c>
+      <c r="G157" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H157" s="74" t="s">
+      <c r="H157" s="69" t="s">
         <v>544</v>
       </c>
-      <c r="I157" s="74" t="s">
+      <c r="I157" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J157" s="74" t="s">
+      <c r="J157" s="69" t="s">
         <v>13</v>
       </c>
       <c r="K157" s="58"/>
@@ -8571,23 +8564,23 @@
       <c r="Z157" s="58"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="73">
-        <v>10</v>
+      <c r="A158" s="72">
+        <v>9</v>
       </c>
       <c r="B158" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C158" s="75" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D158" s="74" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E158" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F158" s="75" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G158" s="74" t="s">
         <v>11</v>
@@ -8619,23 +8612,23 @@
       <c r="Z158" s="58"/>
     </row>
     <row r="159" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="72">
-        <v>11</v>
+      <c r="A159" s="73">
+        <v>10</v>
       </c>
       <c r="B159" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C159" s="75" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D159" s="74" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E159" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F159" s="75" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G159" s="74" t="s">
         <v>11</v>
@@ -8667,23 +8660,23 @@
       <c r="Z159" s="58"/>
     </row>
     <row r="160" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="73">
-        <v>12</v>
+      <c r="A160" s="72">
+        <v>11</v>
       </c>
       <c r="B160" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C160" s="75" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D160" s="74" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E160" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F160" s="75" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G160" s="74" t="s">
         <v>11</v>
@@ -8715,23 +8708,23 @@
       <c r="Z160" s="58"/>
     </row>
     <row r="161" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="72">
-        <v>13</v>
+      <c r="A161" s="73">
+        <v>12</v>
       </c>
       <c r="B161" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C161" s="75" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D161" s="74" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E161" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F161" s="75" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G161" s="74" t="s">
         <v>11</v>
@@ -8763,23 +8756,23 @@
       <c r="Z161" s="58"/>
     </row>
     <row r="162" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="73">
-        <v>14</v>
+      <c r="A162" s="72">
+        <v>13</v>
       </c>
       <c r="B162" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C162" s="75" t="s">
-        <v>576</v>
-      </c>
-      <c r="D162" s="76" t="s">
-        <v>580</v>
+        <v>573</v>
+      </c>
+      <c r="D162" s="74" t="s">
+        <v>577</v>
       </c>
       <c r="E162" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F162" s="75" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G162" s="74" t="s">
         <v>11</v>
@@ -8811,23 +8804,23 @@
       <c r="Z162" s="58"/>
     </row>
     <row r="163" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="72">
-        <v>15</v>
+      <c r="A163" s="73">
+        <v>14</v>
       </c>
       <c r="B163" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C163" s="75" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D163" s="76" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="E163" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F163" s="75" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G163" s="74" t="s">
         <v>11</v>
@@ -8859,23 +8852,23 @@
       <c r="Z163" s="58"/>
     </row>
     <row r="164" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="73">
-        <v>16</v>
+      <c r="A164" s="72">
+        <v>15</v>
       </c>
       <c r="B164" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C164" s="75" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D164" s="76" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="E164" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F164" s="75" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G164" s="74" t="s">
         <v>11</v>
@@ -8907,23 +8900,23 @@
       <c r="Z164" s="58"/>
     </row>
     <row r="165" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="72">
-        <v>17</v>
+      <c r="A165" s="73">
+        <v>16</v>
       </c>
       <c r="B165" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C165" s="75" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D165" s="76" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E165" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F165" s="75" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G165" s="74" t="s">
         <v>11</v>
@@ -8955,23 +8948,23 @@
       <c r="Z165" s="58"/>
     </row>
     <row r="166" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="73">
-        <v>18</v>
+      <c r="A166" s="72">
+        <v>17</v>
       </c>
       <c r="B166" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C166" s="75" t="s">
-        <v>586</v>
-      </c>
-      <c r="D166" s="77" t="s">
-        <v>590</v>
+        <v>584</v>
+      </c>
+      <c r="D166" s="76" t="s">
+        <v>589</v>
       </c>
       <c r="E166" s="74" t="s">
         <v>14</v>
       </c>
       <c r="F166" s="75" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G166" s="74" t="s">
         <v>11</v>
@@ -9002,20 +8995,68 @@
       <c r="Y166" s="58"/>
       <c r="Z166" s="58"/>
     </row>
+    <row r="167" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="73">
+        <v>18</v>
+      </c>
+      <c r="B167" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" s="75" t="s">
+        <v>586</v>
+      </c>
+      <c r="D167" s="77" t="s">
+        <v>590</v>
+      </c>
+      <c r="E167" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" s="75" t="s">
+        <v>588</v>
+      </c>
+      <c r="G167" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H167" s="74" t="s">
+        <v>544</v>
+      </c>
+      <c r="I167" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J167" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="K167" s="58"/>
+      <c r="L167" s="58"/>
+      <c r="M167" s="58"/>
+      <c r="N167" s="58"/>
+      <c r="O167" s="58"/>
+      <c r="P167" s="58"/>
+      <c r="Q167" s="58"/>
+      <c r="R167" s="58"/>
+      <c r="S167" s="58"/>
+      <c r="T167" s="58"/>
+      <c r="U167" s="58"/>
+      <c r="V167" s="58"/>
+      <c r="W167" s="58"/>
+      <c r="X167" s="58"/>
+      <c r="Y167" s="58"/>
+      <c r="Z167" s="58"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A148:J148"/>
-    <mergeCell ref="A146:J146"/>
-    <mergeCell ref="A124:J124"/>
-    <mergeCell ref="A135:J135"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="A147:J147"/>
+    <mergeCell ref="A125:J125"/>
+    <mergeCell ref="A136:J136"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A37:J37"/>
     <mergeCell ref="A51:J51"/>
     <mergeCell ref="A62:J62"/>
     <mergeCell ref="A74:J74"/>
-    <mergeCell ref="A116:J116"/>
-    <mergeCell ref="A114:J114"/>
-    <mergeCell ref="A112:J112"/>
+    <mergeCell ref="A117:J117"/>
+    <mergeCell ref="A115:J115"/>
+    <mergeCell ref="A113:J113"/>
     <mergeCell ref="A102:J102"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -9114,10 +9155,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:U165"/>
+  <dimension ref="A1:U166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16015,7 +16056,7 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
-        <v>380</v>
+        <v>602</v>
       </c>
       <c r="B110" s="48" t="s">
         <v>22</v>
@@ -16080,7 +16121,7 @@
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="48" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B111" s="48" t="s">
         <v>22</v>
@@ -16145,7 +16186,7 @@
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="48" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B112" s="48" t="s">
         <v>22</v>
@@ -16210,7 +16251,7 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B113" s="48" t="s">
         <v>22</v>
@@ -16275,7 +16316,7 @@
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B114" s="48" t="s">
         <v>22</v>
@@ -16340,7 +16381,7 @@
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B115" s="48" t="s">
         <v>22</v>
@@ -16405,7 +16446,7 @@
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B116" s="48" t="s">
         <v>22</v>
@@ -16470,7 +16511,7 @@
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B117" s="48" t="s">
         <v>22</v>
@@ -16535,7 +16576,7 @@
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B118" s="48" t="s">
         <v>22</v>
@@ -16600,167 +16641,167 @@
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="B119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U119" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A120" s="48" t="s">
         <v>409</v>
       </c>
-      <c r="B119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T119" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U119" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A120" s="62" t="s">
+      <c r="B120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U120" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A121" s="62" t="s">
         <v>415</v>
       </c>
-      <c r="B120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C120" s="36" t="s">
+      <c r="B121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="D120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F120" s="48" t="s">
+      <c r="D121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F121" s="48" t="s">
         <v>495</v>
       </c>
-      <c r="G120" s="49" t="s">
+      <c r="G121" s="49" t="s">
         <v>496</v>
       </c>
-      <c r="H120" s="48" t="s">
+      <c r="H121" s="48" t="s">
         <v>497</v>
       </c>
-      <c r="I120" s="48" t="s">
+      <c r="I121" s="48" t="s">
         <v>498</v>
       </c>
-      <c r="J120" s="36" t="s">
+      <c r="J121" s="36" t="s">
         <v>478</v>
       </c>
-      <c r="K120" s="48" t="s">
+      <c r="K121" s="48" t="s">
         <v>499</v>
-      </c>
-      <c r="L120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T120" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U120" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A121" s="48" t="s">
-        <v>419</v>
-      </c>
-      <c r="B121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J121" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K121" s="48" t="s">
-        <v>22</v>
       </c>
       <c r="L121" s="48" t="s">
         <v>22</v>
@@ -16795,102 +16836,102 @@
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="B122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U122" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A123" s="48" t="s">
         <v>422</v>
       </c>
-      <c r="B122" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C122" s="36" t="s">
+      <c r="B123" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="D122" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E122" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F122" s="48" t="s">
+      <c r="D123" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F123" s="48" t="s">
         <v>475</v>
       </c>
-      <c r="G122" s="49" t="s">
+      <c r="G123" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="H122" s="48" t="s">
+      <c r="H123" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="I122" s="48" t="s">
+      <c r="I123" s="48" t="s">
         <v>477</v>
       </c>
-      <c r="J122" s="36" t="s">
+      <c r="J123" s="36" t="s">
         <v>478</v>
       </c>
-      <c r="K122" s="48" t="s">
+      <c r="K123" s="48" t="s">
         <v>479</v>
-      </c>
-      <c r="L122" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M122" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N122" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O122" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P122" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q122" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R122" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S122" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T122" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U122" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A123" s="48" t="s">
-        <v>424</v>
-      </c>
-      <c r="B123" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C123" s="36" t="s">
-        <v>597</v>
-      </c>
-      <c r="D123" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E123" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F123" s="48" t="s">
-        <v>481</v>
-      </c>
-      <c r="G123" s="49" t="s">
-        <v>482</v>
-      </c>
-      <c r="H123" s="48" t="s">
-        <v>483</v>
-      </c>
-      <c r="I123" s="48" t="s">
-        <v>500</v>
-      </c>
-      <c r="J123" s="36" t="s">
-        <v>501</v>
-      </c>
-      <c r="K123" s="48" t="s">
-        <v>502</v>
       </c>
       <c r="L123" s="48" t="s">
         <v>22</v>
@@ -16925,13 +16966,13 @@
     </row>
     <row r="124" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A124" s="48" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B124" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C124" s="36" t="s">
-        <v>480</v>
+        <v>597</v>
       </c>
       <c r="D124" s="48" t="s">
         <v>22</v>
@@ -16940,7 +16981,7 @@
         <v>22</v>
       </c>
       <c r="F124" s="48" t="s">
-        <v>29</v>
+        <v>481</v>
       </c>
       <c r="G124" s="49" t="s">
         <v>482</v>
@@ -16949,78 +16990,78 @@
         <v>483</v>
       </c>
       <c r="I124" s="48" t="s">
+        <v>500</v>
+      </c>
+      <c r="J124" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="K124" s="48" t="s">
+        <v>502</v>
+      </c>
+      <c r="L124" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M124" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N124" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O124" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P124" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q124" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R124" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S124" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T124" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U124" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A125" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="B125" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="D125" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="H125" s="48" t="s">
+        <v>483</v>
+      </c>
+      <c r="I125" s="48" t="s">
         <v>484</v>
       </c>
-      <c r="J124" s="36" t="s">
+      <c r="J125" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="K124" s="48" t="s">
+      <c r="K125" s="48" t="s">
         <v>486</v>
-      </c>
-      <c r="L124" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M124" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N124" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O124" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P124" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q124" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R124" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S124" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T124" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U124" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A125" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="B125" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C125" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="D125" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E125" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F125" s="48" t="s">
-        <v>504</v>
-      </c>
-      <c r="G125" s="49" t="s">
-        <v>505</v>
-      </c>
-      <c r="H125" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I125" s="48" t="s">
-        <v>506</v>
-      </c>
-      <c r="J125" s="36" t="s">
-        <v>507</v>
-      </c>
-      <c r="K125" s="48" t="s">
-        <v>502</v>
       </c>
       <c r="L125" s="48" t="s">
         <v>22</v>
@@ -17055,13 +17096,13 @@
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="48" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B126" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C126" s="48" t="s">
-        <v>22</v>
+      <c r="C126" s="36" t="s">
+        <v>503</v>
       </c>
       <c r="D126" s="48" t="s">
         <v>22</v>
@@ -17070,22 +17111,22 @@
         <v>22</v>
       </c>
       <c r="F126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" s="48" t="s">
-        <v>22</v>
+        <v>504</v>
+      </c>
+      <c r="G126" s="49" t="s">
+        <v>505</v>
       </c>
       <c r="H126" s="48" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I126" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J126" s="48" t="s">
-        <v>22</v>
+        <v>506</v>
+      </c>
+      <c r="J126" s="36" t="s">
+        <v>507</v>
       </c>
       <c r="K126" s="48" t="s">
-        <v>22</v>
+        <v>502</v>
       </c>
       <c r="L126" s="48" t="s">
         <v>22</v>
@@ -17120,167 +17161,167 @@
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="B127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U127" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A128" s="48" t="s">
         <v>435</v>
       </c>
-      <c r="B127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T127" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U127" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A128" s="48" t="s">
+      <c r="B128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U128" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A129" s="48" t="s">
         <v>438</v>
       </c>
-      <c r="B128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C128" s="36" t="s">
+      <c r="B129" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="D128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F128" s="48" t="s">
+      <c r="D129" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="G128" s="49" t="s">
+      <c r="G129" s="49" t="s">
         <v>482</v>
       </c>
-      <c r="H128" s="48" t="s">
+      <c r="H129" s="48" t="s">
         <v>483</v>
       </c>
-      <c r="I128" s="48" t="s">
+      <c r="I129" s="48" t="s">
         <v>484</v>
       </c>
-      <c r="J128" s="36" t="s">
+      <c r="J129" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="K128" s="48" t="s">
+      <c r="K129" s="48" t="s">
         <v>486</v>
-      </c>
-      <c r="L128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T128" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U128" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A129" s="48" t="s">
-        <v>441</v>
-      </c>
-      <c r="B129" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C129" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D129" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E129" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F129" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H129" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I129" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J129" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K129" s="48" t="s">
-        <v>22</v>
       </c>
       <c r="L129" s="48" t="s">
         <v>22</v>
@@ -17315,7 +17356,7 @@
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="B130" s="48" t="s">
         <v>22</v>
@@ -17380,7 +17421,7 @@
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="48" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B131" s="48" t="s">
         <v>22</v>
@@ -17445,7 +17486,7 @@
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B132" s="48" t="s">
         <v>22</v>
@@ -17505,12 +17546,12 @@
         <v>22</v>
       </c>
       <c r="U132" s="48" t="s">
-        <v>493</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B133" s="48" t="s">
         <v>22</v>
@@ -17570,12 +17611,12 @@
         <v>22</v>
       </c>
       <c r="U133" s="48" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="48" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B134" s="48" t="s">
         <v>22</v>
@@ -17635,12 +17676,12 @@
         <v>22</v>
       </c>
       <c r="U134" s="48" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B135" s="48" t="s">
         <v>22</v>
@@ -17648,8 +17689,8 @@
       <c r="C135" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D135" s="49" t="s">
-        <v>142</v>
+      <c r="D135" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="E135" s="48" t="s">
         <v>22</v>
@@ -17700,12 +17741,12 @@
         <v>22</v>
       </c>
       <c r="U135" s="48" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="48" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B136" s="48" t="s">
         <v>22</v>
@@ -17713,8 +17754,8 @@
       <c r="C136" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="48" t="s">
-        <v>22</v>
+      <c r="D136" s="49" t="s">
+        <v>142</v>
       </c>
       <c r="E136" s="48" t="s">
         <v>22</v>
@@ -17765,12 +17806,12 @@
         <v>22</v>
       </c>
       <c r="U136" s="48" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="48" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="B137" s="48" t="s">
         <v>22</v>
@@ -17830,12 +17871,12 @@
         <v>22</v>
       </c>
       <c r="U137" s="48" t="s">
-        <v>22</v>
+        <v>490</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="48" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B138" s="48" t="s">
         <v>22</v>
@@ -17900,7 +17941,7 @@
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="48" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B139" s="48" t="s">
         <v>22</v>
@@ -17965,7 +18006,7 @@
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="48" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B140" s="48" t="s">
         <v>22</v>
@@ -18025,12 +18066,12 @@
         <v>22</v>
       </c>
       <c r="U140" s="48" t="s">
-        <v>535</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="48" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B141" s="48" t="s">
         <v>22</v>
@@ -18090,12 +18131,12 @@
         <v>22</v>
       </c>
       <c r="U141" s="48" t="s">
-        <v>487</v>
+        <v>535</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="48" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B142" s="48" t="s">
         <v>22</v>
@@ -18155,12 +18196,12 @@
         <v>22</v>
       </c>
       <c r="U142" s="48" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="48" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B143" s="48" t="s">
         <v>22</v>
@@ -18220,1182 +18261,1182 @@
         <v>22</v>
       </c>
       <c r="U143" s="48" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="B144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T144" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U144" s="48" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A145" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="B144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T144" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U144" s="48" t="s">
+      <c r="B145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T145" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U145" s="48" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="48" t="s">
+    <row r="146" spans="1:21" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="48" t="s">
         <v>469</v>
       </c>
-      <c r="B145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T145" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U145" s="48" t="s">
+      <c r="B146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T146" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U146" s="48" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="48" t="s">
+    <row r="147" spans="1:21" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="B146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T146" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U146" s="48" t="s">
+      <c r="B147" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E147" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F147" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H147" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I147" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J147" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K147" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L147" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M147" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N147" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O147" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P147" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q147" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R147" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S147" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T147" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U147" s="48" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="48" t="s">
+    <row r="148" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="48" t="s">
         <v>513</v>
       </c>
-      <c r="B147" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C147" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D147" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E147" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F147" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H147" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I147" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J147" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K147" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L147" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M147" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N147" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O147" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P147" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q147" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R147" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S147" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T147" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U147" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="67" t="s">
+      <c r="B148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U148" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="B148" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C148" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D148" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E148" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F148" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G148" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H148" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I148" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J148" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K148" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L148" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M148" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N148" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O148" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P148" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q148" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R148" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S148" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T148" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U148" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="149" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="70" t="s">
+      <c r="B149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U149" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="70" t="s">
         <v>547</v>
       </c>
-      <c r="B149" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C149" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D149" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E149" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F149" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H149" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I149" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J149" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K149" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L149" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M149" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N149" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O149" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P149" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q149" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R149" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S149" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T149" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U149" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="150" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="67" t="s">
+      <c r="B150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U150" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="67" t="s">
         <v>550</v>
       </c>
-      <c r="B150" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C150" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D150" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E150" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F150" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G150" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H150" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I150" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J150" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K150" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L150" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M150" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N150" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O150" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P150" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q150" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R150" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S150" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T150" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U150" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="151" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="70" t="s">
+      <c r="B151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U151" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="70" t="s">
         <v>553</v>
       </c>
-      <c r="B151" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C151" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D151" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E151" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F151" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H151" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I151" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J151" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K151" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L151" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M151" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N151" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O151" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P151" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q151" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R151" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S151" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T151" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U151" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="152" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="67" t="s">
+      <c r="B152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U152" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="67" t="s">
         <v>555</v>
       </c>
-      <c r="B152" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C152" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D152" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E152" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F152" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G152" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H152" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I152" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J152" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K152" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L152" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M152" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N152" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O152" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P152" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q152" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R152" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S152" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T152" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U152" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="153" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="70" t="s">
+      <c r="B153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U153" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="70" t="s">
         <v>557</v>
       </c>
-      <c r="B153" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C153" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D153" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E153" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F153" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G153" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H153" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I153" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J153" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K153" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L153" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M153" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N153" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O153" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P153" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q153" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R153" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S153" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T153" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U153" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="154" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="67" t="s">
+      <c r="B154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U154" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="67" t="s">
         <v>559</v>
       </c>
-      <c r="B154" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C154" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D154" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E154" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F154" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G154" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H154" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I154" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J154" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K154" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L154" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M154" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N154" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O154" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P154" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q154" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R154" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S154" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T154" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U154" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="155" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="70" t="s">
+      <c r="B155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U155" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="70" t="s">
         <v>561</v>
       </c>
-      <c r="B155" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C155" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D155" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E155" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F155" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G155" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H155" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I155" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J155" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K155" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L155" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M155" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N155" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O155" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P155" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q155" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R155" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S155" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T155" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U155" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="156" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="67" t="s">
+      <c r="B156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U156" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="67" t="s">
         <v>563</v>
       </c>
-      <c r="B156" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C156" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D156" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E156" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F156" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G156" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H156" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I156" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J156" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K156" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L156" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M156" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N156" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O156" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P156" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q156" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R156" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S156" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T156" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U156" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="157" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="70" t="s">
+      <c r="B157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U157" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="70" t="s">
         <v>566</v>
       </c>
-      <c r="B157" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C157" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D157" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E157" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F157" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G157" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H157" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I157" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J157" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K157" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L157" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M157" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N157" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O157" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P157" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q157" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R157" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S157" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T157" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U157" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="158" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="67" t="s">
+      <c r="B158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U158" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="67" t="s">
         <v>569</v>
       </c>
-      <c r="B158" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C158" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D158" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E158" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F158" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G158" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H158" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I158" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J158" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K158" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L158" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M158" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N158" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O158" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P158" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q158" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R158" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S158" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T158" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U158" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="159" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="70" t="s">
+      <c r="B159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U159" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="70" t="s">
         <v>572</v>
       </c>
-      <c r="B159" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C159" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D159" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E159" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F159" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G159" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H159" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I159" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J159" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K159" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L159" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M159" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N159" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O159" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P159" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q159" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R159" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S159" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T159" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U159" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="160" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="67" t="s">
+      <c r="B160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U160" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="67" t="s">
         <v>575</v>
       </c>
-      <c r="B160" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C160" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D160" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E160" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F160" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G160" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H160" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I160" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J160" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K160" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L160" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M160" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N160" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O160" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P160" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q160" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R160" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S160" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T160" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U160" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="161" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="70" t="s">
+      <c r="B161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U161" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="70" t="s">
         <v>578</v>
-      </c>
-      <c r="B161" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C161" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D161" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E161" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F161" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G161" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H161" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I161" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J161" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K161" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L161" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M161" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N161" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O161" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P161" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q161" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R161" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S161" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T161" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U161" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="162" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="67" t="s">
-        <v>581</v>
       </c>
       <c r="B162" s="48" t="s">
         <v>22</v>
@@ -19460,7 +19501,7 @@
     </row>
     <row r="163" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="67" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B163" s="48" t="s">
         <v>22</v>
@@ -19525,131 +19566,196 @@
     </row>
     <row r="164" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="67" t="s">
+        <v>583</v>
+      </c>
+      <c r="B164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U164" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="67" t="s">
         <v>585</v>
       </c>
-      <c r="B164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="I164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="J164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="L164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T164" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U164" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="165" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="67" t="s">
+      <c r="B165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U165" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="67" t="s">
         <v>588</v>
       </c>
-      <c r="B165" s="48" t="s">
+      <c r="B166" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C165" s="36" t="s">
+      <c r="C166" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="D165" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E165" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F165" s="48" t="s">
+      <c r="D166" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F166" s="48" t="s">
         <v>481</v>
       </c>
-      <c r="G165" s="49" t="s">
+      <c r="G166" s="49" t="s">
         <v>482</v>
       </c>
-      <c r="H165" s="48" t="s">
+      <c r="H166" s="48" t="s">
         <v>483</v>
       </c>
-      <c r="I165" s="48" t="s">
+      <c r="I166" s="48" t="s">
         <v>500</v>
       </c>
-      <c r="J165" s="36" t="s">
+      <c r="J166" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="K165" s="48" t="s">
+      <c r="K166" s="48" t="s">
         <v>502</v>
       </c>
-      <c r="L165" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M165" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N165" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="O165" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P165" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q165" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="R165" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S165" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="T165" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="U165" s="48" t="s">
+      <c r="L166" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M166" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N166" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O166" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P166" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q166" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R166" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S166" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="T166" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U166" s="48" t="s">
         <v>22</v>
       </c>
     </row>
@@ -19769,14 +19875,14 @@
     <hyperlink ref="C17" r:id="rId7" xr:uid="{6F82EE81-6932-4BED-AC6D-A978AE746C24}"/>
     <hyperlink ref="C32" r:id="rId8" display="mailto:8956sdf5985df@6@7" xr:uid="{2B87FF58-DF60-407D-8810-934B25AE33D1}"/>
     <hyperlink ref="D23" r:id="rId9" xr:uid="{4001AA3D-FA2B-4237-A3F6-CC0631BC40D8}"/>
-    <hyperlink ref="G122" r:id="rId10" xr:uid="{5E6B6B1A-B5E2-4B87-A212-43CBE728E697}"/>
-    <hyperlink ref="G124" r:id="rId11" xr:uid="{21D57B30-A62F-4B04-8FC4-754A1492DE18}"/>
-    <hyperlink ref="G128" r:id="rId12" xr:uid="{757DF638-4C34-42A1-BA8F-AD4541A38734}"/>
-    <hyperlink ref="G123" r:id="rId13" xr:uid="{98E0996F-0FB4-4189-BE73-57E37E31FC3F}"/>
-    <hyperlink ref="G120" r:id="rId14" xr:uid="{009DD950-489A-4511-9EE8-3302596C4B91}"/>
-    <hyperlink ref="G125" r:id="rId15" xr:uid="{FEC9AB2B-6FD0-4D08-96BB-5634F117BFB0}"/>
-    <hyperlink ref="D135" r:id="rId16" xr:uid="{EAE526E7-10C0-4EC9-846A-D81343ACBEC4}"/>
-    <hyperlink ref="G165" r:id="rId17" xr:uid="{0A52F660-ABF2-41CF-BD4C-5E55458D590D}"/>
+    <hyperlink ref="G123" r:id="rId10" xr:uid="{5E6B6B1A-B5E2-4B87-A212-43CBE728E697}"/>
+    <hyperlink ref="G125" r:id="rId11" xr:uid="{21D57B30-A62F-4B04-8FC4-754A1492DE18}"/>
+    <hyperlink ref="G129" r:id="rId12" xr:uid="{757DF638-4C34-42A1-BA8F-AD4541A38734}"/>
+    <hyperlink ref="G124" r:id="rId13" xr:uid="{98E0996F-0FB4-4189-BE73-57E37E31FC3F}"/>
+    <hyperlink ref="G121" r:id="rId14" xr:uid="{009DD950-489A-4511-9EE8-3302596C4B91}"/>
+    <hyperlink ref="G126" r:id="rId15" xr:uid="{FEC9AB2B-6FD0-4D08-96BB-5634F117BFB0}"/>
+    <hyperlink ref="D136" r:id="rId16" xr:uid="{EAE526E7-10C0-4EC9-846A-D81343ACBEC4}"/>
+    <hyperlink ref="G166" r:id="rId17" xr:uid="{0A52F660-ABF2-41CF-BD4C-5E55458D590D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>

--- a/src/test/resources/testdata/zltUI/ZltTestData.xlsx
+++ b/src/test/resources/testdata/zltUI/ZltTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gowthamraj\git\zlaatanew\src\test\resources\testdata\zltUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjith\git\zlaataWoking\src\test\resources\testdata\zltUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15995E10-E53C-4A35-8FC4-31702BC990F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727D6848-C8B7-4FFC-8529-949B53539CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{905F911F-FA1A-4DDD-B945-7467E9458D34}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases-Zlaata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4780" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5145" uniqueCount="614">
   <si>
     <t>S.No</t>
   </si>
@@ -1841,6 +1841,33 @@
   </si>
   <si>
     <t>Verify Accessories, Recently Viewed, and Top Selling buttons on Checkout page</t>
+  </si>
+  <si>
+    <t>Admin Banner upload</t>
+  </si>
+  <si>
+    <t>TC_UI_Zlaata_ADM_01</t>
+  </si>
+  <si>
+    <t>TD_UI_Zlaata_ADM_01</t>
+  </si>
+  <si>
+    <t>Verify banner upload on home page section</t>
+  </si>
+  <si>
+    <t>https://qa.adm.testingserver8.com/admin/home-page-banner</t>
+  </si>
+  <si>
+    <t>Banner Tiltle</t>
+  </si>
+  <si>
+    <t>Home Page Automation</t>
+  </si>
+  <si>
+    <t>Sort by</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -2427,17 +2454,8 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2457,8 +2475,17 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3262,10 +3289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75D1F84-2AD1-4552-9C1F-85B59D75CCFA}">
-  <dimension ref="A1:Z167"/>
+  <dimension ref="A1:Z169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView topLeftCell="A156" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4018,18 +4045,18 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="85"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="82"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
@@ -4416,18 +4443,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="86" t="s">
+      <c r="A37" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="88"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="85"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
@@ -4846,18 +4873,18 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="86" t="s">
+      <c r="A51" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="B51" s="87"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="88"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="85"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
@@ -5180,18 +5207,18 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="86" t="s">
+      <c r="A62" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="B62" s="87"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="87"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="H62" s="87"/>
-      <c r="I62" s="87"/>
-      <c r="J62" s="88"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="84"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="84"/>
+      <c r="H62" s="84"/>
+      <c r="I62" s="84"/>
+      <c r="J62" s="85"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
@@ -5546,18 +5573,18 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="86" t="s">
+      <c r="A74" s="83" t="s">
         <v>346</v>
       </c>
-      <c r="B74" s="87"/>
-      <c r="C74" s="87"/>
-      <c r="D74" s="87"/>
-      <c r="E74" s="87"/>
-      <c r="F74" s="87"/>
-      <c r="G74" s="87"/>
-      <c r="H74" s="87"/>
-      <c r="I74" s="87"/>
-      <c r="J74" s="88"/>
+      <c r="B74" s="84"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="84"/>
+      <c r="G74" s="84"/>
+      <c r="H74" s="84"/>
+      <c r="I74" s="84"/>
+      <c r="J74" s="85"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
@@ -6424,18 +6451,18 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="89" t="s">
+      <c r="A102" s="79" t="s">
         <v>376</v>
       </c>
-      <c r="B102" s="89"/>
-      <c r="C102" s="89"/>
-      <c r="D102" s="89"/>
-      <c r="E102" s="89"/>
-      <c r="F102" s="89"/>
-      <c r="G102" s="89"/>
-      <c r="H102" s="89"/>
-      <c r="I102" s="89"/>
-      <c r="J102" s="89"/>
+      <c r="B102" s="79"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="79"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="79"/>
+      <c r="H102" s="79"/>
+      <c r="I102" s="79"/>
+      <c r="J102" s="79"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="25">
@@ -7191,13 +7218,13 @@
       </c>
       <c r="B125" s="78"/>
       <c r="C125" s="78"/>
-      <c r="D125" s="79"/>
-      <c r="E125" s="79"/>
-      <c r="F125" s="79"/>
-      <c r="G125" s="79"/>
-      <c r="H125" s="79"/>
-      <c r="I125" s="79"/>
-      <c r="J125" s="79"/>
+      <c r="D125" s="86"/>
+      <c r="E125" s="86"/>
+      <c r="F125" s="86"/>
+      <c r="G125" s="86"/>
+      <c r="H125" s="86"/>
+      <c r="I125" s="86"/>
+      <c r="J125" s="86"/>
     </row>
     <row r="126" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="59">
@@ -7660,18 +7687,18 @@
       <c r="X135" s="58"/>
     </row>
     <row r="136" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="80" t="s">
+      <c r="A136" s="87" t="s">
         <v>442</v>
       </c>
-      <c r="B136" s="81"/>
-      <c r="C136" s="81"/>
-      <c r="D136" s="81"/>
-      <c r="E136" s="81"/>
-      <c r="F136" s="81"/>
-      <c r="G136" s="81"/>
-      <c r="H136" s="81"/>
-      <c r="I136" s="81"/>
-      <c r="J136" s="82"/>
+      <c r="B136" s="88"/>
+      <c r="C136" s="88"/>
+      <c r="D136" s="88"/>
+      <c r="E136" s="88"/>
+      <c r="F136" s="88"/>
+      <c r="G136" s="88"/>
+      <c r="H136" s="88"/>
+      <c r="I136" s="88"/>
+      <c r="J136" s="89"/>
     </row>
     <row r="137" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="25">
@@ -9043,21 +9070,68 @@
       <c r="Y167" s="58"/>
       <c r="Z167" s="58"/>
     </row>
+    <row r="168" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="78" t="s">
+        <v>605</v>
+      </c>
+      <c r="B168" s="78"/>
+      <c r="C168" s="78"/>
+      <c r="D168" s="78"/>
+      <c r="E168" s="78"/>
+      <c r="F168" s="78"/>
+      <c r="G168" s="78"/>
+      <c r="H168" s="78"/>
+      <c r="I168" s="78"/>
+      <c r="J168" s="78"/>
+    </row>
+    <row r="169" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="73">
+        <v>18</v>
+      </c>
+      <c r="B169" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" s="75" t="s">
+        <v>606</v>
+      </c>
+      <c r="D169" s="77" t="s">
+        <v>608</v>
+      </c>
+      <c r="E169" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" s="75" t="s">
+        <v>607</v>
+      </c>
+      <c r="G169" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H169" s="74" t="s">
+        <v>544</v>
+      </c>
+      <c r="I169" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J169" s="74" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A168:J168"/>
     <mergeCell ref="A149:J149"/>
     <mergeCell ref="A147:J147"/>
     <mergeCell ref="A125:J125"/>
     <mergeCell ref="A136:J136"/>
+    <mergeCell ref="A117:J117"/>
+    <mergeCell ref="A115:J115"/>
+    <mergeCell ref="A113:J113"/>
+    <mergeCell ref="A102:J102"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A37:J37"/>
     <mergeCell ref="A51:J51"/>
     <mergeCell ref="A62:J62"/>
     <mergeCell ref="A74:J74"/>
-    <mergeCell ref="A117:J117"/>
-    <mergeCell ref="A115:J115"/>
-    <mergeCell ref="A113:J113"/>
-    <mergeCell ref="A102:J102"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E2:J2 E8:J21 E23:J23">
@@ -9155,10 +9229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE74813B-34A6-48F5-8B35-1C10409ED694}">
-  <dimension ref="A1:U166"/>
+  <dimension ref="A1:W167"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="S162" workbookViewId="0">
+      <selection activeCell="X185" sqref="X185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9179,9 +9253,10 @@
     <col min="19" max="19" width="71.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.140625" customWidth="1"/>
     <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
@@ -9245,8 +9320,14 @@
       <c r="U1" s="31" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V1" s="31" t="s">
+        <v>610</v>
+      </c>
+      <c r="W1" s="31" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>23</v>
       </c>
@@ -9306,8 +9387,14 @@
       <c r="U2" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>25</v>
       </c>
@@ -9367,8 +9454,14 @@
       <c r="U3" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>28</v>
       </c>
@@ -9428,8 +9521,14 @@
       <c r="U4" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>58</v>
       </c>
@@ -9489,8 +9588,14 @@
       <c r="U5" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>69</v>
       </c>
@@ -9550,8 +9655,14 @@
       <c r="U6" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W6" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>73</v>
       </c>
@@ -9611,8 +9722,14 @@
       <c r="U7" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="V7" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W7" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>77</v>
       </c>
@@ -9672,8 +9789,14 @@
       <c r="U8" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W8" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>79</v>
       </c>
@@ -9733,8 +9856,14 @@
       <c r="U9" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W9" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>80</v>
       </c>
@@ -9794,8 +9923,14 @@
       <c r="U10" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W10" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>81</v>
       </c>
@@ -9855,8 +9990,14 @@
       <c r="U11" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W11" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>83</v>
       </c>
@@ -9916,8 +10057,14 @@
       <c r="U12" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>84</v>
       </c>
@@ -9977,8 +10124,14 @@
       <c r="U13" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W13" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>85</v>
       </c>
@@ -10038,8 +10191,14 @@
       <c r="U14" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W14" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>86</v>
       </c>
@@ -10099,8 +10258,14 @@
       <c r="U15" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>87</v>
       </c>
@@ -10160,8 +10325,14 @@
       <c r="U16" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W16" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>88</v>
       </c>
@@ -10221,8 +10392,14 @@
       <c r="U17" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W17" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>89</v>
       </c>
@@ -10282,8 +10459,14 @@
       <c r="U18" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>91</v>
       </c>
@@ -10343,8 +10526,14 @@
       <c r="U19" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W19" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>93</v>
       </c>
@@ -10404,8 +10593,14 @@
       <c r="U20" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W20" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>94</v>
       </c>
@@ -10465,8 +10660,14 @@
       <c r="U21" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W21" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>135</v>
       </c>
@@ -10526,8 +10727,14 @@
       <c r="U22" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W22" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>140</v>
       </c>
@@ -10587,8 +10794,14 @@
       <c r="U23" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W23" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>63</v>
       </c>
@@ -10648,8 +10861,14 @@
       <c r="U24" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W24" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
         <v>144</v>
       </c>
@@ -10709,8 +10928,14 @@
       <c r="U25" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
         <v>145</v>
       </c>
@@ -10770,8 +10995,14 @@
       <c r="U26" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W26" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
         <v>146</v>
       </c>
@@ -10831,8 +11062,14 @@
       <c r="U27" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W27" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
         <v>147</v>
       </c>
@@ -10892,8 +11129,14 @@
       <c r="U28" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W28" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="46" t="s">
         <v>148</v>
       </c>
@@ -10953,8 +11196,14 @@
       <c r="U29" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V29" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W29" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>150</v>
       </c>
@@ -11014,8 +11263,14 @@
       <c r="U30" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W30" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="46" t="s">
         <v>151</v>
       </c>
@@ -11075,8 +11330,14 @@
       <c r="U31" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V31" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W31" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>152</v>
       </c>
@@ -11136,8 +11397,14 @@
       <c r="U32" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V32" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W32" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
         <v>153</v>
       </c>
@@ -11197,8 +11464,14 @@
       <c r="U33" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V33" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W33" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
         <v>154</v>
       </c>
@@ -11258,8 +11531,14 @@
       <c r="U34" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V34" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W34" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
         <v>155</v>
       </c>
@@ -11319,8 +11598,14 @@
       <c r="U35" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V35" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W35" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>64</v>
       </c>
@@ -11380,8 +11665,14 @@
       <c r="U36" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V36" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W36" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
         <v>175</v>
       </c>
@@ -11443,8 +11734,14 @@
       <c r="U37" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V37" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W37" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
         <v>179</v>
       </c>
@@ -11506,8 +11803,14 @@
       <c r="U38" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V38" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W38" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
         <v>182</v>
       </c>
@@ -11569,8 +11872,14 @@
       <c r="U39" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V39" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W39" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
         <v>185</v>
       </c>
@@ -11632,8 +11941,14 @@
       <c r="U40" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V40" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W40" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
         <v>188</v>
       </c>
@@ -11695,8 +12010,14 @@
       <c r="U41" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V41" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W41" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>190</v>
       </c>
@@ -11758,8 +12079,14 @@
       <c r="U42" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V42" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W42" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
         <v>193</v>
       </c>
@@ -11821,8 +12148,14 @@
       <c r="U43" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V43" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W43" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
         <v>196</v>
       </c>
@@ -11884,8 +12217,14 @@
       <c r="U44" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V44" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W44" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
         <v>199</v>
       </c>
@@ -11947,8 +12286,14 @@
       <c r="U45" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V45" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W45" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
         <v>201</v>
       </c>
@@ -12010,8 +12355,14 @@
       <c r="U46" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V46" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W46" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
         <v>203</v>
       </c>
@@ -12073,8 +12424,14 @@
       <c r="U47" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V47" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W47" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>205</v>
       </c>
@@ -12136,8 +12493,14 @@
       <c r="U48" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V48" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W48" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>207</v>
       </c>
@@ -12199,8 +12562,14 @@
       <c r="U49" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V49" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W49" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>209</v>
       </c>
@@ -12262,8 +12631,14 @@
       <c r="U50" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V50" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W50" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
         <v>211</v>
       </c>
@@ -12325,8 +12700,14 @@
       <c r="U51" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V51" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W51" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
         <v>213</v>
       </c>
@@ -12388,8 +12769,14 @@
       <c r="U52" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V52" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W52" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="55" t="s">
         <v>214</v>
       </c>
@@ -12451,8 +12838,14 @@
       <c r="U53" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V53" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W53" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
         <v>215</v>
       </c>
@@ -12514,8 +12907,14 @@
       <c r="U54" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V54" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W54" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>216</v>
       </c>
@@ -12577,8 +12976,14 @@
       <c r="U55" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V55" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W55" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>217</v>
       </c>
@@ -12640,8 +13045,14 @@
       <c r="U56" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V56" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W56" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>218</v>
       </c>
@@ -12703,8 +13114,14 @@
       <c r="U57" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V57" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W57" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>219</v>
       </c>
@@ -12766,8 +13183,14 @@
       <c r="U58" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V58" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W58" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
         <v>220</v>
       </c>
@@ -12829,8 +13252,14 @@
       <c r="U59" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V59" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W59" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>221</v>
       </c>
@@ -12892,8 +13321,14 @@
       <c r="U60" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V60" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W60" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>222</v>
       </c>
@@ -12955,8 +13390,14 @@
       <c r="U61" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V61" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W61" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="51" t="s">
         <v>223</v>
       </c>
@@ -13018,8 +13459,14 @@
       <c r="U62" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V62" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W62" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="56" t="s">
         <v>250</v>
       </c>
@@ -13081,8 +13528,14 @@
       <c r="U63" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V63" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W63" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
         <v>254</v>
       </c>
@@ -13144,8 +13597,14 @@
       <c r="U64" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V64" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W64" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>257</v>
       </c>
@@ -13207,8 +13666,14 @@
       <c r="U65" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V65" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W65" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>260</v>
       </c>
@@ -13270,8 +13735,14 @@
       <c r="U66" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V66" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W66" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>263</v>
       </c>
@@ -13333,8 +13804,14 @@
       <c r="U67" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V67" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W67" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>266</v>
       </c>
@@ -13396,8 +13873,14 @@
       <c r="U68" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V68" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W68" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>269</v>
       </c>
@@ -13459,8 +13942,14 @@
       <c r="U69" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V69" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W69" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>272</v>
       </c>
@@ -13522,8 +14011,14 @@
       <c r="U70" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V70" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W70" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
         <v>275</v>
       </c>
@@ -13585,8 +14080,14 @@
       <c r="U71" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V71" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W71" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>278</v>
       </c>
@@ -13648,8 +14149,14 @@
       <c r="U72" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V72" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W72" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="51" t="s">
         <v>281</v>
       </c>
@@ -13713,8 +14220,14 @@
       <c r="U73" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V73" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W73" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="62" t="s">
         <v>283</v>
       </c>
@@ -13778,8 +14291,14 @@
       <c r="U74" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V74" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W74" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>286</v>
       </c>
@@ -13843,8 +14362,14 @@
       <c r="U75" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V75" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W75" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>288</v>
       </c>
@@ -13908,8 +14433,14 @@
       <c r="U76" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V76" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W76" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>290</v>
       </c>
@@ -13973,8 +14504,14 @@
       <c r="U77" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V77" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W77" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>293</v>
       </c>
@@ -14038,8 +14575,14 @@
       <c r="U78" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V78" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W78" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
         <v>296</v>
       </c>
@@ -14103,8 +14646,14 @@
       <c r="U79" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V79" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W79" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
         <v>299</v>
       </c>
@@ -14168,8 +14717,14 @@
       <c r="U80" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V80" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W80" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
         <v>302</v>
       </c>
@@ -14233,8 +14788,14 @@
       <c r="U81" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V81" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W81" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>305</v>
       </c>
@@ -14298,8 +14859,14 @@
       <c r="U82" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V82" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W82" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>307</v>
       </c>
@@ -14363,8 +14930,14 @@
       <c r="U83" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V83" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W83" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
         <v>309</v>
       </c>
@@ -14428,8 +15001,14 @@
       <c r="U84" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V84" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W84" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>311</v>
       </c>
@@ -14493,8 +15072,14 @@
       <c r="U85" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V85" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W85" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>314</v>
       </c>
@@ -14558,8 +15143,14 @@
       <c r="U86" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V86" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W86" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
         <v>317</v>
       </c>
@@ -14623,8 +15214,14 @@
       <c r="U87" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V87" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W87" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>320</v>
       </c>
@@ -14688,8 +15285,14 @@
       <c r="U88" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V88" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W88" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
         <v>323</v>
       </c>
@@ -14753,8 +15356,14 @@
       <c r="U89" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V89" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W89" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>325</v>
       </c>
@@ -14818,8 +15427,14 @@
       <c r="U90" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V90" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W90" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
         <v>328</v>
       </c>
@@ -14883,8 +15498,14 @@
       <c r="U91" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V91" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W91" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
         <v>331</v>
       </c>
@@ -14948,8 +15569,14 @@
       <c r="U92" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V92" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W92" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>333</v>
       </c>
@@ -15013,8 +15640,14 @@
       <c r="U93" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V93" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W93" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
         <v>335</v>
       </c>
@@ -15078,8 +15711,14 @@
       <c r="U94" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V94" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W94" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="48" t="s">
         <v>337</v>
       </c>
@@ -15143,8 +15782,14 @@
       <c r="U95" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V95" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W95" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
         <v>339</v>
       </c>
@@ -15208,8 +15853,14 @@
       <c r="U96" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V96" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W96" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
         <v>341</v>
       </c>
@@ -15273,8 +15924,14 @@
       <c r="U97" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V97" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W97" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
         <v>343</v>
       </c>
@@ -15338,8 +15995,14 @@
       <c r="U98" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V98" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W98" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="48" t="s">
         <v>345</v>
       </c>
@@ -15403,8 +16066,14 @@
       <c r="U99" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V99" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W99" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="48" t="s">
         <v>601</v>
       </c>
@@ -15468,8 +16137,14 @@
       <c r="U100" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V100" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W100" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>349</v>
       </c>
@@ -15533,8 +16208,14 @@
       <c r="U101" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V101" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W101" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
         <v>353</v>
       </c>
@@ -15598,8 +16279,14 @@
       <c r="U102" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V102" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W102" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="48" t="s">
         <v>356</v>
       </c>
@@ -15663,8 +16350,14 @@
       <c r="U103" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V103" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W103" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>359</v>
       </c>
@@ -15728,8 +16421,14 @@
       <c r="U104" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V104" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W104" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
         <v>362</v>
       </c>
@@ -15793,8 +16492,14 @@
       <c r="U105" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V105" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W105" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
         <v>365</v>
       </c>
@@ -15858,8 +16563,14 @@
       <c r="U106" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V106" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W106" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>368</v>
       </c>
@@ -15923,8 +16634,14 @@
       <c r="U107" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V107" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W107" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
         <v>370</v>
       </c>
@@ -15988,8 +16705,14 @@
       <c r="U108" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V108" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W108" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="48" t="s">
         <v>372</v>
       </c>
@@ -16053,8 +16776,14 @@
       <c r="U109" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V109" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W109" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
         <v>602</v>
       </c>
@@ -16118,8 +16847,14 @@
       <c r="U110" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V110" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W110" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="48" t="s">
         <v>380</v>
       </c>
@@ -16183,8 +16918,14 @@
       <c r="U111" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V111" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W111" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="48" t="s">
         <v>385</v>
       </c>
@@ -16248,8 +16989,14 @@
       <c r="U112" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V112" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W112" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
         <v>399</v>
       </c>
@@ -16313,8 +17060,14 @@
       <c r="U113" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V113" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W113" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>401</v>
       </c>
@@ -16378,8 +17131,14 @@
       <c r="U114" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V114" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W114" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
         <v>402</v>
       </c>
@@ -16443,8 +17202,14 @@
       <c r="U115" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V115" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W115" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>403</v>
       </c>
@@ -16508,8 +17273,14 @@
       <c r="U116" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V116" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W116" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="48" t="s">
         <v>404</v>
       </c>
@@ -16573,8 +17344,14 @@
       <c r="U117" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V117" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W117" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
         <v>405</v>
       </c>
@@ -16638,8 +17415,14 @@
       <c r="U118" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V118" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W118" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="48" t="s">
         <v>407</v>
       </c>
@@ -16703,8 +17486,14 @@
       <c r="U119" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V119" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W119" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="48" t="s">
         <v>409</v>
       </c>
@@ -16768,8 +17557,14 @@
       <c r="U120" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="V120" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W120" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A121" s="62" t="s">
         <v>415</v>
       </c>
@@ -16833,8 +17628,14 @@
       <c r="U121" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V121" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W121" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>419</v>
       </c>
@@ -16898,8 +17699,14 @@
       <c r="U122" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V122" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W122" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="48" t="s">
         <v>422</v>
       </c>
@@ -16963,8 +17770,14 @@
       <c r="U123" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="V123" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W123" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A124" s="48" t="s">
         <v>424</v>
       </c>
@@ -17028,8 +17841,14 @@
       <c r="U124" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="V124" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W124" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A125" s="48" t="s">
         <v>426</v>
       </c>
@@ -17093,8 +17912,14 @@
       <c r="U125" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V125" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W125" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="48" t="s">
         <v>429</v>
       </c>
@@ -17158,8 +17983,14 @@
       <c r="U126" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V126" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W126" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="48" t="s">
         <v>432</v>
       </c>
@@ -17223,8 +18054,14 @@
       <c r="U127" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V127" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W127" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="48" t="s">
         <v>435</v>
       </c>
@@ -17288,8 +18125,14 @@
       <c r="U128" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="V128" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W128" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A129" s="48" t="s">
         <v>438</v>
       </c>
@@ -17353,8 +18196,14 @@
       <c r="U129" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V129" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W129" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
         <v>441</v>
       </c>
@@ -17418,8 +18267,14 @@
       <c r="U130" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V130" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W130" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="48" t="s">
         <v>399</v>
       </c>
@@ -17483,8 +18338,14 @@
       <c r="U131" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V131" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W131" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" s="48" t="s">
         <v>401</v>
       </c>
@@ -17548,8 +18409,14 @@
       <c r="U132" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V132" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W132" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" s="48" t="s">
         <v>402</v>
       </c>
@@ -17613,8 +18480,14 @@
       <c r="U133" s="48" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V133" s="48" t="s">
+        <v>493</v>
+      </c>
+      <c r="W133" s="48" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" s="48" t="s">
         <v>403</v>
       </c>
@@ -17678,8 +18551,14 @@
       <c r="U134" s="48" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V134" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="W134" s="48" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>404</v>
       </c>
@@ -17743,8 +18622,14 @@
       <c r="U135" s="48" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V135" s="48" t="s">
+        <v>488</v>
+      </c>
+      <c r="W135" s="48" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" s="48" t="s">
         <v>405</v>
       </c>
@@ -17808,8 +18693,14 @@
       <c r="U136" s="48" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V136" s="48" t="s">
+        <v>489</v>
+      </c>
+      <c r="W136" s="48" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" s="48" t="s">
         <v>407</v>
       </c>
@@ -17873,8 +18764,14 @@
       <c r="U137" s="48" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V137" s="48" t="s">
+        <v>490</v>
+      </c>
+      <c r="W137" s="48" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" s="48" t="s">
         <v>445</v>
       </c>
@@ -17938,8 +18835,14 @@
       <c r="U138" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V138" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W138" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" s="48" t="s">
         <v>449</v>
       </c>
@@ -18003,8 +18906,14 @@
       <c r="U139" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V139" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W139" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" s="48" t="s">
         <v>452</v>
       </c>
@@ -18068,8 +18977,14 @@
       <c r="U140" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V140" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W140" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" s="48" t="s">
         <v>454</v>
       </c>
@@ -18133,8 +19048,14 @@
       <c r="U141" s="48" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V141" s="48" t="s">
+        <v>535</v>
+      </c>
+      <c r="W141" s="48" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" s="48" t="s">
         <v>457</v>
       </c>
@@ -18198,8 +19119,14 @@
       <c r="U142" s="48" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V142" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="W142" s="48" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" s="48" t="s">
         <v>460</v>
       </c>
@@ -18263,8 +19190,14 @@
       <c r="U143" s="48" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V143" s="48" t="s">
+        <v>488</v>
+      </c>
+      <c r="W143" s="48" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" s="48" t="s">
         <v>463</v>
       </c>
@@ -18328,8 +19261,14 @@
       <c r="U144" s="48" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V144" s="48" t="s">
+        <v>489</v>
+      </c>
+      <c r="W144" s="48" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" s="48" t="s">
         <v>466</v>
       </c>
@@ -18393,8 +19332,14 @@
       <c r="U145" s="48" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="146" spans="1:21" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="V145" s="48" t="s">
+        <v>490</v>
+      </c>
+      <c r="W145" s="48" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A146" s="48" t="s">
         <v>469</v>
       </c>
@@ -18458,8 +19403,14 @@
       <c r="U146" s="48" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="147" spans="1:21" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="V146" s="48" t="s">
+        <v>491</v>
+      </c>
+      <c r="W146" s="48" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A147" s="48" t="s">
         <v>472</v>
       </c>
@@ -18523,8 +19474,14 @@
       <c r="U147" s="48" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="148" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V147" s="48" t="s">
+        <v>492</v>
+      </c>
+      <c r="W147" s="48" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="48" t="s">
         <v>513</v>
       </c>
@@ -18588,8 +19545,14 @@
       <c r="U148" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V148" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W148" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="67" t="s">
         <v>543</v>
       </c>
@@ -18653,8 +19616,14 @@
       <c r="U149" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W149" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="70" t="s">
         <v>547</v>
       </c>
@@ -18718,8 +19687,14 @@
       <c r="U150" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="151" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V150" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W150" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="67" t="s">
         <v>550</v>
       </c>
@@ -18783,8 +19758,14 @@
       <c r="U151" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="152" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V151" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W151" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="70" t="s">
         <v>553</v>
       </c>
@@ -18848,8 +19829,14 @@
       <c r="U152" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="153" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V152" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W152" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="67" t="s">
         <v>555</v>
       </c>
@@ -18913,8 +19900,14 @@
       <c r="U153" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="154" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V153" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W153" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="70" t="s">
         <v>557</v>
       </c>
@@ -18978,8 +19971,14 @@
       <c r="U154" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="155" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V154" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W154" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="67" t="s">
         <v>559</v>
       </c>
@@ -19043,8 +20042,14 @@
       <c r="U155" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="156" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V155" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W155" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="70" t="s">
         <v>561</v>
       </c>
@@ -19108,8 +20113,14 @@
       <c r="U156" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="157" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W156" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="67" t="s">
         <v>563</v>
       </c>
@@ -19173,8 +20184,14 @@
       <c r="U157" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="158" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V157" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W157" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="70" t="s">
         <v>566</v>
       </c>
@@ -19238,8 +20255,14 @@
       <c r="U158" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="159" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V158" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W158" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="67" t="s">
         <v>569</v>
       </c>
@@ -19303,8 +20326,14 @@
       <c r="U159" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="160" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V159" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W159" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="70" t="s">
         <v>572</v>
       </c>
@@ -19368,8 +20397,14 @@
       <c r="U160" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="161" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V160" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W160" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="67" t="s">
         <v>575</v>
       </c>
@@ -19433,8 +20468,14 @@
       <c r="U161" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="162" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V161" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W161" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="70" t="s">
         <v>578</v>
       </c>
@@ -19498,8 +20539,14 @@
       <c r="U162" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="163" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V162" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W162" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="67" t="s">
         <v>581</v>
       </c>
@@ -19563,8 +20610,14 @@
       <c r="U163" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="164" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V163" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W163" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="67" t="s">
         <v>583</v>
       </c>
@@ -19628,8 +20681,14 @@
       <c r="U164" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="165" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V164" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W164" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="67" t="s">
         <v>585</v>
       </c>
@@ -19693,8 +20752,14 @@
       <c r="U165" s="48" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="166" spans="1:21" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V165" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W165" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="67" t="s">
         <v>588</v>
       </c>
@@ -19757,6 +20822,83 @@
       </c>
       <c r="U166" s="48" t="s">
         <v>22</v>
+      </c>
+      <c r="V166" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="W166" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="75" t="s">
+        <v>607</v>
+      </c>
+      <c r="B167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="O167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S167" s="49" t="s">
+        <v>609</v>
+      </c>
+      <c r="T167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="U167" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="V167" s="48" t="s">
+        <v>611</v>
+      </c>
+      <c r="W167" s="36" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -19883,8 +21025,9 @@
     <hyperlink ref="G126" r:id="rId15" xr:uid="{FEC9AB2B-6FD0-4D08-96BB-5634F117BFB0}"/>
     <hyperlink ref="D136" r:id="rId16" xr:uid="{EAE526E7-10C0-4EC9-846A-D81343ACBEC4}"/>
     <hyperlink ref="G166" r:id="rId17" xr:uid="{0A52F660-ABF2-41CF-BD4C-5E55458D590D}"/>
+    <hyperlink ref="S167" r:id="rId18" xr:uid="{13FB8A07-5562-4AAB-9E83-934C01965617}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>